--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -20,12 +20,12 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AM$1:$AM$43</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$P$1:$P$287</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="lifestage">'cv_sample'!$J$1:$J$23</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="symbiont">'cv_sample'!$AK$1:$AK$2</definedName>
   </definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="693">
   <si>
     <t>alias</t>
   </si>
@@ -453,6 +453,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -552,6 +564,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -669,6 +699,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -676,6 +709,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2622,10 +2658,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2666,10 +2702,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2732,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2716,7 +2752,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2733,7 +2769,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2750,7 +2786,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2767,7 +2803,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2784,7 +2820,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2801,7 +2837,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2818,7 +2854,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2835,7 +2871,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2852,7 +2888,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2866,7 +2902,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2880,7 +2916,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2894,7 +2930,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2908,7 +2944,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2918,8 +2954,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2929,8 +2968,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2940,8 +2982,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2951,8 +2996,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2963,7 +3011,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2974,7 +3022,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2985,7 +3033,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2996,7 +3044,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -3007,7 +3055,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -3018,7 +3066,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -3029,7 +3077,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -3040,7 +3088,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -3051,7 +3099,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3062,7 +3110,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3073,7 +3121,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3084,7 +3132,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3095,7 +3143,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3106,7 +3154,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3114,7 +3162,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3122,7 +3170,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3130,7 +3178,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3138,7 +3186,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3146,7 +3194,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3154,7 +3202,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3162,7 +3210,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3170,7 +3218,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3178,7 +3226,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3186,176 +3234,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3380,27 +3468,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3423,122 +3511,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3565,276 +3653,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -3866,1641 +3954,1641 @@
   <sheetData>
     <row r="1" spans="10:39">
       <c r="J1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="P1" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="AK1" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AM1" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="10:39">
       <c r="J2" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AK2" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AM2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="10:39">
       <c r="J3" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="P3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="AM3" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="10:39">
       <c r="J4" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="P4" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AM4" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="10:39">
       <c r="J5" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="P5" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AM5" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="10:39">
       <c r="J6" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="P6" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AM6" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="10:39">
       <c r="J7" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="P7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AM7" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="10:39">
       <c r="J8" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="P8" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="AM8" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="10:39">
       <c r="J9" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="P9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AM9" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
     </row>
     <row r="10" spans="10:39">
       <c r="J10" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="P10" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AM10" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="10:39">
       <c r="J11" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="P11" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="AM11" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="10:39">
       <c r="J12" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="P12" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AM12" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="13" spans="10:39">
       <c r="J13" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P13" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AM13" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="14" spans="10:39">
       <c r="J14" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="P14" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AM14" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="10:39">
       <c r="J15" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P15" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AM15" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="16" spans="10:39">
       <c r="J16" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="P16" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AM16" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="10:39">
       <c r="J17" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P17" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AM17" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="10:39">
       <c r="J18" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P18" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AM18" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="10:39">
       <c r="J19" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="P19" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AM19" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="10:39">
       <c r="J20" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="P20" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AM20" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="10:39">
       <c r="J21" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="P21" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AM21" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
     </row>
     <row r="22" spans="10:39">
       <c r="J22" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AM22" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="10:39">
       <c r="J23" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="P23" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AM23" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="24" spans="10:39">
       <c r="P24" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="AM24" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="10:39">
       <c r="P25" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="AM25" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="10:39">
       <c r="P26" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AM26" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="10:39">
       <c r="P27" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AM27" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="10:39">
       <c r="P28" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AM28" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="10:39">
       <c r="P29" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AM29" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="10:39">
       <c r="P30" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AM30" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
     </row>
     <row r="31" spans="10:39">
       <c r="P31" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AM31" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
     </row>
     <row r="32" spans="10:39">
       <c r="P32" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AM32" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
     </row>
     <row r="33" spans="16:39">
       <c r="P33" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="16:39">
       <c r="P34" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
     </row>
     <row r="35" spans="16:39">
       <c r="P35" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="AM35" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="16:39">
       <c r="P36" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="16:39">
       <c r="P37" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="AM37" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="16:39">
       <c r="P38" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="AM38" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="16:39">
       <c r="P39" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="AM39" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
     </row>
     <row r="40" spans="16:39">
       <c r="P40" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="41" spans="16:39">
       <c r="P41" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="AM41" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="16:39">
       <c r="P42" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="16:39">
       <c r="P43" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AM43" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="16:39">
       <c r="P44" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="16:39">
       <c r="P45" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="16:39">
       <c r="P46" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
     </row>
     <row r="47" spans="16:39">
       <c r="P47" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="16:39">
       <c r="P48" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="16:16">
       <c r="P49" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="16:16">
       <c r="P50" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51" spans="16:16">
       <c r="P51" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="52" spans="16:16">
       <c r="P52" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="16:16">
       <c r="P53" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="54" spans="16:16">
       <c r="P54" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" spans="16:16">
       <c r="P55" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="56" spans="16:16">
       <c r="P56" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="16:16">
       <c r="P57" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="58" spans="16:16">
       <c r="P58" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="59" spans="16:16">
       <c r="P59" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="16:16">
       <c r="P60" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="61" spans="16:16">
       <c r="P61" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="16:16">
       <c r="P62" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="63" spans="16:16">
       <c r="P63" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="64" spans="16:16">
       <c r="P64" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="16:16">
       <c r="P65" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66" spans="16:16">
       <c r="P66" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="67" spans="16:16">
       <c r="P67" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="68" spans="16:16">
       <c r="P68" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="69" spans="16:16">
       <c r="P69" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="16:16">
       <c r="P70" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="71" spans="16:16">
       <c r="P71" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="72" spans="16:16">
       <c r="P72" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="73" spans="16:16">
       <c r="P73" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="16:16">
       <c r="P74" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="16:16">
       <c r="P75" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="16:16">
       <c r="P76" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="16:16">
       <c r="P77" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="78" spans="16:16">
       <c r="P78" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="79" spans="16:16">
       <c r="P79" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="16:16">
       <c r="P80" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="16:16">
       <c r="P81" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="16:16">
       <c r="P82" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="16:16">
       <c r="P83" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="16:16">
       <c r="P84" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="16:16">
       <c r="P85" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" spans="16:16">
       <c r="P86" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="16:16">
       <c r="P87" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="16:16">
       <c r="P88" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="16:16">
       <c r="P89" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="16:16">
       <c r="P90" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="16:16">
       <c r="P91" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="16:16">
       <c r="P92" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="16:16">
       <c r="P93" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="16:16">
       <c r="P94" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="16:16">
       <c r="P95" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="16:16">
       <c r="P96" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="16:16">
       <c r="P97" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="16:16">
       <c r="P98" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="16:16">
       <c r="P99" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="16:16">
       <c r="P100" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="16:16">
       <c r="P101" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="16:16">
       <c r="P102" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="16:16">
       <c r="P103" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="16:16">
       <c r="P104" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="105" spans="16:16">
       <c r="P105" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="106" spans="16:16">
       <c r="P106" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="107" spans="16:16">
       <c r="P107" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="108" spans="16:16">
       <c r="P108" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="109" spans="16:16">
       <c r="P109" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="110" spans="16:16">
       <c r="P110" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="16:16">
       <c r="P111" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="112" spans="16:16">
       <c r="P112" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="113" spans="16:16">
       <c r="P113" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="114" spans="16:16">
       <c r="P114" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="115" spans="16:16">
       <c r="P115" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="16:16">
       <c r="P116" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="117" spans="16:16">
       <c r="P117" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118" spans="16:16">
       <c r="P118" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="119" spans="16:16">
       <c r="P119" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="16:16">
       <c r="P120" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="16:16">
       <c r="P121" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="16:16">
       <c r="P122" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="123" spans="16:16">
       <c r="P123" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="124" spans="16:16">
       <c r="P124" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="125" spans="16:16">
       <c r="P125" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="126" spans="16:16">
       <c r="P126" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="127" spans="16:16">
       <c r="P127" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="128" spans="16:16">
       <c r="P128" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="16:16">
       <c r="P129" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="130" spans="16:16">
       <c r="P130" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="16:16">
       <c r="P131" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="16:16">
       <c r="P132" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="16:16">
       <c r="P133" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="16:16">
       <c r="P134" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="16:16">
       <c r="P135" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="136" spans="16:16">
       <c r="P136" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="16:16">
       <c r="P137" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="138" spans="16:16">
       <c r="P138" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="139" spans="16:16">
       <c r="P139" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" spans="16:16">
       <c r="P140" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="141" spans="16:16">
       <c r="P141" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="142" spans="16:16">
       <c r="P142" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="143" spans="16:16">
       <c r="P143" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="144" spans="16:16">
       <c r="P144" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="16:16">
       <c r="P145" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="146" spans="16:16">
       <c r="P146" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="147" spans="16:16">
       <c r="P147" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="148" spans="16:16">
       <c r="P148" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="149" spans="16:16">
       <c r="P149" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="150" spans="16:16">
       <c r="P150" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="151" spans="16:16">
       <c r="P151" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="152" spans="16:16">
       <c r="P152" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="153" spans="16:16">
       <c r="P153" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="154" spans="16:16">
       <c r="P154" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="16:16">
       <c r="P155" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="156" spans="16:16">
       <c r="P156" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="16:16">
       <c r="P157" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="158" spans="16:16">
       <c r="P158" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="16:16">
       <c r="P159" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="160" spans="16:16">
       <c r="P160" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="161" spans="16:16">
       <c r="P161" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="162" spans="16:16">
       <c r="P162" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="16:16">
       <c r="P163" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="16:16">
       <c r="P164" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="16:16">
       <c r="P165" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="166" spans="16:16">
       <c r="P166" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="167" spans="16:16">
       <c r="P167" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="16:16">
       <c r="P168" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169" spans="16:16">
       <c r="P169" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="16:16">
       <c r="P170" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="16:16">
       <c r="P171" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="16:16">
       <c r="P172" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="16:16">
       <c r="P173" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="16:16">
       <c r="P174" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="175" spans="16:16">
       <c r="P175" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="176" spans="16:16">
       <c r="P176" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="16:16">
       <c r="P177" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="16:16">
       <c r="P178" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="179" spans="16:16">
       <c r="P179" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="16:16">
       <c r="P180" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="16:16">
       <c r="P181" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="16:16">
       <c r="P182" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="16:16">
       <c r="P183" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="184" spans="16:16">
       <c r="P184" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="185" spans="16:16">
       <c r="P185" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="16:16">
       <c r="P186" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="16:16">
       <c r="P187" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="16:16">
       <c r="P188" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="16:16">
       <c r="P189" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="190" spans="16:16">
       <c r="P190" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="191" spans="16:16">
       <c r="P191" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="16:16">
       <c r="P192" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="193" spans="16:16">
       <c r="P193" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="16:16">
       <c r="P194" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="195" spans="16:16">
       <c r="P195" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196" spans="16:16">
       <c r="P196" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" spans="16:16">
       <c r="P197" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" spans="16:16">
       <c r="P198" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="199" spans="16:16">
       <c r="P199" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="200" spans="16:16">
       <c r="P200" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="201" spans="16:16">
       <c r="P201" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="202" spans="16:16">
       <c r="P202" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="203" spans="16:16">
       <c r="P203" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="204" spans="16:16">
       <c r="P204" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="205" spans="16:16">
       <c r="P205" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="16:16">
       <c r="P206" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="207" spans="16:16">
       <c r="P207" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="208" spans="16:16">
       <c r="P208" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="209" spans="16:16">
       <c r="P209" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="210" spans="16:16">
       <c r="P210" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="211" spans="16:16">
       <c r="P211" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="212" spans="16:16">
       <c r="P212" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="213" spans="16:16">
       <c r="P213" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="214" spans="16:16">
       <c r="P214" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="215" spans="16:16">
       <c r="P215" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="216" spans="16:16">
       <c r="P216" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="217" spans="16:16">
       <c r="P217" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="218" spans="16:16">
       <c r="P218" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="219" spans="16:16">
       <c r="P219" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="220" spans="16:16">
       <c r="P220" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="221" spans="16:16">
       <c r="P221" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="222" spans="16:16">
       <c r="P222" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="223" spans="16:16">
       <c r="P223" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="224" spans="16:16">
       <c r="P224" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="16:16">
       <c r="P225" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="226" spans="16:16">
       <c r="P226" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="16:16">
       <c r="P227" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228" spans="16:16">
       <c r="P228" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="229" spans="16:16">
       <c r="P229" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="230" spans="16:16">
       <c r="P230" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="231" spans="16:16">
       <c r="P231" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="232" spans="16:16">
       <c r="P232" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="233" spans="16:16">
       <c r="P233" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="234" spans="16:16">
       <c r="P234" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="235" spans="16:16">
       <c r="P235" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="236" spans="16:16">
       <c r="P236" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="237" spans="16:16">
       <c r="P237" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="238" spans="16:16">
       <c r="P238" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="239" spans="16:16">
       <c r="P239" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="240" spans="16:16">
       <c r="P240" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="241" spans="16:16">
       <c r="P241" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="16:16">
       <c r="P242" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="16:16">
       <c r="P243" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="16:16">
       <c r="P244" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="16:16">
       <c r="P245" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246" spans="16:16">
       <c r="P246" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
     </row>
     <row r="247" spans="16:16">
       <c r="P247" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" spans="16:16">
       <c r="P248" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
     </row>
     <row r="249" spans="16:16">
       <c r="P249" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="250" spans="16:16">
       <c r="P250" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="251" spans="16:16">
       <c r="P251" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="252" spans="16:16">
       <c r="P252" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="253" spans="16:16">
       <c r="P253" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="254" spans="16:16">
       <c r="P254" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="16:16">
       <c r="P255" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="256" spans="16:16">
       <c r="P256" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="257" spans="16:16">
       <c r="P257" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="258" spans="16:16">
       <c r="P258" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="259" spans="16:16">
       <c r="P259" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="16:16">
       <c r="P260" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="261" spans="16:16">
       <c r="P261" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="16:16">
       <c r="P262" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="16:16">
       <c r="P263" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="264" spans="16:16">
       <c r="P264" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="16:16">
       <c r="P265" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="266" spans="16:16">
       <c r="P266" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="267" spans="16:16">
       <c r="P267" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="268" spans="16:16">
       <c r="P268" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="269" spans="16:16">
       <c r="P269" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="270" spans="16:16">
       <c r="P270" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="16:16">
       <c r="P271" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="272" spans="16:16">
       <c r="P272" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="16:16">
       <c r="P273" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="274" spans="16:16">
       <c r="P274" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="275" spans="16:16">
       <c r="P275" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="16:16">
       <c r="P276" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="16:16">
       <c r="P277" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="16:16">
       <c r="P278" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="16:16">
       <c r="P279" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="16:16">
       <c r="P280" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="16:16">
       <c r="P281" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="16:16">
       <c r="P282" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" spans="16:16">
       <c r="P283" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284" spans="16:16">
       <c r="P284" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="16:16">
       <c r="P285" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="16:16">
       <c r="P286" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="16:16">
       <c r="P287" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -834,29 +834,25 @@
     <t>Latitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. Units: 
-                    </t>
+    <t>(Optional) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude Start</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. Units: 
-                    </t>
+    <t>(Optional) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
     <t>Latitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. Units: 
-                    </t>
+    <t>(Optional) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
     <t>Longitude End</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. Units: 
-                    </t>
+    <t>(Optional) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
     <t>organism part</t>
@@ -1807,15 +1803,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1833,15 +1827,13 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>elevation</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. Units: 
-                    </t>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
   </si>
   <si>
     <t>habitat</t>
@@ -1871,15 +1863,13 @@
     <t>original geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>original geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>sample collection device or method</t>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -102,7 +102,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="GAL">'cv_sample'!$AM$1:$AM$43</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$P$1:$P$287</definedName>
+    <definedName name="GAL">'cv_sample'!$AL$1:$AL$43</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -27,14 +27,14 @@
     <definedName name="lifestage">'cv_sample'!$J$1:$J$23</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="symbiont">'cv_sample'!$AK$1:$AK$2</definedName>
+    <definedName name="symbiont">'cv_sample'!$M$1:$M$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="694">
   <si>
     <t>alias</t>
   </si>
@@ -936,24 +936,72 @@
     <t>(Mandatory) The age class or life stage of the organism at the time of collection.</t>
   </si>
   <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>(Optional) Indicates if the specimen has a known relationship to another specimen (e.g. parental, child, sibling or other kind of relationship)</t>
+  </si>
+  <si>
+    <t>sample symbiont of</t>
+  </si>
+  <si>
+    <t>(Optional) Reference to host sample from symbiont. the referenced sample should already be registered in insdc. e.g. ersxxxxxx</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>symbiont</t>
+  </si>
+  <si>
+    <t>(Optional) Used to separate host and symbiont metadata within a symbiont system where the host species are indicated as 'n' and symbionts are indicated as 'y'</t>
+  </si>
+  <si>
+    <t>sample collection method</t>
+  </si>
+  <si>
+    <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
+  </si>
+  <si>
+    <t>sample coordinator affiliation</t>
+  </si>
+  <si>
+    <t>(Optional) The university, institution, or society affiliation of the sample coordinator.</t>
+  </si>
+  <si>
+    <t>sample same as</t>
+  </si>
+  <si>
+    <t>(Optional) Reference to sample(s) that are equivalent. the referenced sample(s) should already be registered in insdc. this should be formatted as one of the following. a single sample e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx</t>
+  </si>
+  <si>
+    <t>sample derived from</t>
+  </si>
+  <si>
+    <t>(Optional) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
+  </si>
+  <si>
     <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
+    <t>barcoding center</t>
+  </si>
+  <si>
+    <t>(Optional) Center where dna barcoding was/will be performed.</t>
+  </si>
+  <si>
     <t>tolid</t>
   </si>
   <si>
     <t>(Optional) A tolid (tree of life id) is a unique and easy to communicate sample identifier that provides species recognition, differentiates between specimen of the same species and adds taxonomic context. tolids are issued by id.tol.sanger.ac.uk. they are endorsed by the earthbiogenome project (ebp) and should be assigned to any sample with association to the ebp.</t>
   </si>
   <si>
-    <t>barcoding center</t>
-  </si>
-  <si>
-    <t>(Optional) Center where dna barcoding was/will be performed.</t>
-  </si>
-  <si>
     <t>collected_by</t>
   </si>
   <si>
@@ -1161,6 +1209,9 @@
     <t>Czech Republic</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Democratic Republic of the Congo</t>
   </si>
   <si>
@@ -1797,7 +1848,7 @@
     <t>geographic location (country and/or sea)</t>
   </si>
   <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
     <t>geographic location (latitude)</t>
@@ -1824,295 +1875,247 @@
     <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
   </si>
   <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>(Mandatory) Description of the location of the sample material. please use envo terms where possible: https://www.ebi.ac.uk/ols/ontologies/envo</t>
+  </si>
+  <si>
+    <t>identifier_affiliation</t>
+  </si>
+  <si>
+    <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
+  </si>
+  <si>
+    <t>original collection date</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>original geographic location</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
+  </si>
+  <si>
+    <t>original geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>original geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>sample coordinator</t>
+  </si>
+  <si>
+    <t>(Optional) The name of the sample coordinator.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>collecting institution</t>
+  </si>
+  <si>
+    <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
+  </si>
+  <si>
+    <t>Centro Nacional de Análisis Genómico</t>
+  </si>
+  <si>
+    <t>DNA Sequencing and Genomics Laboratory, Helsinki Genomics Core Facility</t>
+  </si>
+  <si>
+    <t>Dalhousie University</t>
+  </si>
+  <si>
+    <t>Dresden-concept</t>
+  </si>
+  <si>
+    <t>Earlham Institute</t>
+  </si>
+  <si>
+    <t>Functional Genomics Center Zurich</t>
+  </si>
+  <si>
+    <t>GIGA-Genomics Core Facility, University of Liege</t>
+  </si>
+  <si>
+    <t>Genoscope</t>
+  </si>
+  <si>
+    <t>Geomar Helmholtz Centre</t>
+  </si>
+  <si>
+    <t>Hansen Lab, Denmark</t>
+  </si>
+  <si>
+    <t>Lausanne Genomic Technologies Facility</t>
+  </si>
+  <si>
+    <t>Leibniz Institute for the Analysis of Biodiversity Change, Museum Koenig, Bonn</t>
+  </si>
+  <si>
+    <t>Marine Biological Association</t>
+  </si>
+  <si>
+    <t>NGS Bern</t>
+  </si>
+  <si>
+    <t>NGS Competence Center Tübingen</t>
+  </si>
+  <si>
+    <t>Natural History Museum</t>
+  </si>
+  <si>
+    <t>Neuromics Support Facility, UAntwerp, VIB</t>
+  </si>
+  <si>
+    <t>Norwegian Sequencing Centre</t>
+  </si>
+  <si>
+    <t>Nova Southeastern University</t>
+  </si>
+  <si>
+    <t>Portland State University</t>
+  </si>
+  <si>
+    <t>Queen Mary University of London</t>
+  </si>
+  <si>
+    <t>Royal Botanic Garden Edinburgh</t>
+  </si>
+  <si>
+    <t>Royal Botanic Gardens Kew</t>
+  </si>
+  <si>
+    <t>Sanger Institute</t>
+  </si>
+  <si>
+    <t>SciLifeLab</t>
+  </si>
+  <si>
+    <t>Senckenberg Research Institute</t>
+  </si>
+  <si>
+    <t>Svardal Lab, Antwerp</t>
+  </si>
+  <si>
+    <t>The Sainsbury Laboratory</t>
+  </si>
+  <si>
+    <t>University of Bari</t>
+  </si>
+  <si>
+    <t>University of British Columbia</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>University of Derby</t>
+  </si>
+  <si>
+    <t>University of Edinburgh</t>
+  </si>
+  <si>
+    <t>University of Florence</t>
+  </si>
+  <si>
+    <t>University of Oregon</t>
+  </si>
+  <si>
+    <t>University of Oxford</t>
+  </si>
+  <si>
+    <t>University of Rhode Island</t>
+  </si>
+  <si>
+    <t>University of Vienna (Cephalopod)</t>
+  </si>
+  <si>
+    <t>University of Vienna (Mollusc)</t>
+  </si>
+  <si>
+    <t>West German Genome Centre</t>
+  </si>
+  <si>
+    <t>industry partner</t>
+  </si>
+  <si>
+    <t>other ERGA associated GAL</t>
+  </si>
+  <si>
+    <t>GAL</t>
+  </si>
+  <si>
+    <t>(Optional) The name (or acronym) of the genome acquisition lab responsible for the sample.</t>
+  </si>
+  <si>
+    <t>specimen_id</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier used to link all data for the recorded specimen.</t>
+  </si>
+  <si>
+    <t>GAL_sample_id</t>
+  </si>
+  <si>
+    <t>(Optional) Unique name assigned to the sample by the genome acquisition lab.</t>
+  </si>
+  <si>
+    <t>proxy voucher</t>
+  </si>
+  <si>
+    <t>(Optional) For use if voucher material needs to be made from a specimen that is different than the one submitted for sequencing. please record the unique identifier that references the physical specimen and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>proxy biomaterial</t>
+  </si>
+  <si>
+    <t>(Optional) For use if voucher material needs to be made from a material that is different from the one submitted for sequencing. please record the unique identifier that references the biomaterial and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the material id (institution_code:collection_code:material_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>bio_material</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier that references the biological material from which the sample was obtained and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
+  </si>
+  <si>
+    <t>(Recommended) Unique identifier that references the physical specimen that remains after the sequence has been obtained and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>culture_or_strain_id</t>
+  </si>
+  <si>
+    <t>(Optional) Living, culturable, named laboratory strain that sequenced material is derived from.</t>
+  </si>
+  <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>habitat</t>
-  </si>
-  <si>
-    <t>(Mandatory) Description of the location of the sample material. please use envo terms where possible: https://www.ebi.ac.uk/ols/ontologies/envo</t>
-  </si>
-  <si>
-    <t>identifier_affiliation</t>
-  </si>
-  <si>
-    <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
-  </si>
-  <si>
-    <t>original collection date</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>original geographic location</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
-  </si>
-  <si>
-    <t>original geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>original geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>sample collection device or method</t>
-  </si>
-  <si>
-    <t>(Optional) The method or deviced employed for collecting the sample</t>
-  </si>
-  <si>
-    <t>sample derived from</t>
-  </si>
-  <si>
-    <t>(Optional) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
-  </si>
-  <si>
-    <t>sample same as</t>
-  </si>
-  <si>
-    <t>(Optional) Reference to sample(s) that are equivalent. the referenced sample(s) should already be registered in insdc. this should be formatted as one of the following. a single sample e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx</t>
-  </si>
-  <si>
-    <t>sample symbiont of</t>
-  </si>
-  <si>
-    <t>(Optional) Reference to host sample from symbiont. the referenced sample should already be registered in insdc. e.g. ersxxxxxx</t>
-  </si>
-  <si>
-    <t>sample coordinator</t>
-  </si>
-  <si>
-    <t>(Optional) The name of the sample coordinator.</t>
-  </si>
-  <si>
-    <t>sample coordinator affiliation</t>
-  </si>
-  <si>
-    <t>(Optional) The university, institution, or society affiliation of the sample coordinator.</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>relationship</t>
-  </si>
-  <si>
-    <t>(Optional) Indicates if the specimen has a known relationship to another specimen (e.g. parental, child, sibling or other kind of relationship)</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>symbiont</t>
-  </si>
-  <si>
-    <t>(Optional) Used to separate host and symbiont metadata within a symbiont system where the host species are indicated as 'n' and symbionts are indicated as 'y'</t>
-  </si>
-  <si>
-    <t>collecting institution</t>
-  </si>
-  <si>
-    <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
-  </si>
-  <si>
-    <t>Centro Nacional de Análisis Genómico</t>
-  </si>
-  <si>
-    <t>DNA Sequencing and Genomics Laboratory, Helsinki Genomics Core Facility</t>
-  </si>
-  <si>
-    <t>Dalhousie University</t>
-  </si>
-  <si>
-    <t>Dresden-concept</t>
-  </si>
-  <si>
-    <t>Earlham Institute</t>
-  </si>
-  <si>
-    <t>Functional Genomics Center Zurich</t>
-  </si>
-  <si>
-    <t>GIGA-Genomics Core Facility, University of Liege</t>
-  </si>
-  <si>
-    <t>Genoscope</t>
-  </si>
-  <si>
-    <t>Geomar Helmholtz Centre</t>
-  </si>
-  <si>
-    <t>Hansen Lab, Denmark</t>
-  </si>
-  <si>
-    <t>Lausanne Genomic Technologies Facility</t>
-  </si>
-  <si>
-    <t>Leibniz Institute for the Analysis of Biodiversity Change, Museum Koenig, Bonn</t>
-  </si>
-  <si>
-    <t>Marine Biological Association</t>
-  </si>
-  <si>
-    <t>NGS Bern</t>
-  </si>
-  <si>
-    <t>NGS Competence Center Tübingen</t>
-  </si>
-  <si>
-    <t>Natural History Museum</t>
-  </si>
-  <si>
-    <t>Neuromics Support Facility, UAntwerp, VIB</t>
-  </si>
-  <si>
-    <t>Norwegian Sequencing Centre</t>
-  </si>
-  <si>
-    <t>Nova Southeastern University</t>
-  </si>
-  <si>
-    <t>Portland State University</t>
-  </si>
-  <si>
-    <t>Queen Mary University of London</t>
-  </si>
-  <si>
-    <t>Royal Botanic Garden Edinburgh</t>
-  </si>
-  <si>
-    <t>Royal Botanic Gardens Kew</t>
-  </si>
-  <si>
-    <t>Sanger Institute</t>
-  </si>
-  <si>
-    <t>SciLifeLab</t>
-  </si>
-  <si>
-    <t>Senckenberg Research Institute</t>
-  </si>
-  <si>
-    <t>Svardal Lab, Antwerp</t>
-  </si>
-  <si>
-    <t>The Sainsbury Laboratory</t>
-  </si>
-  <si>
-    <t>University of Bari</t>
-  </si>
-  <si>
-    <t>University of British Columbia</t>
-  </si>
-  <si>
-    <t>University of California</t>
-  </si>
-  <si>
-    <t>University of Cambridge</t>
-  </si>
-  <si>
-    <t>University of Derby</t>
-  </si>
-  <si>
-    <t>University of Edinburgh</t>
-  </si>
-  <si>
-    <t>University of Florence</t>
-  </si>
-  <si>
-    <t>University of Oregon</t>
-  </si>
-  <si>
-    <t>University of Oxford</t>
-  </si>
-  <si>
-    <t>University of Rhode Island</t>
-  </si>
-  <si>
-    <t>University of Vienna (Cephalopod)</t>
-  </si>
-  <si>
-    <t>University of Vienna (Mollusc)</t>
-  </si>
-  <si>
-    <t>West German Genome Centre</t>
-  </si>
-  <si>
-    <t>industry partner</t>
-  </si>
-  <si>
-    <t>other ERGA associated GAL</t>
-  </si>
-  <si>
-    <t>GAL</t>
-  </si>
-  <si>
-    <t>(Optional) The name (or acronym) of the genome acquisition lab responsible for the sample.</t>
-  </si>
-  <si>
-    <t>specimen_id</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier used to link all data for the recorded specimen.</t>
-  </si>
-  <si>
-    <t>GAL_sample_id</t>
-  </si>
-  <si>
-    <t>(Optional) Unique name assigned to the sample by the genome acquisition lab.</t>
-  </si>
-  <si>
-    <t>proxy voucher</t>
-  </si>
-  <si>
-    <t>(Optional) For use if voucher material needs to be made from a specimen that is different than the one submitted for sequencing. please record the unique identifier that references the physical specimen and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>proxy biomaterial</t>
-  </si>
-  <si>
-    <t>(Optional) For use if voucher material needs to be made from a material that is different from the one submitted for sequencing. please record the unique identifier that references the biomaterial and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the material id (institution_code:collection_code:material_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>bio_material</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier that references the biological material from which the sample was obtained and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>specimen_voucher</t>
-  </si>
-  <si>
-    <t>(Recommended) Unique identifier that references the physical specimen that remains after the sequence has been obtained and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>culture_or_strain_id</t>
-  </si>
-  <si>
-    <t>(Optional) Living, culturable, named laboratory strain that sequenced material is derived from.</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3673,106 +3676,106 @@
         <v>302</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>586</v>
+        <v>312</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>588</v>
+        <v>314</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>590</v>
+        <v>316</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>592</v>
+        <v>318</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>594</v>
+        <v>320</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>596</v>
+        <v>322</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>598</v>
+        <v>324</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
@@ -3813,106 +3816,106 @@
         <v>303</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>587</v>
+        <v>313</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>589</v>
+        <v>315</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>591</v>
+        <v>317</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>593</v>
+        <v>319</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>595</v>
+        <v>321</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>597</v>
+        <v>323</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>599</v>
+        <v>325</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -3920,13 +3923,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>lifestage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+      <formula1>symbiont</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK3:AK101">
-      <formula1>symbiont</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM3:AM101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
       <formula1>GAL</formula1>
     </dataValidation>
   </dataValidations>
@@ -3936,1649 +3939,1654 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:AM287"/>
+  <dimension ref="J1:AL288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="10:39">
+    <row r="1" spans="10:38">
       <c r="J1" t="s">
         <v>275</v>
       </c>
-      <c r="P1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>628</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="10:39">
+      <c r="M1" t="s">
+        <v>304</v>
+      </c>
+      <c r="W1" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="2" spans="10:38">
       <c r="J2" t="s">
         <v>276</v>
       </c>
-      <c r="P2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>629</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="3" spans="10:39">
+      <c r="M2" t="s">
+        <v>305</v>
+      </c>
+      <c r="W2" t="s">
+        <v>327</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3" spans="10:38">
       <c r="J3" t="s">
         <v>277</v>
       </c>
-      <c r="P3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="4" spans="10:39">
+      <c r="W3" t="s">
+        <v>328</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="10:38">
       <c r="J4" t="s">
         <v>278</v>
       </c>
-      <c r="P4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="5" spans="10:39">
+      <c r="W4" t="s">
+        <v>329</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="5" spans="10:38">
       <c r="J5" t="s">
         <v>279</v>
       </c>
-      <c r="P5" t="s">
-        <v>314</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="6" spans="10:39">
+      <c r="W5" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="6" spans="10:38">
       <c r="J6" t="s">
         <v>280</v>
       </c>
-      <c r="P6" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="10:39">
+      <c r="W6" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="10:38">
       <c r="J7" t="s">
         <v>281</v>
       </c>
-      <c r="P7" t="s">
-        <v>316</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="10:39">
+      <c r="W7" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="8" spans="10:38">
       <c r="J8" t="s">
         <v>282</v>
       </c>
-      <c r="P8" t="s">
-        <v>317</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="10:39">
+      <c r="W8" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="10:38">
       <c r="J9" t="s">
         <v>283</v>
       </c>
-      <c r="P9" t="s">
-        <v>318</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="10" spans="10:39">
+      <c r="W9" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="10:38">
       <c r="J10" t="s">
         <v>284</v>
       </c>
-      <c r="P10" t="s">
-        <v>319</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="11" spans="10:39">
+      <c r="W10" t="s">
+        <v>335</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="10:38">
       <c r="J11" t="s">
         <v>285</v>
       </c>
-      <c r="P11" t="s">
-        <v>320</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="12" spans="10:39">
+      <c r="W11" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="12" spans="10:38">
       <c r="J12" t="s">
         <v>286</v>
       </c>
-      <c r="P12" t="s">
-        <v>321</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="13" spans="10:39">
+      <c r="W12" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="13" spans="10:38">
       <c r="J13" t="s">
         <v>287</v>
       </c>
-      <c r="P13" t="s">
-        <v>322</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="10:39">
+      <c r="W13" t="s">
+        <v>338</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="14" spans="10:38">
       <c r="J14" t="s">
         <v>288</v>
       </c>
-      <c r="P14" t="s">
-        <v>323</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="10:39">
+      <c r="W14" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="15" spans="10:38">
       <c r="J15" t="s">
         <v>289</v>
       </c>
-      <c r="P15" t="s">
-        <v>324</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="10:39">
+      <c r="W15" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="16" spans="10:38">
       <c r="J16" t="s">
         <v>290</v>
       </c>
-      <c r="P16" t="s">
-        <v>325</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="10:39">
+      <c r="W16" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="17" spans="10:38">
       <c r="J17" t="s">
         <v>291</v>
       </c>
-      <c r="P17" t="s">
-        <v>326</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="18" spans="10:39">
+      <c r="W17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="18" spans="10:38">
       <c r="J18" t="s">
         <v>292</v>
       </c>
-      <c r="P18" t="s">
-        <v>327</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="19" spans="10:39">
+      <c r="W18" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="10:38">
       <c r="J19" t="s">
         <v>293</v>
       </c>
-      <c r="P19" t="s">
-        <v>328</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="20" spans="10:39">
+      <c r="W19" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20" spans="10:38">
       <c r="J20" t="s">
         <v>294</v>
       </c>
-      <c r="P20" t="s">
-        <v>329</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="21" spans="10:39">
+      <c r="W20" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="21" spans="10:38">
       <c r="J21" t="s">
         <v>295</v>
       </c>
-      <c r="P21" t="s">
-        <v>330</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="22" spans="10:39">
+      <c r="W21" t="s">
+        <v>346</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="22" spans="10:38">
       <c r="J22" t="s">
         <v>296</v>
       </c>
-      <c r="P22" t="s">
-        <v>331</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="23" spans="10:39">
+      <c r="W22" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="23" spans="10:38">
       <c r="J23" t="s">
         <v>297</v>
       </c>
-      <c r="P23" t="s">
-        <v>332</v>
-      </c>
-      <c r="AM23" t="s">
+      <c r="W23" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="24" spans="10:38">
+      <c r="W24" t="s">
+        <v>349</v>
+      </c>
+      <c r="AL24" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="10:39">
-      <c r="P24" t="s">
-        <v>333</v>
-      </c>
-      <c r="AM24" t="s">
+    <row r="25" spans="10:38">
+      <c r="W25" t="s">
+        <v>350</v>
+      </c>
+      <c r="AL25" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="25" spans="10:39">
-      <c r="P25" t="s">
-        <v>334</v>
-      </c>
-      <c r="AM25" t="s">
+    <row r="26" spans="10:38">
+      <c r="W26" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL26" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="10:39">
-      <c r="P26" t="s">
-        <v>335</v>
-      </c>
-      <c r="AM26" t="s">
+    <row r="27" spans="10:38">
+      <c r="W27" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL27" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="27" spans="10:39">
-      <c r="P27" t="s">
-        <v>336</v>
-      </c>
-      <c r="AM27" t="s">
+    <row r="28" spans="10:38">
+      <c r="W28" t="s">
+        <v>353</v>
+      </c>
+      <c r="AL28" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="28" spans="10:39">
-      <c r="P28" t="s">
-        <v>337</v>
-      </c>
-      <c r="AM28" t="s">
+    <row r="29" spans="10:38">
+      <c r="W29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AL29" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="29" spans="10:39">
-      <c r="P29" t="s">
-        <v>338</v>
-      </c>
-      <c r="AM29" t="s">
+    <row r="30" spans="10:38">
+      <c r="W30" t="s">
+        <v>355</v>
+      </c>
+      <c r="AL30" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="10:39">
-      <c r="P30" t="s">
-        <v>339</v>
-      </c>
-      <c r="AM30" t="s">
+    <row r="31" spans="10:38">
+      <c r="W31" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL31" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="31" spans="10:39">
-      <c r="P31" t="s">
-        <v>340</v>
-      </c>
-      <c r="AM31" t="s">
+    <row r="32" spans="10:38">
+      <c r="W32" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL32" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="32" spans="10:39">
-      <c r="P32" t="s">
-        <v>341</v>
-      </c>
-      <c r="AM32" t="s">
+    <row r="33" spans="23:38">
+      <c r="W33" t="s">
+        <v>358</v>
+      </c>
+      <c r="AL33" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="33" spans="16:39">
-      <c r="P33" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM33" t="s">
+    <row r="34" spans="23:38">
+      <c r="W34" t="s">
+        <v>359</v>
+      </c>
+      <c r="AL34" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="34" spans="16:39">
-      <c r="P34" t="s">
-        <v>343</v>
-      </c>
-      <c r="AM34" t="s">
+    <row r="35" spans="23:38">
+      <c r="W35" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL35" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="35" spans="16:39">
-      <c r="P35" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM35" t="s">
+    <row r="36" spans="23:38">
+      <c r="W36" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL36" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="16:39">
-      <c r="P36" t="s">
-        <v>345</v>
-      </c>
-      <c r="AM36" t="s">
+    <row r="37" spans="23:38">
+      <c r="W37" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL37" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="37" spans="16:39">
-      <c r="P37" t="s">
-        <v>346</v>
-      </c>
-      <c r="AM37" t="s">
+    <row r="38" spans="23:38">
+      <c r="W38" t="s">
+        <v>363</v>
+      </c>
+      <c r="AL38" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="38" spans="16:39">
-      <c r="P38" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM38" t="s">
+    <row r="39" spans="23:38">
+      <c r="W39" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL39" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="39" spans="16:39">
-      <c r="P39" t="s">
-        <v>348</v>
-      </c>
-      <c r="AM39" t="s">
+    <row r="40" spans="23:38">
+      <c r="W40" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL40" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="40" spans="16:39">
-      <c r="P40" t="s">
-        <v>349</v>
-      </c>
-      <c r="AM40" t="s">
+    <row r="41" spans="23:38">
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL41" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="41" spans="16:39">
-      <c r="P41" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM41" t="s">
+    <row r="42" spans="23:38">
+      <c r="W42" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL42" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="42" spans="16:39">
-      <c r="P42" t="s">
-        <v>351</v>
-      </c>
-      <c r="AM42" t="s">
+    <row r="43" spans="23:38">
+      <c r="W43" t="s">
+        <v>368</v>
+      </c>
+      <c r="AL43" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="43" spans="16:39">
-      <c r="P43" t="s">
-        <v>352</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="44" spans="16:39">
-      <c r="P44" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="45" spans="16:39">
-      <c r="P45" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="46" spans="16:39">
-      <c r="P46" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="47" spans="16:39">
-      <c r="P47" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="48" spans="16:39">
-      <c r="P48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="16:16">
-      <c r="P49" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="50" spans="16:16">
-      <c r="P50" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="16:16">
-      <c r="P51" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="52" spans="16:16">
-      <c r="P52" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="53" spans="16:16">
-      <c r="P53" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="54" spans="16:16">
-      <c r="P54" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="16:16">
-      <c r="P55" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="56" spans="16:16">
-      <c r="P56" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="57" spans="16:16">
-      <c r="P57" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="58" spans="16:16">
-      <c r="P58" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="59" spans="16:16">
-      <c r="P59" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="60" spans="16:16">
-      <c r="P60" t="s">
+    <row r="44" spans="23:38">
+      <c r="W44" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="61" spans="16:16">
-      <c r="P61" t="s">
+    <row r="45" spans="23:38">
+      <c r="W45" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="62" spans="16:16">
-      <c r="P62" t="s">
+    <row r="46" spans="23:38">
+      <c r="W46" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="63" spans="16:16">
-      <c r="P63" t="s">
+    <row r="47" spans="23:38">
+      <c r="W47" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="64" spans="16:16">
-      <c r="P64" t="s">
+    <row r="48" spans="23:38">
+      <c r="W48" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="65" spans="16:16">
-      <c r="P65" t="s">
+    <row r="49" spans="23:23">
+      <c r="W49" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="66" spans="16:16">
-      <c r="P66" t="s">
+    <row r="50" spans="23:23">
+      <c r="W50" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="67" spans="16:16">
-      <c r="P67" t="s">
+    <row r="51" spans="23:23">
+      <c r="W51" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="68" spans="16:16">
-      <c r="P68" t="s">
+    <row r="52" spans="23:23">
+      <c r="W52" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="69" spans="16:16">
-      <c r="P69" t="s">
+    <row r="53" spans="23:23">
+      <c r="W53" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="70" spans="16:16">
-      <c r="P70" t="s">
+    <row r="54" spans="23:23">
+      <c r="W54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="71" spans="16:16">
-      <c r="P71" t="s">
+    <row r="55" spans="23:23">
+      <c r="W55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="72" spans="16:16">
-      <c r="P72" t="s">
+    <row r="56" spans="23:23">
+      <c r="W56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="16:16">
-      <c r="P73" t="s">
+    <row r="57" spans="23:23">
+      <c r="W57" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="16:16">
-      <c r="P74" t="s">
+    <row r="58" spans="23:23">
+      <c r="W58" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="75" spans="16:16">
-      <c r="P75" t="s">
+    <row r="59" spans="23:23">
+      <c r="W59" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="16:16">
-      <c r="P76" t="s">
+    <row r="60" spans="23:23">
+      <c r="W60" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="77" spans="16:16">
-      <c r="P77" t="s">
+    <row r="61" spans="23:23">
+      <c r="W61" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="78" spans="16:16">
-      <c r="P78" t="s">
+    <row r="62" spans="23:23">
+      <c r="W62" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="79" spans="16:16">
-      <c r="P79" t="s">
+    <row r="63" spans="23:23">
+      <c r="W63" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="80" spans="16:16">
-      <c r="P80" t="s">
+    <row r="64" spans="23:23">
+      <c r="W64" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="81" spans="16:16">
-      <c r="P81" t="s">
+    <row r="65" spans="23:23">
+      <c r="W65" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="82" spans="16:16">
-      <c r="P82" t="s">
+    <row r="66" spans="23:23">
+      <c r="W66" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="83" spans="16:16">
-      <c r="P83" t="s">
+    <row r="67" spans="23:23">
+      <c r="W67" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="16:16">
-      <c r="P84" t="s">
+    <row r="68" spans="23:23">
+      <c r="W68" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="16:16">
-      <c r="P85" t="s">
+    <row r="69" spans="23:23">
+      <c r="W69" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="86" spans="16:16">
-      <c r="P86" t="s">
+    <row r="70" spans="23:23">
+      <c r="W70" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="87" spans="16:16">
-      <c r="P87" t="s">
+    <row r="71" spans="23:23">
+      <c r="W71" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="16:16">
-      <c r="P88" t="s">
+    <row r="72" spans="23:23">
+      <c r="W72" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="89" spans="16:16">
-      <c r="P89" t="s">
+    <row r="73" spans="23:23">
+      <c r="W73" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="90" spans="16:16">
-      <c r="P90" t="s">
+    <row r="74" spans="23:23">
+      <c r="W74" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="91" spans="16:16">
-      <c r="P91" t="s">
+    <row r="75" spans="23:23">
+      <c r="W75" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="16:16">
-      <c r="P92" t="s">
+    <row r="76" spans="23:23">
+      <c r="W76" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="93" spans="16:16">
-      <c r="P93" t="s">
+    <row r="77" spans="23:23">
+      <c r="W77" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="94" spans="16:16">
-      <c r="P94" t="s">
+    <row r="78" spans="23:23">
+      <c r="W78" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="95" spans="16:16">
-      <c r="P95" t="s">
+    <row r="79" spans="23:23">
+      <c r="W79" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="96" spans="16:16">
-      <c r="P96" t="s">
+    <row r="80" spans="23:23">
+      <c r="W80" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="97" spans="16:16">
-      <c r="P97" t="s">
+    <row r="81" spans="23:23">
+      <c r="W81" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="98" spans="16:16">
-      <c r="P98" t="s">
+    <row r="82" spans="23:23">
+      <c r="W82" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="99" spans="16:16">
-      <c r="P99" t="s">
+    <row r="83" spans="23:23">
+      <c r="W83" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="100" spans="16:16">
-      <c r="P100" t="s">
+    <row r="84" spans="23:23">
+      <c r="W84" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="101" spans="16:16">
-      <c r="P101" t="s">
+    <row r="85" spans="23:23">
+      <c r="W85" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="102" spans="16:16">
-      <c r="P102" t="s">
+    <row r="86" spans="23:23">
+      <c r="W86" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="103" spans="16:16">
-      <c r="P103" t="s">
+    <row r="87" spans="23:23">
+      <c r="W87" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="16:16">
-      <c r="P104" t="s">
+    <row r="88" spans="23:23">
+      <c r="W88" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="16:16">
-      <c r="P105" t="s">
+    <row r="89" spans="23:23">
+      <c r="W89" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="106" spans="16:16">
-      <c r="P106" t="s">
+    <row r="90" spans="23:23">
+      <c r="W90" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="107" spans="16:16">
-      <c r="P107" t="s">
+    <row r="91" spans="23:23">
+      <c r="W91" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="108" spans="16:16">
-      <c r="P108" t="s">
+    <row r="92" spans="23:23">
+      <c r="W92" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="16:16">
-      <c r="P109" t="s">
+    <row r="93" spans="23:23">
+      <c r="W93" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="110" spans="16:16">
-      <c r="P110" t="s">
+    <row r="94" spans="23:23">
+      <c r="W94" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="111" spans="16:16">
-      <c r="P111" t="s">
+    <row r="95" spans="23:23">
+      <c r="W95" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="112" spans="16:16">
-      <c r="P112" t="s">
+    <row r="96" spans="23:23">
+      <c r="W96" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="113" spans="16:16">
-      <c r="P113" t="s">
+    <row r="97" spans="23:23">
+      <c r="W97" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="114" spans="16:16">
-      <c r="P114" t="s">
+    <row r="98" spans="23:23">
+      <c r="W98" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="115" spans="16:16">
-      <c r="P115" t="s">
+    <row r="99" spans="23:23">
+      <c r="W99" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="116" spans="16:16">
-      <c r="P116" t="s">
+    <row r="100" spans="23:23">
+      <c r="W100" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="117" spans="16:16">
-      <c r="P117" t="s">
+    <row r="101" spans="23:23">
+      <c r="W101" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="118" spans="16:16">
-      <c r="P118" t="s">
+    <row r="102" spans="23:23">
+      <c r="W102" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="119" spans="16:16">
-      <c r="P119" t="s">
+    <row r="103" spans="23:23">
+      <c r="W103" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="120" spans="16:16">
-      <c r="P120" t="s">
+    <row r="104" spans="23:23">
+      <c r="W104" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="121" spans="16:16">
-      <c r="P121" t="s">
+    <row r="105" spans="23:23">
+      <c r="W105" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="16:16">
-      <c r="P122" t="s">
+    <row r="106" spans="23:23">
+      <c r="W106" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="123" spans="16:16">
-      <c r="P123" t="s">
+    <row r="107" spans="23:23">
+      <c r="W107" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="124" spans="16:16">
-      <c r="P124" t="s">
+    <row r="108" spans="23:23">
+      <c r="W108" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="125" spans="16:16">
-      <c r="P125" t="s">
+    <row r="109" spans="23:23">
+      <c r="W109" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="16:16">
-      <c r="P126" t="s">
+    <row r="110" spans="23:23">
+      <c r="W110" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="127" spans="16:16">
-      <c r="P127" t="s">
+    <row r="111" spans="23:23">
+      <c r="W111" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="128" spans="16:16">
-      <c r="P128" t="s">
+    <row r="112" spans="23:23">
+      <c r="W112" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="129" spans="16:16">
-      <c r="P129" t="s">
+    <row r="113" spans="23:23">
+      <c r="W113" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="130" spans="16:16">
-      <c r="P130" t="s">
+    <row r="114" spans="23:23">
+      <c r="W114" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="131" spans="16:16">
-      <c r="P131" t="s">
+    <row r="115" spans="23:23">
+      <c r="W115" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="16:16">
-      <c r="P132" t="s">
+    <row r="116" spans="23:23">
+      <c r="W116" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="133" spans="16:16">
-      <c r="P133" t="s">
+    <row r="117" spans="23:23">
+      <c r="W117" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="134" spans="16:16">
-      <c r="P134" t="s">
+    <row r="118" spans="23:23">
+      <c r="W118" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="135" spans="16:16">
-      <c r="P135" t="s">
+    <row r="119" spans="23:23">
+      <c r="W119" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="136" spans="16:16">
-      <c r="P136" t="s">
+    <row r="120" spans="23:23">
+      <c r="W120" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="137" spans="16:16">
-      <c r="P137" t="s">
+    <row r="121" spans="23:23">
+      <c r="W121" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="138" spans="16:16">
-      <c r="P138" t="s">
+    <row r="122" spans="23:23">
+      <c r="W122" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="139" spans="16:16">
-      <c r="P139" t="s">
+    <row r="123" spans="23:23">
+      <c r="W123" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="140" spans="16:16">
-      <c r="P140" t="s">
+    <row r="124" spans="23:23">
+      <c r="W124" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="141" spans="16:16">
-      <c r="P141" t="s">
+    <row r="125" spans="23:23">
+      <c r="W125" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="142" spans="16:16">
-      <c r="P142" t="s">
+    <row r="126" spans="23:23">
+      <c r="W126" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="143" spans="16:16">
-      <c r="P143" t="s">
+    <row r="127" spans="23:23">
+      <c r="W127" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="144" spans="16:16">
-      <c r="P144" t="s">
+    <row r="128" spans="23:23">
+      <c r="W128" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="145" spans="16:16">
-      <c r="P145" t="s">
+    <row r="129" spans="23:23">
+      <c r="W129" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="146" spans="16:16">
-      <c r="P146" t="s">
+    <row r="130" spans="23:23">
+      <c r="W130" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="16:16">
-      <c r="P147" t="s">
+    <row r="131" spans="23:23">
+      <c r="W131" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="148" spans="16:16">
-      <c r="P148" t="s">
+    <row r="132" spans="23:23">
+      <c r="W132" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="149" spans="16:16">
-      <c r="P149" t="s">
+    <row r="133" spans="23:23">
+      <c r="W133" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="150" spans="16:16">
-      <c r="P150" t="s">
+    <row r="134" spans="23:23">
+      <c r="W134" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="151" spans="16:16">
-      <c r="P151" t="s">
+    <row r="135" spans="23:23">
+      <c r="W135" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="16:16">
-      <c r="P152" t="s">
+    <row r="136" spans="23:23">
+      <c r="W136" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="153" spans="16:16">
-      <c r="P153" t="s">
+    <row r="137" spans="23:23">
+      <c r="W137" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="16:16">
-      <c r="P154" t="s">
+    <row r="138" spans="23:23">
+      <c r="W138" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="16:16">
-      <c r="P155" t="s">
+    <row r="139" spans="23:23">
+      <c r="W139" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="16:16">
-      <c r="P156" t="s">
+    <row r="140" spans="23:23">
+      <c r="W140" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="157" spans="16:16">
-      <c r="P157" t="s">
+    <row r="141" spans="23:23">
+      <c r="W141" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="158" spans="16:16">
-      <c r="P158" t="s">
+    <row r="142" spans="23:23">
+      <c r="W142" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="159" spans="16:16">
-      <c r="P159" t="s">
+    <row r="143" spans="23:23">
+      <c r="W143" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="160" spans="16:16">
-      <c r="P160" t="s">
+    <row r="144" spans="23:23">
+      <c r="W144" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="161" spans="16:16">
-      <c r="P161" t="s">
+    <row r="145" spans="23:23">
+      <c r="W145" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="162" spans="16:16">
-      <c r="P162" t="s">
+    <row r="146" spans="23:23">
+      <c r="W146" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="163" spans="16:16">
-      <c r="P163" t="s">
+    <row r="147" spans="23:23">
+      <c r="W147" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="164" spans="16:16">
-      <c r="P164" t="s">
+    <row r="148" spans="23:23">
+      <c r="W148" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="165" spans="16:16">
-      <c r="P165" t="s">
+    <row r="149" spans="23:23">
+      <c r="W149" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="166" spans="16:16">
-      <c r="P166" t="s">
+    <row r="150" spans="23:23">
+      <c r="W150" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="167" spans="16:16">
-      <c r="P167" t="s">
+    <row r="151" spans="23:23">
+      <c r="W151" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="168" spans="16:16">
-      <c r="P168" t="s">
+    <row r="152" spans="23:23">
+      <c r="W152" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="169" spans="16:16">
-      <c r="P169" t="s">
+    <row r="153" spans="23:23">
+      <c r="W153" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="170" spans="16:16">
-      <c r="P170" t="s">
+    <row r="154" spans="23:23">
+      <c r="W154" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="171" spans="16:16">
-      <c r="P171" t="s">
+    <row r="155" spans="23:23">
+      <c r="W155" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="172" spans="16:16">
-      <c r="P172" t="s">
+    <row r="156" spans="23:23">
+      <c r="W156" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="173" spans="16:16">
-      <c r="P173" t="s">
+    <row r="157" spans="23:23">
+      <c r="W157" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="174" spans="16:16">
-      <c r="P174" t="s">
+    <row r="158" spans="23:23">
+      <c r="W158" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="16:16">
-      <c r="P175" t="s">
+    <row r="159" spans="23:23">
+      <c r="W159" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="176" spans="16:16">
-      <c r="P176" t="s">
+    <row r="160" spans="23:23">
+      <c r="W160" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="177" spans="16:16">
-      <c r="P177" t="s">
+    <row r="161" spans="23:23">
+      <c r="W161" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="178" spans="16:16">
-      <c r="P178" t="s">
+    <row r="162" spans="23:23">
+      <c r="W162" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="179" spans="16:16">
-      <c r="P179" t="s">
+    <row r="163" spans="23:23">
+      <c r="W163" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="180" spans="16:16">
-      <c r="P180" t="s">
+    <row r="164" spans="23:23">
+      <c r="W164" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="181" spans="16:16">
-      <c r="P181" t="s">
+    <row r="165" spans="23:23">
+      <c r="W165" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="182" spans="16:16">
-      <c r="P182" t="s">
+    <row r="166" spans="23:23">
+      <c r="W166" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="16:16">
-      <c r="P183" t="s">
+    <row r="167" spans="23:23">
+      <c r="W167" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="184" spans="16:16">
-      <c r="P184" t="s">
+    <row r="168" spans="23:23">
+      <c r="W168" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="185" spans="16:16">
-      <c r="P185" t="s">
+    <row r="169" spans="23:23">
+      <c r="W169" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="186" spans="16:16">
-      <c r="P186" t="s">
+    <row r="170" spans="23:23">
+      <c r="W170" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="187" spans="16:16">
-      <c r="P187" t="s">
+    <row r="171" spans="23:23">
+      <c r="W171" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="188" spans="16:16">
-      <c r="P188" t="s">
+    <row r="172" spans="23:23">
+      <c r="W172" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="189" spans="16:16">
-      <c r="P189" t="s">
+    <row r="173" spans="23:23">
+      <c r="W173" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="190" spans="16:16">
-      <c r="P190" t="s">
+    <row r="174" spans="23:23">
+      <c r="W174" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="191" spans="16:16">
-      <c r="P191" t="s">
+    <row r="175" spans="23:23">
+      <c r="W175" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="192" spans="16:16">
-      <c r="P192" t="s">
+    <row r="176" spans="23:23">
+      <c r="W176" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="193" spans="16:16">
-      <c r="P193" t="s">
+    <row r="177" spans="23:23">
+      <c r="W177" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="194" spans="16:16">
-      <c r="P194" t="s">
+    <row r="178" spans="23:23">
+      <c r="W178" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="195" spans="16:16">
-      <c r="P195" t="s">
+    <row r="179" spans="23:23">
+      <c r="W179" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="196" spans="16:16">
-      <c r="P196" t="s">
+    <row r="180" spans="23:23">
+      <c r="W180" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="197" spans="16:16">
-      <c r="P197" t="s">
+    <row r="181" spans="23:23">
+      <c r="W181" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="198" spans="16:16">
-      <c r="P198" t="s">
+    <row r="182" spans="23:23">
+      <c r="W182" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="199" spans="16:16">
-      <c r="P199" t="s">
+    <row r="183" spans="23:23">
+      <c r="W183" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="200" spans="16:16">
-      <c r="P200" t="s">
+    <row r="184" spans="23:23">
+      <c r="W184" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="201" spans="16:16">
-      <c r="P201" t="s">
+    <row r="185" spans="23:23">
+      <c r="W185" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="202" spans="16:16">
-      <c r="P202" t="s">
+    <row r="186" spans="23:23">
+      <c r="W186" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="203" spans="16:16">
-      <c r="P203" t="s">
+    <row r="187" spans="23:23">
+      <c r="W187" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="204" spans="16:16">
-      <c r="P204" t="s">
+    <row r="188" spans="23:23">
+      <c r="W188" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="205" spans="16:16">
-      <c r="P205" t="s">
+    <row r="189" spans="23:23">
+      <c r="W189" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="206" spans="16:16">
-      <c r="P206" t="s">
+    <row r="190" spans="23:23">
+      <c r="W190" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="207" spans="16:16">
-      <c r="P207" t="s">
+    <row r="191" spans="23:23">
+      <c r="W191" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="208" spans="16:16">
-      <c r="P208" t="s">
+    <row r="192" spans="23:23">
+      <c r="W192" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="209" spans="16:16">
-      <c r="P209" t="s">
+    <row r="193" spans="23:23">
+      <c r="W193" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="210" spans="16:16">
-      <c r="P210" t="s">
+    <row r="194" spans="23:23">
+      <c r="W194" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="211" spans="16:16">
-      <c r="P211" t="s">
+    <row r="195" spans="23:23">
+      <c r="W195" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="212" spans="16:16">
-      <c r="P212" t="s">
+    <row r="196" spans="23:23">
+      <c r="W196" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="213" spans="16:16">
-      <c r="P213" t="s">
+    <row r="197" spans="23:23">
+      <c r="W197" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="214" spans="16:16">
-      <c r="P214" t="s">
+    <row r="198" spans="23:23">
+      <c r="W198" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="215" spans="16:16">
-      <c r="P215" t="s">
+    <row r="199" spans="23:23">
+      <c r="W199" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="216" spans="16:16">
-      <c r="P216" t="s">
+    <row r="200" spans="23:23">
+      <c r="W200" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="217" spans="16:16">
-      <c r="P217" t="s">
+    <row r="201" spans="23:23">
+      <c r="W201" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="218" spans="16:16">
-      <c r="P218" t="s">
+    <row r="202" spans="23:23">
+      <c r="W202" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="219" spans="16:16">
-      <c r="P219" t="s">
+    <row r="203" spans="23:23">
+      <c r="W203" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="220" spans="16:16">
-      <c r="P220" t="s">
+    <row r="204" spans="23:23">
+      <c r="W204" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="221" spans="16:16">
-      <c r="P221" t="s">
+    <row r="205" spans="23:23">
+      <c r="W205" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="222" spans="16:16">
-      <c r="P222" t="s">
+    <row r="206" spans="23:23">
+      <c r="W206" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="223" spans="16:16">
-      <c r="P223" t="s">
+    <row r="207" spans="23:23">
+      <c r="W207" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="224" spans="16:16">
-      <c r="P224" t="s">
+    <row r="208" spans="23:23">
+      <c r="W208" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="225" spans="16:16">
-      <c r="P225" t="s">
+    <row r="209" spans="23:23">
+      <c r="W209" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="226" spans="16:16">
-      <c r="P226" t="s">
+    <row r="210" spans="23:23">
+      <c r="W210" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="227" spans="16:16">
-      <c r="P227" t="s">
+    <row r="211" spans="23:23">
+      <c r="W211" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="228" spans="16:16">
-      <c r="P228" t="s">
+    <row r="212" spans="23:23">
+      <c r="W212" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="229" spans="16:16">
-      <c r="P229" t="s">
+    <row r="213" spans="23:23">
+      <c r="W213" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="230" spans="16:16">
-      <c r="P230" t="s">
+    <row r="214" spans="23:23">
+      <c r="W214" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="231" spans="16:16">
-      <c r="P231" t="s">
+    <row r="215" spans="23:23">
+      <c r="W215" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="232" spans="16:16">
-      <c r="P232" t="s">
+    <row r="216" spans="23:23">
+      <c r="W216" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="233" spans="16:16">
-      <c r="P233" t="s">
+    <row r="217" spans="23:23">
+      <c r="W217" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="234" spans="16:16">
-      <c r="P234" t="s">
+    <row r="218" spans="23:23">
+      <c r="W218" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="235" spans="16:16">
-      <c r="P235" t="s">
+    <row r="219" spans="23:23">
+      <c r="W219" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="236" spans="16:16">
-      <c r="P236" t="s">
+    <row r="220" spans="23:23">
+      <c r="W220" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="237" spans="16:16">
-      <c r="P237" t="s">
+    <row r="221" spans="23:23">
+      <c r="W221" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="238" spans="16:16">
-      <c r="P238" t="s">
+    <row r="222" spans="23:23">
+      <c r="W222" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="239" spans="16:16">
-      <c r="P239" t="s">
+    <row r="223" spans="23:23">
+      <c r="W223" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="240" spans="16:16">
-      <c r="P240" t="s">
+    <row r="224" spans="23:23">
+      <c r="W224" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="241" spans="16:16">
-      <c r="P241" t="s">
+    <row r="225" spans="23:23">
+      <c r="W225" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="242" spans="16:16">
-      <c r="P242" t="s">
+    <row r="226" spans="23:23">
+      <c r="W226" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="243" spans="16:16">
-      <c r="P243" t="s">
+    <row r="227" spans="23:23">
+      <c r="W227" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="244" spans="16:16">
-      <c r="P244" t="s">
+    <row r="228" spans="23:23">
+      <c r="W228" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="245" spans="16:16">
-      <c r="P245" t="s">
+    <row r="229" spans="23:23">
+      <c r="W229" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="246" spans="16:16">
-      <c r="P246" t="s">
+    <row r="230" spans="23:23">
+      <c r="W230" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="247" spans="16:16">
-      <c r="P247" t="s">
+    <row r="231" spans="23:23">
+      <c r="W231" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="248" spans="16:16">
-      <c r="P248" t="s">
+    <row r="232" spans="23:23">
+      <c r="W232" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="249" spans="16:16">
-      <c r="P249" t="s">
+    <row r="233" spans="23:23">
+      <c r="W233" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="250" spans="16:16">
-      <c r="P250" t="s">
+    <row r="234" spans="23:23">
+      <c r="W234" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="251" spans="16:16">
-      <c r="P251" t="s">
+    <row r="235" spans="23:23">
+      <c r="W235" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="252" spans="16:16">
-      <c r="P252" t="s">
+    <row r="236" spans="23:23">
+      <c r="W236" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="253" spans="16:16">
-      <c r="P253" t="s">
+    <row r="237" spans="23:23">
+      <c r="W237" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="254" spans="16:16">
-      <c r="P254" t="s">
+    <row r="238" spans="23:23">
+      <c r="W238" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="255" spans="16:16">
-      <c r="P255" t="s">
+    <row r="239" spans="23:23">
+      <c r="W239" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="256" spans="16:16">
-      <c r="P256" t="s">
+    <row r="240" spans="23:23">
+      <c r="W240" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="257" spans="16:16">
-      <c r="P257" t="s">
+    <row r="241" spans="23:23">
+      <c r="W241" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="258" spans="16:16">
-      <c r="P258" t="s">
+    <row r="242" spans="23:23">
+      <c r="W242" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="259" spans="16:16">
-      <c r="P259" t="s">
+    <row r="243" spans="23:23">
+      <c r="W243" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="260" spans="16:16">
-      <c r="P260" t="s">
+    <row r="244" spans="23:23">
+      <c r="W244" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="261" spans="16:16">
-      <c r="P261" t="s">
+    <row r="245" spans="23:23">
+      <c r="W245" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="262" spans="16:16">
-      <c r="P262" t="s">
+    <row r="246" spans="23:23">
+      <c r="W246" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="263" spans="16:16">
-      <c r="P263" t="s">
+    <row r="247" spans="23:23">
+      <c r="W247" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="264" spans="16:16">
-      <c r="P264" t="s">
+    <row r="248" spans="23:23">
+      <c r="W248" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="265" spans="16:16">
-      <c r="P265" t="s">
+    <row r="249" spans="23:23">
+      <c r="W249" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="266" spans="16:16">
-      <c r="P266" t="s">
+    <row r="250" spans="23:23">
+      <c r="W250" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="267" spans="16:16">
-      <c r="P267" t="s">
+    <row r="251" spans="23:23">
+      <c r="W251" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="268" spans="16:16">
-      <c r="P268" t="s">
+    <row r="252" spans="23:23">
+      <c r="W252" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="269" spans="16:16">
-      <c r="P269" t="s">
+    <row r="253" spans="23:23">
+      <c r="W253" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="270" spans="16:16">
-      <c r="P270" t="s">
+    <row r="254" spans="23:23">
+      <c r="W254" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="271" spans="16:16">
-      <c r="P271" t="s">
+    <row r="255" spans="23:23">
+      <c r="W255" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="272" spans="16:16">
-      <c r="P272" t="s">
+    <row r="256" spans="23:23">
+      <c r="W256" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="273" spans="16:16">
-      <c r="P273" t="s">
+    <row r="257" spans="23:23">
+      <c r="W257" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="274" spans="16:16">
-      <c r="P274" t="s">
+    <row r="258" spans="23:23">
+      <c r="W258" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="275" spans="16:16">
-      <c r="P275" t="s">
+    <row r="259" spans="23:23">
+      <c r="W259" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="276" spans="16:16">
-      <c r="P276" t="s">
+    <row r="260" spans="23:23">
+      <c r="W260" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="261" spans="23:23">
+      <c r="W261" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="262" spans="23:23">
+      <c r="W262" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="263" spans="23:23">
+      <c r="W263" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="264" spans="23:23">
+      <c r="W264" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="265" spans="23:23">
+      <c r="W265" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="266" spans="23:23">
+      <c r="W266" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="267" spans="23:23">
+      <c r="W267" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="268" spans="23:23">
+      <c r="W268" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="269" spans="23:23">
+      <c r="W269" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="270" spans="23:23">
+      <c r="W270" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="271" spans="23:23">
+      <c r="W271" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="272" spans="23:23">
+      <c r="W272" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="273" spans="23:23">
+      <c r="W273" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="274" spans="23:23">
+      <c r="W274" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="275" spans="23:23">
+      <c r="W275" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="276" spans="23:23">
+      <c r="W276" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="277" spans="23:23">
+      <c r="W277" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="16:16">
-      <c r="P277" t="s">
+    <row r="278" spans="23:23">
+      <c r="W278" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="16:16">
-      <c r="P278" t="s">
+    <row r="279" spans="23:23">
+      <c r="W279" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="16:16">
-      <c r="P279" t="s">
+    <row r="280" spans="23:23">
+      <c r="W280" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="16:16">
-      <c r="P280" t="s">
+    <row r="281" spans="23:23">
+      <c r="W281" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="16:16">
-      <c r="P281" t="s">
+    <row r="282" spans="23:23">
+      <c r="W282" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="16:16">
-      <c r="P282" t="s">
+    <row r="283" spans="23:23">
+      <c r="W283" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="16:16">
-      <c r="P283" t="s">
+    <row r="284" spans="23:23">
+      <c r="W284" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="284" spans="16:16">
-      <c r="P284" t="s">
+    <row r="285" spans="23:23">
+      <c r="W285" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="16:16">
-      <c r="P285" t="s">
+    <row r="286" spans="23:23">
+      <c r="W286" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="16:16">
-      <c r="P286" t="s">
+    <row r="287" spans="23:23">
+      <c r="W287" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="16:16">
-      <c r="P287" t="s">
-        <v>585</v>
+    <row r="288" spans="23:23">
+      <c r="W288" t="s">
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -1206,10 +1206,10 @@
     <t>Cyprus</t>
   </si>
   <si>
+    <t>Czechia</t>
+  </si>
+  <si>
     <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechia</t>
   </si>
   <si>
     <t>Democratic Republic of the Congo</t>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="GAL">'cv_sample'!$AL$1:$AL$43</definedName>
+    <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$288</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="700">
   <si>
     <t>alias</t>
   </si>
@@ -2062,6 +2062,24 @@
   </si>
   <si>
     <t>other ERGA associated GAL</t>
+  </si>
+  <si>
+    <t>Biology Centre of the Academy of Sciences of the Czech Republic</t>
+  </si>
+  <si>
+    <t>Grigore Antipa National Museum of Natural History</t>
+  </si>
+  <si>
+    <t>Institut de Biologia Evolutiva, CSIC-UPF</t>
+  </si>
+  <si>
+    <t>Lund University</t>
+  </si>
+  <si>
+    <t>University of Neuchatel</t>
+  </si>
+  <si>
+    <t>University of Oulu</t>
   </si>
   <si>
     <t>GAL</t>
@@ -3751,31 +3769,31 @@
         <v>631</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
@@ -3891,31 +3909,31 @@
         <v>632</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -4368,103 +4386,121 @@
       <c r="W44" t="s">
         <v>369</v>
       </c>
+      <c r="AL44" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="45" spans="23:38">
       <c r="W45" t="s">
         <v>370</v>
       </c>
+      <c r="AL45" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="46" spans="23:38">
       <c r="W46" t="s">
         <v>371</v>
       </c>
+      <c r="AL46" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="47" spans="23:38">
       <c r="W47" t="s">
         <v>372</v>
       </c>
+      <c r="AL47" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="48" spans="23:38">
       <c r="W48" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="49" spans="23:23">
+      <c r="AL48" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="23:38">
       <c r="W49" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="50" spans="23:23">
+      <c r="AL49" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="23:38">
       <c r="W50" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="23:23">
+    <row r="51" spans="23:38">
       <c r="W51" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="52" spans="23:23">
+    <row r="52" spans="23:38">
       <c r="W52" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="53" spans="23:23">
+    <row r="53" spans="23:38">
       <c r="W53" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="54" spans="23:23">
+    <row r="54" spans="23:38">
       <c r="W54" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="23:23">
+    <row r="55" spans="23:38">
       <c r="W55" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="23:23">
+    <row r="56" spans="23:38">
       <c r="W56" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="57" spans="23:23">
+    <row r="57" spans="23:38">
       <c r="W57" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="58" spans="23:23">
+    <row r="58" spans="23:38">
       <c r="W58" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="23:23">
+    <row r="59" spans="23:38">
       <c r="W59" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="60" spans="23:23">
+    <row r="60" spans="23:38">
       <c r="W60" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="61" spans="23:23">
+    <row r="61" spans="23:38">
       <c r="W61" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="62" spans="23:23">
+    <row r="62" spans="23:38">
       <c r="W62" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="63" spans="23:23">
+    <row r="63" spans="23:38">
       <c r="W63" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="64" spans="23:23">
+    <row r="64" spans="23:38">
       <c r="W64" t="s">
         <v>389</v>
       </c>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$W$1:$W$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="702">
   <si>
     <t>alias</t>
   </si>
@@ -816,6 +816,9 @@
     <t>(Mandatory) The run data file model.</t>
   </si>
   <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
+  </si>
+  <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
   </si>
   <si>
@@ -1014,6 +1017,84 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
+    <t>elevation</t>
+  </si>
+  <si>
+    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>(Mandatory) Description of the location of the sample material. please use envo terms where possible: https://www.ebi.ac.uk/ols/ontologies/envo</t>
+  </si>
+  <si>
+    <t>identifier_affiliation</t>
+  </si>
+  <si>
+    <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
+  </si>
+  <si>
+    <t>original collection date</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>original geographic location</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
+  </si>
+  <si>
+    <t>original geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>original geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>sample coordinator</t>
+  </si>
+  <si>
+    <t>(Optional) The name of the sample coordinator.</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
+  </si>
+  <si>
     <t>Afghanistan</t>
   </si>
   <si>
@@ -1842,6 +1923,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>restricted access</t>
   </si>
   <si>
@@ -1851,90 +1935,15 @@
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
-  </si>
-  <si>
-    <t>elevation</t>
-  </si>
-  <si>
-    <t>(Optional) The elevation of the sampling site as measured by the vertical distance from mean sea level. (Units: m)</t>
-  </si>
-  <si>
-    <t>habitat</t>
-  </si>
-  <si>
-    <t>(Mandatory) Description of the location of the sample material. please use envo terms where possible: https://www.ebi.ac.uk/ols/ontologies/envo</t>
-  </si>
-  <si>
-    <t>identifier_affiliation</t>
-  </si>
-  <si>
-    <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
-  </si>
-  <si>
-    <t>original collection date</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>original geographic location</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
-  </si>
-  <si>
-    <t>original geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>original geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>sample coordinator</t>
-  </si>
-  <si>
-    <t>(Optional) The name of the sample coordinator.</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>(Mandatory) Sex of the organism from which the sample was obtained</t>
-  </si>
-  <si>
     <t>collecting institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
   </si>
   <si>
+    <t>Biology Centre of the Academy of Sciences of the Czech Republic</t>
+  </si>
+  <si>
     <t>Centro Nacional de Análisis Genómico</t>
   </si>
   <si>
@@ -1962,15 +1971,24 @@
     <t>Geomar Helmholtz Centre</t>
   </si>
   <si>
+    <t>Grigore Antipa National Museum of Natural History</t>
+  </si>
+  <si>
     <t>Hansen Lab, Denmark</t>
   </si>
   <si>
+    <t>Institut de Biologia Evolutiva, CSIC-UPF</t>
+  </si>
+  <si>
     <t>Lausanne Genomic Technologies Facility</t>
   </si>
   <si>
     <t>Leibniz Institute for the Analysis of Biodiversity Change, Museum Koenig, Bonn</t>
   </si>
   <si>
+    <t>Lund University</t>
+  </si>
+  <si>
     <t>Marine Biological Association</t>
   </si>
   <si>
@@ -2040,9 +2058,15 @@
     <t>University of Florence</t>
   </si>
   <si>
+    <t>University of Neuchatel</t>
+  </si>
+  <si>
     <t>University of Oregon</t>
   </si>
   <si>
+    <t>University of Oulu</t>
+  </si>
+  <si>
     <t>University of Oxford</t>
   </si>
   <si>
@@ -2062,24 +2086,6 @@
   </si>
   <si>
     <t>other ERGA associated GAL</t>
-  </si>
-  <si>
-    <t>Biology Centre of the Academy of Sciences of the Czech Republic</t>
-  </si>
-  <si>
-    <t>Grigore Antipa National Museum of Natural History</t>
-  </si>
-  <si>
-    <t>Institut de Biologia Evolutiva, CSIC-UPF</t>
-  </si>
-  <si>
-    <t>Lund University</t>
-  </si>
-  <si>
-    <t>University of Neuchatel</t>
-  </si>
-  <si>
-    <t>University of Oulu</t>
   </si>
   <si>
     <t>GAL</t>
@@ -3664,276 +3670,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>603</v>
+        <v>327</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>605</v>
+        <v>329</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>607</v>
+        <v>331</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>609</v>
+        <v>333</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>611</v>
+        <v>335</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>613</v>
+        <v>337</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>615</v>
+        <v>339</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>617</v>
+        <v>341</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>619</v>
+        <v>343</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>621</v>
+        <v>345</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>623</v>
+        <v>347</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>625</v>
+        <v>349</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>627</v>
+        <v>351</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>604</v>
+        <v>328</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>606</v>
+        <v>330</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>608</v>
+        <v>332</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>610</v>
+        <v>334</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>612</v>
+        <v>336</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>614</v>
+        <v>338</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>616</v>
+        <v>340</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>618</v>
+        <v>342</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>620</v>
+        <v>344</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>622</v>
+        <v>346</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>624</v>
+        <v>348</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>626</v>
+        <v>350</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>628</v>
+        <v>352</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +3950,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>symbiont</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
@@ -3957,7 +3963,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:AL288"/>
+  <dimension ref="J1:AL289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3965,1664 +3971,1669 @@
   <sheetData>
     <row r="1" spans="10:38">
       <c r="J1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M1" t="s">
-        <v>304</v>
-      </c>
-      <c r="W1" t="s">
-        <v>326</v>
+        <v>305</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>353</v>
       </c>
       <c r="AL1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="10:38">
       <c r="J2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M2" t="s">
-        <v>305</v>
-      </c>
-      <c r="W2" t="s">
-        <v>327</v>
+        <v>306</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>354</v>
       </c>
       <c r="AL2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="10:38">
       <c r="J3" t="s">
-        <v>277</v>
-      </c>
-      <c r="W3" t="s">
-        <v>328</v>
+        <v>278</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>355</v>
       </c>
       <c r="AL3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="10:38">
       <c r="J4" t="s">
-        <v>278</v>
-      </c>
-      <c r="W4" t="s">
-        <v>329</v>
+        <v>279</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>356</v>
       </c>
       <c r="AL4" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="10:38">
       <c r="J5" t="s">
-        <v>279</v>
-      </c>
-      <c r="W5" t="s">
-        <v>330</v>
+        <v>280</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>357</v>
       </c>
       <c r="AL5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="10:38">
       <c r="J6" t="s">
-        <v>280</v>
-      </c>
-      <c r="W6" t="s">
-        <v>331</v>
+        <v>281</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>358</v>
       </c>
       <c r="AL6" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7" spans="10:38">
       <c r="J7" t="s">
-        <v>281</v>
-      </c>
-      <c r="W7" t="s">
-        <v>332</v>
+        <v>282</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>359</v>
       </c>
       <c r="AL7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="10:38">
       <c r="J8" t="s">
-        <v>282</v>
-      </c>
-      <c r="W8" t="s">
-        <v>333</v>
+        <v>283</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>360</v>
       </c>
       <c r="AL8" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="10:38">
       <c r="J9" t="s">
-        <v>283</v>
-      </c>
-      <c r="W9" t="s">
-        <v>334</v>
+        <v>284</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>361</v>
       </c>
       <c r="AL9" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="10:38">
       <c r="J10" t="s">
-        <v>284</v>
-      </c>
-      <c r="W10" t="s">
-        <v>335</v>
+        <v>285</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>362</v>
       </c>
       <c r="AL10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="10:38">
       <c r="J11" t="s">
-        <v>285</v>
-      </c>
-      <c r="W11" t="s">
-        <v>336</v>
+        <v>286</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>363</v>
       </c>
       <c r="AL11" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="12" spans="10:38">
       <c r="J12" t="s">
-        <v>286</v>
-      </c>
-      <c r="W12" t="s">
-        <v>337</v>
+        <v>287</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>364</v>
       </c>
       <c r="AL12" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="10:38">
       <c r="J13" t="s">
-        <v>287</v>
-      </c>
-      <c r="W13" t="s">
-        <v>338</v>
+        <v>288</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>365</v>
       </c>
       <c r="AL13" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="10:38">
       <c r="J14" t="s">
-        <v>288</v>
-      </c>
-      <c r="W14" t="s">
-        <v>339</v>
+        <v>289</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>366</v>
       </c>
       <c r="AL14" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="10:38">
       <c r="J15" t="s">
-        <v>289</v>
-      </c>
-      <c r="W15" t="s">
-        <v>340</v>
+        <v>290</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>367</v>
       </c>
       <c r="AL15" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="10:38">
       <c r="J16" t="s">
-        <v>290</v>
-      </c>
-      <c r="W16" t="s">
-        <v>341</v>
+        <v>291</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>368</v>
       </c>
       <c r="AL16" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="10:38">
       <c r="J17" t="s">
-        <v>291</v>
-      </c>
-      <c r="W17" t="s">
-        <v>342</v>
+        <v>292</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>369</v>
       </c>
       <c r="AL17" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="18" spans="10:38">
       <c r="J18" t="s">
-        <v>292</v>
-      </c>
-      <c r="W18" t="s">
-        <v>343</v>
+        <v>293</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>370</v>
       </c>
       <c r="AL18" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="19" spans="10:38">
       <c r="J19" t="s">
-        <v>293</v>
-      </c>
-      <c r="W19" t="s">
-        <v>344</v>
+        <v>294</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>371</v>
       </c>
       <c r="AL19" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
     </row>
     <row r="20" spans="10:38">
       <c r="J20" t="s">
-        <v>294</v>
-      </c>
-      <c r="W20" t="s">
-        <v>345</v>
+        <v>295</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>372</v>
       </c>
       <c r="AL20" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="10:38">
       <c r="J21" t="s">
-        <v>295</v>
-      </c>
-      <c r="W21" t="s">
-        <v>346</v>
+        <v>296</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>373</v>
       </c>
       <c r="AL21" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="10:38">
       <c r="J22" t="s">
-        <v>296</v>
-      </c>
-      <c r="W22" t="s">
-        <v>347</v>
+        <v>297</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>374</v>
       </c>
       <c r="AL22" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="10:38">
       <c r="J23" t="s">
-        <v>297</v>
-      </c>
-      <c r="W23" t="s">
-        <v>348</v>
+        <v>298</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>375</v>
       </c>
       <c r="AL23" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24" spans="10:38">
-      <c r="W24" t="s">
-        <v>349</v>
+      <c r="AJ24" t="s">
+        <v>376</v>
       </c>
       <c r="AL24" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="10:38">
-      <c r="W25" t="s">
-        <v>350</v>
+      <c r="AJ25" t="s">
+        <v>377</v>
       </c>
       <c r="AL25" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="26" spans="10:38">
-      <c r="W26" t="s">
-        <v>351</v>
+      <c r="AJ26" t="s">
+        <v>378</v>
       </c>
       <c r="AL26" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="10:38">
-      <c r="W27" t="s">
-        <v>352</v>
+      <c r="AJ27" t="s">
+        <v>379</v>
       </c>
       <c r="AL27" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="10:38">
-      <c r="W28" t="s">
-        <v>353</v>
+      <c r="AJ28" t="s">
+        <v>380</v>
       </c>
       <c r="AL28" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="29" spans="10:38">
-      <c r="W29" t="s">
-        <v>354</v>
+      <c r="AJ29" t="s">
+        <v>381</v>
       </c>
       <c r="AL29" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="10:38">
-      <c r="W30" t="s">
-        <v>355</v>
+      <c r="AJ30" t="s">
+        <v>382</v>
       </c>
       <c r="AL30" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="10:38">
-      <c r="W31" t="s">
-        <v>356</v>
+      <c r="AJ31" t="s">
+        <v>383</v>
       </c>
       <c r="AL31" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="32" spans="10:38">
-      <c r="W32" t="s">
-        <v>357</v>
+      <c r="AJ32" t="s">
+        <v>384</v>
       </c>
       <c r="AL32" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="33" spans="23:38">
-      <c r="W33" t="s">
-        <v>358</v>
+        <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="36:38">
+      <c r="AJ33" t="s">
+        <v>385</v>
       </c>
       <c r="AL33" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="34" spans="23:38">
-      <c r="W34" t="s">
-        <v>359</v>
+        <v>667</v>
+      </c>
+    </row>
+    <row r="34" spans="36:38">
+      <c r="AJ34" t="s">
+        <v>386</v>
       </c>
       <c r="AL34" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="35" spans="23:38">
-      <c r="W35" t="s">
-        <v>360</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="35" spans="36:38">
+      <c r="AJ35" t="s">
+        <v>387</v>
       </c>
       <c r="AL35" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="36" spans="23:38">
-      <c r="W36" t="s">
-        <v>361</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="36:38">
+      <c r="AJ36" t="s">
+        <v>388</v>
       </c>
       <c r="AL36" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="37" spans="23:38">
-      <c r="W37" t="s">
-        <v>362</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="36:38">
+      <c r="AJ37" t="s">
+        <v>389</v>
       </c>
       <c r="AL37" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="38" spans="23:38">
-      <c r="W38" t="s">
-        <v>363</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="38" spans="36:38">
+      <c r="AJ38" t="s">
+        <v>390</v>
       </c>
       <c r="AL38" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="39" spans="23:38">
-      <c r="W39" t="s">
-        <v>364</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="39" spans="36:38">
+      <c r="AJ39" t="s">
+        <v>391</v>
       </c>
       <c r="AL39" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="40" spans="23:38">
-      <c r="W40" t="s">
-        <v>365</v>
+        <v>673</v>
+      </c>
+    </row>
+    <row r="40" spans="36:38">
+      <c r="AJ40" t="s">
+        <v>392</v>
       </c>
       <c r="AL40" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="41" spans="23:38">
-      <c r="W41" t="s">
-        <v>366</v>
+        <v>674</v>
+      </c>
+    </row>
+    <row r="41" spans="36:38">
+      <c r="AJ41" t="s">
+        <v>393</v>
       </c>
       <c r="AL41" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="42" spans="23:38">
-      <c r="W42" t="s">
-        <v>367</v>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="42" spans="36:38">
+      <c r="AJ42" t="s">
+        <v>394</v>
       </c>
       <c r="AL42" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="43" spans="23:38">
-      <c r="W43" t="s">
-        <v>368</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="36:38">
+      <c r="AJ43" t="s">
+        <v>395</v>
       </c>
       <c r="AL43" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="44" spans="23:38">
-      <c r="W44" t="s">
-        <v>369</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="44" spans="36:38">
+      <c r="AJ44" t="s">
+        <v>396</v>
       </c>
       <c r="AL44" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="45" spans="23:38">
-      <c r="W45" t="s">
-        <v>370</v>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="45" spans="36:38">
+      <c r="AJ45" t="s">
+        <v>397</v>
       </c>
       <c r="AL45" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="46" spans="23:38">
-      <c r="W46" t="s">
-        <v>371</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="46" spans="36:38">
+      <c r="AJ46" t="s">
+        <v>398</v>
       </c>
       <c r="AL46" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="47" spans="23:38">
-      <c r="W47" t="s">
-        <v>372</v>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="47" spans="36:38">
+      <c r="AJ47" t="s">
+        <v>399</v>
       </c>
       <c r="AL47" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="48" spans="23:38">
-      <c r="W48" t="s">
-        <v>373</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="36:38">
+      <c r="AJ48" t="s">
+        <v>400</v>
       </c>
       <c r="AL48" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="49" spans="23:38">
-      <c r="W49" t="s">
-        <v>374</v>
+        <v>682</v>
+      </c>
+    </row>
+    <row r="49" spans="36:38">
+      <c r="AJ49" t="s">
+        <v>401</v>
       </c>
       <c r="AL49" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="50" spans="23:38">
-      <c r="W50" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="51" spans="23:38">
-      <c r="W51" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="52" spans="23:38">
-      <c r="W52" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="53" spans="23:38">
-      <c r="W53" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="23:38">
-      <c r="W54" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="55" spans="23:38">
-      <c r="W55" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="56" spans="23:38">
-      <c r="W56" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="57" spans="23:38">
-      <c r="W57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="23:38">
-      <c r="W58" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="59" spans="23:38">
-      <c r="W59" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="23:38">
-      <c r="W60" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="61" spans="23:38">
-      <c r="W61" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="62" spans="23:38">
-      <c r="W62" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="63" spans="23:38">
-      <c r="W63" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="64" spans="23:38">
-      <c r="W64" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="23:23">
-      <c r="W65" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="23:23">
-      <c r="W66" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="67" spans="23:23">
-      <c r="W67" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="68" spans="23:23">
-      <c r="W68" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="69" spans="23:23">
-      <c r="W69" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="70" spans="23:23">
-      <c r="W70" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="23:23">
-      <c r="W71" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="72" spans="23:23">
-      <c r="W72" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="73" spans="23:23">
-      <c r="W73" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="74" spans="23:23">
-      <c r="W74" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="75" spans="23:23">
-      <c r="W75" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="76" spans="23:23">
-      <c r="W76" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="77" spans="23:23">
-      <c r="W77" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="50" spans="36:38">
+      <c r="AJ50" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="78" spans="23:23">
-      <c r="W78" t="s">
+    <row r="51" spans="36:38">
+      <c r="AJ51" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="79" spans="23:23">
-      <c r="W79" t="s">
+    <row r="52" spans="36:38">
+      <c r="AJ52" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="80" spans="23:23">
-      <c r="W80" t="s">
+    <row r="53" spans="36:38">
+      <c r="AJ53" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="81" spans="23:23">
-      <c r="W81" t="s">
+    <row r="54" spans="36:38">
+      <c r="AJ54" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="82" spans="23:23">
-      <c r="W82" t="s">
+    <row r="55" spans="36:38">
+      <c r="AJ55" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="83" spans="23:23">
-      <c r="W83" t="s">
+    <row r="56" spans="36:38">
+      <c r="AJ56" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="84" spans="23:23">
-      <c r="W84" t="s">
+    <row r="57" spans="36:38">
+      <c r="AJ57" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="23:23">
-      <c r="W85" t="s">
+    <row r="58" spans="36:38">
+      <c r="AJ58" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="86" spans="23:23">
-      <c r="W86" t="s">
+    <row r="59" spans="36:38">
+      <c r="AJ59" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="87" spans="23:23">
-      <c r="W87" t="s">
+    <row r="60" spans="36:38">
+      <c r="AJ60" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="88" spans="23:23">
-      <c r="W88" t="s">
+    <row r="61" spans="36:38">
+      <c r="AJ61" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="89" spans="23:23">
-      <c r="W89" t="s">
+    <row r="62" spans="36:38">
+      <c r="AJ62" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="90" spans="23:23">
-      <c r="W90" t="s">
+    <row r="63" spans="36:38">
+      <c r="AJ63" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="91" spans="23:23">
-      <c r="W91" t="s">
+    <row r="64" spans="36:38">
+      <c r="AJ64" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="92" spans="23:23">
-      <c r="W92" t="s">
+    <row r="65" spans="36:36">
+      <c r="AJ65" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="23:23">
-      <c r="W93" t="s">
+    <row r="66" spans="36:36">
+      <c r="AJ66" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="23:23">
-      <c r="W94" t="s">
+    <row r="67" spans="36:36">
+      <c r="AJ67" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="95" spans="23:23">
-      <c r="W95" t="s">
+    <row r="68" spans="36:36">
+      <c r="AJ68" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="96" spans="23:23">
-      <c r="W96" t="s">
+    <row r="69" spans="36:36">
+      <c r="AJ69" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="97" spans="23:23">
-      <c r="W97" t="s">
+    <row r="70" spans="36:36">
+      <c r="AJ70" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="98" spans="23:23">
-      <c r="W98" t="s">
+    <row r="71" spans="36:36">
+      <c r="AJ71" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="99" spans="23:23">
-      <c r="W99" t="s">
+    <row r="72" spans="36:36">
+      <c r="AJ72" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="23:23">
-      <c r="W100" t="s">
+    <row r="73" spans="36:36">
+      <c r="AJ73" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="101" spans="23:23">
-      <c r="W101" t="s">
+    <row r="74" spans="36:36">
+      <c r="AJ74" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="102" spans="23:23">
-      <c r="W102" t="s">
+    <row r="75" spans="36:36">
+      <c r="AJ75" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="103" spans="23:23">
-      <c r="W103" t="s">
+    <row r="76" spans="36:36">
+      <c r="AJ76" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="104" spans="23:23">
-      <c r="W104" t="s">
+    <row r="77" spans="36:36">
+      <c r="AJ77" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="105" spans="23:23">
-      <c r="W105" t="s">
+    <row r="78" spans="36:36">
+      <c r="AJ78" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="106" spans="23:23">
-      <c r="W106" t="s">
+    <row r="79" spans="36:36">
+      <c r="AJ79" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="107" spans="23:23">
-      <c r="W107" t="s">
+    <row r="80" spans="36:36">
+      <c r="AJ80" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="23:23">
-      <c r="W108" t="s">
+    <row r="81" spans="36:36">
+      <c r="AJ81" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="109" spans="23:23">
-      <c r="W109" t="s">
+    <row r="82" spans="36:36">
+      <c r="AJ82" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="23:23">
-      <c r="W110" t="s">
+    <row r="83" spans="36:36">
+      <c r="AJ83" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="111" spans="23:23">
-      <c r="W111" t="s">
+    <row r="84" spans="36:36">
+      <c r="AJ84" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="112" spans="23:23">
-      <c r="W112" t="s">
+    <row r="85" spans="36:36">
+      <c r="AJ85" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="113" spans="23:23">
-      <c r="W113" t="s">
+    <row r="86" spans="36:36">
+      <c r="AJ86" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="114" spans="23:23">
-      <c r="W114" t="s">
+    <row r="87" spans="36:36">
+      <c r="AJ87" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="115" spans="23:23">
-      <c r="W115" t="s">
+    <row r="88" spans="36:36">
+      <c r="AJ88" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="116" spans="23:23">
-      <c r="W116" t="s">
+    <row r="89" spans="36:36">
+      <c r="AJ89" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="117" spans="23:23">
-      <c r="W117" t="s">
+    <row r="90" spans="36:36">
+      <c r="AJ90" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="118" spans="23:23">
-      <c r="W118" t="s">
+    <row r="91" spans="36:36">
+      <c r="AJ91" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119" spans="23:23">
-      <c r="W119" t="s">
+    <row r="92" spans="36:36">
+      <c r="AJ92" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="120" spans="23:23">
-      <c r="W120" t="s">
+    <row r="93" spans="36:36">
+      <c r="AJ93" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="121" spans="23:23">
-      <c r="W121" t="s">
+    <row r="94" spans="36:36">
+      <c r="AJ94" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="122" spans="23:23">
-      <c r="W122" t="s">
+    <row r="95" spans="36:36">
+      <c r="AJ95" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="123" spans="23:23">
-      <c r="W123" t="s">
+    <row r="96" spans="36:36">
+      <c r="AJ96" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="124" spans="23:23">
-      <c r="W124" t="s">
+    <row r="97" spans="36:36">
+      <c r="AJ97" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="125" spans="23:23">
-      <c r="W125" t="s">
+    <row r="98" spans="36:36">
+      <c r="AJ98" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="126" spans="23:23">
-      <c r="W126" t="s">
+    <row r="99" spans="36:36">
+      <c r="AJ99" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="127" spans="23:23">
-      <c r="W127" t="s">
+    <row r="100" spans="36:36">
+      <c r="AJ100" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="128" spans="23:23">
-      <c r="W128" t="s">
+    <row r="101" spans="36:36">
+      <c r="AJ101" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="129" spans="23:23">
-      <c r="W129" t="s">
+    <row r="102" spans="36:36">
+      <c r="AJ102" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="130" spans="23:23">
-      <c r="W130" t="s">
+    <row r="103" spans="36:36">
+      <c r="AJ103" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="131" spans="23:23">
-      <c r="W131" t="s">
+    <row r="104" spans="36:36">
+      <c r="AJ104" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="132" spans="23:23">
-      <c r="W132" t="s">
+    <row r="105" spans="36:36">
+      <c r="AJ105" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="133" spans="23:23">
-      <c r="W133" t="s">
+    <row r="106" spans="36:36">
+      <c r="AJ106" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="134" spans="23:23">
-      <c r="W134" t="s">
+    <row r="107" spans="36:36">
+      <c r="AJ107" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="135" spans="23:23">
-      <c r="W135" t="s">
+    <row r="108" spans="36:36">
+      <c r="AJ108" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="23:23">
-      <c r="W136" t="s">
+    <row r="109" spans="36:36">
+      <c r="AJ109" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="137" spans="23:23">
-      <c r="W137" t="s">
+    <row r="110" spans="36:36">
+      <c r="AJ110" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="138" spans="23:23">
-      <c r="W138" t="s">
+    <row r="111" spans="36:36">
+      <c r="AJ111" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="139" spans="23:23">
-      <c r="W139" t="s">
+    <row r="112" spans="36:36">
+      <c r="AJ112" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="140" spans="23:23">
-      <c r="W140" t="s">
+    <row r="113" spans="36:36">
+      <c r="AJ113" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="141" spans="23:23">
-      <c r="W141" t="s">
+    <row r="114" spans="36:36">
+      <c r="AJ114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="142" spans="23:23">
-      <c r="W142" t="s">
+    <row r="115" spans="36:36">
+      <c r="AJ115" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="23:23">
-      <c r="W143" t="s">
+    <row r="116" spans="36:36">
+      <c r="AJ116" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="144" spans="23:23">
-      <c r="W144" t="s">
+    <row r="117" spans="36:36">
+      <c r="AJ117" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="145" spans="23:23">
-      <c r="W145" t="s">
+    <row r="118" spans="36:36">
+      <c r="AJ118" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="146" spans="23:23">
-      <c r="W146" t="s">
+    <row r="119" spans="36:36">
+      <c r="AJ119" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="147" spans="23:23">
-      <c r="W147" t="s">
+    <row r="120" spans="36:36">
+      <c r="AJ120" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="148" spans="23:23">
-      <c r="W148" t="s">
+    <row r="121" spans="36:36">
+      <c r="AJ121" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="149" spans="23:23">
-      <c r="W149" t="s">
+    <row r="122" spans="36:36">
+      <c r="AJ122" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="150" spans="23:23">
-      <c r="W150" t="s">
+    <row r="123" spans="36:36">
+      <c r="AJ123" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="23:23">
-      <c r="W151" t="s">
+    <row r="124" spans="36:36">
+      <c r="AJ124" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="152" spans="23:23">
-      <c r="W152" t="s">
+    <row r="125" spans="36:36">
+      <c r="AJ125" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="153" spans="23:23">
-      <c r="W153" t="s">
+    <row r="126" spans="36:36">
+      <c r="AJ126" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="154" spans="23:23">
-      <c r="W154" t="s">
+    <row r="127" spans="36:36">
+      <c r="AJ127" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="155" spans="23:23">
-      <c r="W155" t="s">
+    <row r="128" spans="36:36">
+      <c r="AJ128" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="156" spans="23:23">
-      <c r="W156" t="s">
+    <row r="129" spans="36:36">
+      <c r="AJ129" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="157" spans="23:23">
-      <c r="W157" t="s">
+    <row r="130" spans="36:36">
+      <c r="AJ130" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="158" spans="23:23">
-      <c r="W158" t="s">
+    <row r="131" spans="36:36">
+      <c r="AJ131" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="159" spans="23:23">
-      <c r="W159" t="s">
+    <row r="132" spans="36:36">
+      <c r="AJ132" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="160" spans="23:23">
-      <c r="W160" t="s">
+    <row r="133" spans="36:36">
+      <c r="AJ133" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="161" spans="23:23">
-      <c r="W161" t="s">
+    <row r="134" spans="36:36">
+      <c r="AJ134" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="23:23">
-      <c r="W162" t="s">
+    <row r="135" spans="36:36">
+      <c r="AJ135" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="163" spans="23:23">
-      <c r="W163" t="s">
+    <row r="136" spans="36:36">
+      <c r="AJ136" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="23:23">
-      <c r="W164" t="s">
+    <row r="137" spans="36:36">
+      <c r="AJ137" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="165" spans="23:23">
-      <c r="W165" t="s">
+    <row r="138" spans="36:36">
+      <c r="AJ138" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="166" spans="23:23">
-      <c r="W166" t="s">
+    <row r="139" spans="36:36">
+      <c r="AJ139" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="167" spans="23:23">
-      <c r="W167" t="s">
+    <row r="140" spans="36:36">
+      <c r="AJ140" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="168" spans="23:23">
-      <c r="W168" t="s">
+    <row r="141" spans="36:36">
+      <c r="AJ141" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="169" spans="23:23">
-      <c r="W169" t="s">
+    <row r="142" spans="36:36">
+      <c r="AJ142" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="170" spans="23:23">
-      <c r="W170" t="s">
+    <row r="143" spans="36:36">
+      <c r="AJ143" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="23:23">
-      <c r="W171" t="s">
+    <row r="144" spans="36:36">
+      <c r="AJ144" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="172" spans="23:23">
-      <c r="W172" t="s">
+    <row r="145" spans="36:36">
+      <c r="AJ145" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="173" spans="23:23">
-      <c r="W173" t="s">
+    <row r="146" spans="36:36">
+      <c r="AJ146" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="174" spans="23:23">
-      <c r="W174" t="s">
+    <row r="147" spans="36:36">
+      <c r="AJ147" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="175" spans="23:23">
-      <c r="W175" t="s">
+    <row r="148" spans="36:36">
+      <c r="AJ148" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="23:23">
-      <c r="W176" t="s">
+    <row r="149" spans="36:36">
+      <c r="AJ149" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="177" spans="23:23">
-      <c r="W177" t="s">
+    <row r="150" spans="36:36">
+      <c r="AJ150" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="178" spans="23:23">
-      <c r="W178" t="s">
+    <row r="151" spans="36:36">
+      <c r="AJ151" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="179" spans="23:23">
-      <c r="W179" t="s">
+    <row r="152" spans="36:36">
+      <c r="AJ152" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="180" spans="23:23">
-      <c r="W180" t="s">
+    <row r="153" spans="36:36">
+      <c r="AJ153" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="181" spans="23:23">
-      <c r="W181" t="s">
+    <row r="154" spans="36:36">
+      <c r="AJ154" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="182" spans="23:23">
-      <c r="W182" t="s">
+    <row r="155" spans="36:36">
+      <c r="AJ155" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="183" spans="23:23">
-      <c r="W183" t="s">
+    <row r="156" spans="36:36">
+      <c r="AJ156" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="184" spans="23:23">
-      <c r="W184" t="s">
+    <row r="157" spans="36:36">
+      <c r="AJ157" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="185" spans="23:23">
-      <c r="W185" t="s">
+    <row r="158" spans="36:36">
+      <c r="AJ158" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="186" spans="23:23">
-      <c r="W186" t="s">
+    <row r="159" spans="36:36">
+      <c r="AJ159" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="187" spans="23:23">
-      <c r="W187" t="s">
+    <row r="160" spans="36:36">
+      <c r="AJ160" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="188" spans="23:23">
-      <c r="W188" t="s">
+    <row r="161" spans="36:36">
+      <c r="AJ161" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="189" spans="23:23">
-      <c r="W189" t="s">
+    <row r="162" spans="36:36">
+      <c r="AJ162" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="190" spans="23:23">
-      <c r="W190" t="s">
+    <row r="163" spans="36:36">
+      <c r="AJ163" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="191" spans="23:23">
-      <c r="W191" t="s">
+    <row r="164" spans="36:36">
+      <c r="AJ164" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="192" spans="23:23">
-      <c r="W192" t="s">
+    <row r="165" spans="36:36">
+      <c r="AJ165" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="193" spans="23:23">
-      <c r="W193" t="s">
+    <row r="166" spans="36:36">
+      <c r="AJ166" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="194" spans="23:23">
-      <c r="W194" t="s">
+    <row r="167" spans="36:36">
+      <c r="AJ167" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="195" spans="23:23">
-      <c r="W195" t="s">
+    <row r="168" spans="36:36">
+      <c r="AJ168" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="196" spans="23:23">
-      <c r="W196" t="s">
+    <row r="169" spans="36:36">
+      <c r="AJ169" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="197" spans="23:23">
-      <c r="W197" t="s">
+    <row r="170" spans="36:36">
+      <c r="AJ170" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="198" spans="23:23">
-      <c r="W198" t="s">
+    <row r="171" spans="36:36">
+      <c r="AJ171" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="199" spans="23:23">
-      <c r="W199" t="s">
+    <row r="172" spans="36:36">
+      <c r="AJ172" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="200" spans="23:23">
-      <c r="W200" t="s">
+    <row r="173" spans="36:36">
+      <c r="AJ173" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="201" spans="23:23">
-      <c r="W201" t="s">
+    <row r="174" spans="36:36">
+      <c r="AJ174" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="202" spans="23:23">
-      <c r="W202" t="s">
+    <row r="175" spans="36:36">
+      <c r="AJ175" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="203" spans="23:23">
-      <c r="W203" t="s">
+    <row r="176" spans="36:36">
+      <c r="AJ176" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="23:23">
-      <c r="W204" t="s">
+    <row r="177" spans="36:36">
+      <c r="AJ177" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="205" spans="23:23">
-      <c r="W205" t="s">
+    <row r="178" spans="36:36">
+      <c r="AJ178" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="23:23">
-      <c r="W206" t="s">
+    <row r="179" spans="36:36">
+      <c r="AJ179" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="207" spans="23:23">
-      <c r="W207" t="s">
+    <row r="180" spans="36:36">
+      <c r="AJ180" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="208" spans="23:23">
-      <c r="W208" t="s">
+    <row r="181" spans="36:36">
+      <c r="AJ181" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="209" spans="23:23">
-      <c r="W209" t="s">
+    <row r="182" spans="36:36">
+      <c r="AJ182" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="210" spans="23:23">
-      <c r="W210" t="s">
+    <row r="183" spans="36:36">
+      <c r="AJ183" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="211" spans="23:23">
-      <c r="W211" t="s">
+    <row r="184" spans="36:36">
+      <c r="AJ184" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="212" spans="23:23">
-      <c r="W212" t="s">
+    <row r="185" spans="36:36">
+      <c r="AJ185" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="213" spans="23:23">
-      <c r="W213" t="s">
+    <row r="186" spans="36:36">
+      <c r="AJ186" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="214" spans="23:23">
-      <c r="W214" t="s">
+    <row r="187" spans="36:36">
+      <c r="AJ187" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="215" spans="23:23">
-      <c r="W215" t="s">
+    <row r="188" spans="36:36">
+      <c r="AJ188" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="216" spans="23:23">
-      <c r="W216" t="s">
+    <row r="189" spans="36:36">
+      <c r="AJ189" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="217" spans="23:23">
-      <c r="W217" t="s">
+    <row r="190" spans="36:36">
+      <c r="AJ190" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="218" spans="23:23">
-      <c r="W218" t="s">
+    <row r="191" spans="36:36">
+      <c r="AJ191" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="219" spans="23:23">
-      <c r="W219" t="s">
+    <row r="192" spans="36:36">
+      <c r="AJ192" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="220" spans="23:23">
-      <c r="W220" t="s">
+    <row r="193" spans="36:36">
+      <c r="AJ193" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="221" spans="23:23">
-      <c r="W221" t="s">
+    <row r="194" spans="36:36">
+      <c r="AJ194" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="222" spans="23:23">
-      <c r="W222" t="s">
+    <row r="195" spans="36:36">
+      <c r="AJ195" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="223" spans="23:23">
-      <c r="W223" t="s">
+    <row r="196" spans="36:36">
+      <c r="AJ196" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="224" spans="23:23">
-      <c r="W224" t="s">
+    <row r="197" spans="36:36">
+      <c r="AJ197" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="225" spans="23:23">
-      <c r="W225" t="s">
+    <row r="198" spans="36:36">
+      <c r="AJ198" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="23:23">
-      <c r="W226" t="s">
+    <row r="199" spans="36:36">
+      <c r="AJ199" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="227" spans="23:23">
-      <c r="W227" t="s">
+    <row r="200" spans="36:36">
+      <c r="AJ200" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="228" spans="23:23">
-      <c r="W228" t="s">
+    <row r="201" spans="36:36">
+      <c r="AJ201" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="229" spans="23:23">
-      <c r="W229" t="s">
+    <row r="202" spans="36:36">
+      <c r="AJ202" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="230" spans="23:23">
-      <c r="W230" t="s">
+    <row r="203" spans="36:36">
+      <c r="AJ203" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="231" spans="23:23">
-      <c r="W231" t="s">
+    <row r="204" spans="36:36">
+      <c r="AJ204" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="232" spans="23:23">
-      <c r="W232" t="s">
+    <row r="205" spans="36:36">
+      <c r="AJ205" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="233" spans="23:23">
-      <c r="W233" t="s">
+    <row r="206" spans="36:36">
+      <c r="AJ206" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="234" spans="23:23">
-      <c r="W234" t="s">
+    <row r="207" spans="36:36">
+      <c r="AJ207" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="235" spans="23:23">
-      <c r="W235" t="s">
+    <row r="208" spans="36:36">
+      <c r="AJ208" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="236" spans="23:23">
-      <c r="W236" t="s">
+    <row r="209" spans="36:36">
+      <c r="AJ209" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="237" spans="23:23">
-      <c r="W237" t="s">
+    <row r="210" spans="36:36">
+      <c r="AJ210" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="238" spans="23:23">
-      <c r="W238" t="s">
+    <row r="211" spans="36:36">
+      <c r="AJ211" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="239" spans="23:23">
-      <c r="W239" t="s">
+    <row r="212" spans="36:36">
+      <c r="AJ212" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="240" spans="23:23">
-      <c r="W240" t="s">
+    <row r="213" spans="36:36">
+      <c r="AJ213" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="23:23">
-      <c r="W241" t="s">
+    <row r="214" spans="36:36">
+      <c r="AJ214" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="242" spans="23:23">
-      <c r="W242" t="s">
+    <row r="215" spans="36:36">
+      <c r="AJ215" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="243" spans="23:23">
-      <c r="W243" t="s">
+    <row r="216" spans="36:36">
+      <c r="AJ216" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="244" spans="23:23">
-      <c r="W244" t="s">
+    <row r="217" spans="36:36">
+      <c r="AJ217" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="245" spans="23:23">
-      <c r="W245" t="s">
+    <row r="218" spans="36:36">
+      <c r="AJ218" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="246" spans="23:23">
-      <c r="W246" t="s">
+    <row r="219" spans="36:36">
+      <c r="AJ219" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="247" spans="23:23">
-      <c r="W247" t="s">
+    <row r="220" spans="36:36">
+      <c r="AJ220" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="248" spans="23:23">
-      <c r="W248" t="s">
+    <row r="221" spans="36:36">
+      <c r="AJ221" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="249" spans="23:23">
-      <c r="W249" t="s">
+    <row r="222" spans="36:36">
+      <c r="AJ222" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="250" spans="23:23">
-      <c r="W250" t="s">
+    <row r="223" spans="36:36">
+      <c r="AJ223" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="251" spans="23:23">
-      <c r="W251" t="s">
+    <row r="224" spans="36:36">
+      <c r="AJ224" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="252" spans="23:23">
-      <c r="W252" t="s">
+    <row r="225" spans="36:36">
+      <c r="AJ225" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="253" spans="23:23">
-      <c r="W253" t="s">
+    <row r="226" spans="36:36">
+      <c r="AJ226" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="254" spans="23:23">
-      <c r="W254" t="s">
+    <row r="227" spans="36:36">
+      <c r="AJ227" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="23:23">
-      <c r="W255" t="s">
+    <row r="228" spans="36:36">
+      <c r="AJ228" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="256" spans="23:23">
-      <c r="W256" t="s">
+    <row r="229" spans="36:36">
+      <c r="AJ229" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="257" spans="23:23">
-      <c r="W257" t="s">
+    <row r="230" spans="36:36">
+      <c r="AJ230" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="258" spans="23:23">
-      <c r="W258" t="s">
+    <row r="231" spans="36:36">
+      <c r="AJ231" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="259" spans="23:23">
-      <c r="W259" t="s">
+    <row r="232" spans="36:36">
+      <c r="AJ232" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="260" spans="23:23">
-      <c r="W260" t="s">
+    <row r="233" spans="36:36">
+      <c r="AJ233" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="261" spans="23:23">
-      <c r="W261" t="s">
+    <row r="234" spans="36:36">
+      <c r="AJ234" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="262" spans="23:23">
-      <c r="W262" t="s">
+    <row r="235" spans="36:36">
+      <c r="AJ235" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="263" spans="23:23">
-      <c r="W263" t="s">
+    <row r="236" spans="36:36">
+      <c r="AJ236" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="264" spans="23:23">
-      <c r="W264" t="s">
+    <row r="237" spans="36:36">
+      <c r="AJ237" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="265" spans="23:23">
-      <c r="W265" t="s">
+    <row r="238" spans="36:36">
+      <c r="AJ238" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="266" spans="23:23">
-      <c r="W266" t="s">
+    <row r="239" spans="36:36">
+      <c r="AJ239" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="267" spans="23:23">
-      <c r="W267" t="s">
+    <row r="240" spans="36:36">
+      <c r="AJ240" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="268" spans="23:23">
-      <c r="W268" t="s">
+    <row r="241" spans="36:36">
+      <c r="AJ241" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="269" spans="23:23">
-      <c r="W269" t="s">
+    <row r="242" spans="36:36">
+      <c r="AJ242" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="270" spans="23:23">
-      <c r="W270" t="s">
+    <row r="243" spans="36:36">
+      <c r="AJ243" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="271" spans="23:23">
-      <c r="W271" t="s">
+    <row r="244" spans="36:36">
+      <c r="AJ244" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="272" spans="23:23">
-      <c r="W272" t="s">
+    <row r="245" spans="36:36">
+      <c r="AJ245" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="273" spans="23:23">
-      <c r="W273" t="s">
+    <row r="246" spans="36:36">
+      <c r="AJ246" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="274" spans="23:23">
-      <c r="W274" t="s">
+    <row r="247" spans="36:36">
+      <c r="AJ247" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="275" spans="23:23">
-      <c r="W275" t="s">
+    <row r="248" spans="36:36">
+      <c r="AJ248" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="276" spans="23:23">
-      <c r="W276" t="s">
+    <row r="249" spans="36:36">
+      <c r="AJ249" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="277" spans="23:23">
-      <c r="W277" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="278" spans="23:23">
-      <c r="W278" t="s">
+    <row r="250" spans="36:36">
+      <c r="AJ250" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="251" spans="36:36">
+      <c r="AJ251" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="252" spans="36:36">
+      <c r="AJ252" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="253" spans="36:36">
+      <c r="AJ253" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="254" spans="36:36">
+      <c r="AJ254" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="255" spans="36:36">
+      <c r="AJ255" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="256" spans="36:36">
+      <c r="AJ256" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="257" spans="36:36">
+      <c r="AJ257" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="258" spans="36:36">
+      <c r="AJ258" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="259" spans="36:36">
+      <c r="AJ259" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="260" spans="36:36">
+      <c r="AJ260" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="261" spans="36:36">
+      <c r="AJ261" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="262" spans="36:36">
+      <c r="AJ262" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="263" spans="36:36">
+      <c r="AJ263" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="264" spans="36:36">
+      <c r="AJ264" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="265" spans="36:36">
+      <c r="AJ265" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="266" spans="36:36">
+      <c r="AJ266" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="267" spans="36:36">
+      <c r="AJ267" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="268" spans="36:36">
+      <c r="AJ268" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="269" spans="36:36">
+      <c r="AJ269" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="270" spans="36:36">
+      <c r="AJ270" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="271" spans="36:36">
+      <c r="AJ271" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="272" spans="36:36">
+      <c r="AJ272" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="273" spans="36:36">
+      <c r="AJ273" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="274" spans="36:36">
+      <c r="AJ274" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="275" spans="36:36">
+      <c r="AJ275" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="276" spans="36:36">
+      <c r="AJ276" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="277" spans="36:36">
+      <c r="AJ277" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="278" spans="36:36">
+      <c r="AJ278" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="279" spans="23:23">
-      <c r="W279" t="s">
+    <row r="279" spans="36:36">
+      <c r="AJ279" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="280" spans="23:23">
-      <c r="W280" t="s">
+    <row r="280" spans="36:36">
+      <c r="AJ280" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="281" spans="23:23">
-      <c r="W281" t="s">
+    <row r="281" spans="36:36">
+      <c r="AJ281" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="282" spans="23:23">
-      <c r="W282" t="s">
+    <row r="282" spans="36:36">
+      <c r="AJ282" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="283" spans="23:23">
-      <c r="W283" t="s">
+    <row r="283" spans="36:36">
+      <c r="AJ283" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="284" spans="23:23">
-      <c r="W284" t="s">
+    <row r="284" spans="36:36">
+      <c r="AJ284" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="285" spans="23:23">
-      <c r="W285" t="s">
+    <row r="285" spans="36:36">
+      <c r="AJ285" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="286" spans="23:23">
-      <c r="W286" t="s">
+    <row r="286" spans="36:36">
+      <c r="AJ286" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="287" spans="23:23">
-      <c r="W287" t="s">
+    <row r="287" spans="36:36">
+      <c r="AJ287" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="288" spans="23:23">
-      <c r="W288" t="s">
-        <v>602</v>
+    <row r="288" spans="36:36">
+      <c r="AJ288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="36:36">
+      <c r="AJ289" t="s">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -114,7 +114,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -132,7 +132,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="703">
   <si>
     <t>alias</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2678,7 +2681,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2722,7 +2725,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +2752,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3461,6 +3464,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3485,27 +3493,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3528,122 +3536,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3670,276 +3678,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -3971,1669 +3979,1669 @@
   <sheetData>
     <row r="1" spans="10:38">
       <c r="J1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2" spans="10:38">
       <c r="J2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="10:38">
       <c r="J3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AJ3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="10:38">
       <c r="J4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="10:38">
       <c r="J5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL5" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="10:38">
       <c r="J6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL6" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="7" spans="10:38">
       <c r="J7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="10:38">
       <c r="J8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="10:38">
       <c r="J9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="10:38">
       <c r="J10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="11" spans="10:38">
       <c r="J11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL11" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="12" spans="10:38">
       <c r="J12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL12" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="10:38">
       <c r="J13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL13" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="14" spans="10:38">
       <c r="J14" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL14" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="10:38">
       <c r="J15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="10:38">
       <c r="J16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="10:38">
       <c r="J17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL17" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="10:38">
       <c r="J18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL18" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="19" spans="10:38">
       <c r="J19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ19" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL19" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="20" spans="10:38">
       <c r="J20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ20" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL20" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="10:38">
       <c r="J21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ21" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="10:38">
       <c r="J22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL22" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23" spans="10:38">
       <c r="J23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ23" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL23" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="10:38">
       <c r="AJ24" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL24" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="10:38">
       <c r="AJ25" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL25" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="26" spans="10:38">
       <c r="AJ26" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL26" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="10:38">
       <c r="AJ27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL27" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="10:38">
       <c r="AJ28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL28" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="10:38">
       <c r="AJ29" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL29" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="10:38">
       <c r="AJ30" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="10:38">
       <c r="AJ31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL31" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="10:38">
       <c r="AJ32" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL32" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" spans="36:38">
       <c r="AJ33" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL33" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="36:38">
       <c r="AJ34" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL34" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="36:38">
       <c r="AJ35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL35" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="36:38">
       <c r="AJ36" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL36" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="36:38">
       <c r="AJ37" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL37" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="36:38">
       <c r="AJ38" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="36:38">
       <c r="AJ39" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL39" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="36:38">
       <c r="AJ40" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL40" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="36:38">
       <c r="AJ41" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="42" spans="36:38">
       <c r="AJ42" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL42" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="36:38">
       <c r="AJ43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL43" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" spans="36:38">
       <c r="AJ44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="45" spans="36:38">
       <c r="AJ45" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL45" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="46" spans="36:38">
       <c r="AJ46" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL46" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="47" spans="36:38">
       <c r="AJ47" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL47" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="48" spans="36:38">
       <c r="AJ48" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL48" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="49" spans="36:38">
       <c r="AJ49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL49" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="36:38">
       <c r="AJ50" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="36:38">
       <c r="AJ51" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="36:38">
       <c r="AJ52" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="36:38">
       <c r="AJ53" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="36:38">
       <c r="AJ54" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="36:38">
       <c r="AJ55" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="36:38">
       <c r="AJ56" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="36:38">
       <c r="AJ57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="36:38">
       <c r="AJ58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="36:38">
       <c r="AJ59" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="36:38">
       <c r="AJ60" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="36:38">
       <c r="AJ61" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="36:38">
       <c r="AJ62" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="36:38">
       <c r="AJ63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="36:38">
       <c r="AJ64" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="704">
   <si>
     <t>alias</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2681,7 +2684,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2725,7 +2728,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2755,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3469,6 +3472,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3493,27 +3501,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3536,122 +3544,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3678,276 +3686,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -3979,1669 +3987,1669 @@
   <sheetData>
     <row r="1" spans="10:38">
       <c r="J1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="10:38">
       <c r="J2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="10:38">
       <c r="J3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AJ3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="10:38">
       <c r="J4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5" spans="10:38">
       <c r="J5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL5" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="6" spans="10:38">
       <c r="J6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL6" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="10:38">
       <c r="J7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="10:38">
       <c r="J8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="10:38">
       <c r="J9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="10:38">
       <c r="J10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="10:38">
       <c r="J11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL11" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="12" spans="10:38">
       <c r="J12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL12" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="13" spans="10:38">
       <c r="J13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL13" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="10:38">
       <c r="J14" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL14" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="15" spans="10:38">
       <c r="J15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL15" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="10:38">
       <c r="J16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ16" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL16" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="10:38">
       <c r="J17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ17" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL17" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="10:38">
       <c r="J18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL18" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="19" spans="10:38">
       <c r="J19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL19" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="20" spans="10:38">
       <c r="J20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL20" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="21" spans="10:38">
       <c r="J21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ21" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="10:38">
       <c r="J22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL22" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="10:38">
       <c r="J23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL23" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="10:38">
       <c r="AJ24" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL24" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" spans="10:38">
       <c r="AJ25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL25" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="10:38">
       <c r="AJ26" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL26" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="10:38">
       <c r="AJ27" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL27" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="10:38">
       <c r="AJ28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL28" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="29" spans="10:38">
       <c r="AJ29" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL29" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="10:38">
       <c r="AJ30" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL30" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="10:38">
       <c r="AJ31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL31" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="32" spans="10:38">
       <c r="AJ32" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL32" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="36:38">
       <c r="AJ33" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL33" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="36:38">
       <c r="AJ34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL34" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="35" spans="36:38">
       <c r="AJ35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL35" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="36:38">
       <c r="AJ36" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL36" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="37" spans="36:38">
       <c r="AJ37" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL37" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="38" spans="36:38">
       <c r="AJ38" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL38" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="39" spans="36:38">
       <c r="AJ39" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL39" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="36:38">
       <c r="AJ40" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL40" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="41" spans="36:38">
       <c r="AJ41" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="36:38">
       <c r="AJ42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL42" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="43" spans="36:38">
       <c r="AJ43" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL43" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="44" spans="36:38">
       <c r="AJ44" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="45" spans="36:38">
       <c r="AJ45" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL45" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="46" spans="36:38">
       <c r="AJ46" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL46" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="36:38">
       <c r="AJ47" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL47" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48" spans="36:38">
       <c r="AJ48" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL48" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="36:38">
       <c r="AJ49" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL49" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="50" spans="36:38">
       <c r="AJ50" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="36:38">
       <c r="AJ51" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="36:38">
       <c r="AJ52" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="36:38">
       <c r="AJ53" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="36:38">
       <c r="AJ54" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="36:38">
       <c r="AJ55" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="56" spans="36:38">
       <c r="AJ56" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="57" spans="36:38">
       <c r="AJ57" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="36:38">
       <c r="AJ58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="36:38">
       <c r="AJ59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="36:38">
       <c r="AJ60" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="36:38">
       <c r="AJ61" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="36:38">
       <c r="AJ62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" spans="36:38">
       <c r="AJ63" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="36:38">
       <c r="AJ64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="705">
   <si>
     <t>alias</t>
   </si>
@@ -721,6 +721,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2684,7 +2687,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2728,7 +2731,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2758,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3477,6 +3480,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3501,27 +3509,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3544,122 +3552,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3686,276 +3694,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -3987,1669 +3995,1669 @@
   <sheetData>
     <row r="1" spans="10:38">
       <c r="J1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AJ1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="10:38">
       <c r="J2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="3" spans="10:38">
       <c r="J3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AJ3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL3" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="4" spans="10:38">
       <c r="J4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="5" spans="10:38">
       <c r="J5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="10:38">
       <c r="J6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL6" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="10:38">
       <c r="J7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="10:38">
       <c r="J8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="10:38">
       <c r="J9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10" spans="10:38">
       <c r="J10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="10:38">
       <c r="J11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ11" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="10:38">
       <c r="J12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="10:38">
       <c r="J13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="10:38">
       <c r="J14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ14" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="10:38">
       <c r="J15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL15" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="10:38">
       <c r="J16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ16" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL16" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="10:38">
       <c r="J17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ17" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL17" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="10:38">
       <c r="J18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL18" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="10:38">
       <c r="J19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ19" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL19" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="10:38">
       <c r="J20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ20" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL20" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="10:38">
       <c r="J21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="10:38">
       <c r="J22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL22" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="23" spans="10:38">
       <c r="J23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ23" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL23" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="24" spans="10:38">
       <c r="AJ24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL24" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="10:38">
       <c r="AJ25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL25" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="10:38">
       <c r="AJ26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL26" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="10:38">
       <c r="AJ27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL27" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="28" spans="10:38">
       <c r="AJ28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL28" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="10:38">
       <c r="AJ29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL29" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="30" spans="10:38">
       <c r="AJ30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL30" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="10:38">
       <c r="AJ31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL31" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="10:38">
       <c r="AJ32" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL32" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="36:38">
       <c r="AJ33" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL33" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="34" spans="36:38">
       <c r="AJ34" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL34" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="36:38">
       <c r="AJ35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL35" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="36" spans="36:38">
       <c r="AJ36" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL36" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="37" spans="36:38">
       <c r="AJ37" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL37" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="38" spans="36:38">
       <c r="AJ38" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL38" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="36:38">
       <c r="AJ39" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL39" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="40" spans="36:38">
       <c r="AJ40" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL40" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="36:38">
       <c r="AJ41" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL41" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="42" spans="36:38">
       <c r="AJ42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL42" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="43" spans="36:38">
       <c r="AJ43" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL43" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="36:38">
       <c r="AJ44" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="45" spans="36:38">
       <c r="AJ45" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL45" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="46" spans="36:38">
       <c r="AJ46" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL46" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="47" spans="36:38">
       <c r="AJ47" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL47" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="36:38">
       <c r="AJ48" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL48" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="36:38">
       <c r="AJ49" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL49" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="36:38">
       <c r="AJ50" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="51" spans="36:38">
       <c r="AJ51" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="52" spans="36:38">
       <c r="AJ52" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" spans="36:38">
       <c r="AJ53" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="36:38">
       <c r="AJ54" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55" spans="36:38">
       <c r="AJ55" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="56" spans="36:38">
       <c r="AJ56" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="36:38">
       <c r="AJ57" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="36:38">
       <c r="AJ58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="59" spans="36:38">
       <c r="AJ59" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" spans="36:38">
       <c r="AJ60" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="36:38">
       <c r="AJ61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="36:38">
       <c r="AJ62" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="36:38">
       <c r="AJ63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="36:38">
       <c r="AJ64" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -20,7 +20,7 @@
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
     <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="706">
   <si>
     <t>alias</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2687,7 +2690,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2731,7 +2734,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2761,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3485,6 +3488,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3509,27 +3517,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3552,122 +3560,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3694,276 +3702,276 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -3995,1669 +4003,1669 @@
   <sheetData>
     <row r="1" spans="10:38">
       <c r="J1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AJ1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="10:38">
       <c r="J2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AJ2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="10:38">
       <c r="J3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AJ3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="10:38">
       <c r="J4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AJ4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="10:38">
       <c r="J5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AJ5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="10:38">
       <c r="J6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL6" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="10:38">
       <c r="J7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="10:38">
       <c r="J8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AJ8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="10:38">
       <c r="J9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AJ9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="10:38">
       <c r="J10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AJ10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="10:38">
       <c r="J11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AL11" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="10:38">
       <c r="J12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AJ12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL12" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="10:38">
       <c r="J13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AJ13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL13" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="10:38">
       <c r="J14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AJ14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="10:38">
       <c r="J15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL15" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="10:38">
       <c r="J16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AJ16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL16" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="10:38">
       <c r="J17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AJ17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL17" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="10:38">
       <c r="J18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AJ18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL18" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="10:38">
       <c r="J19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AJ19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AL19" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="10:38">
       <c r="J20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AJ20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL20" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="10:38">
       <c r="J21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AJ21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="10:38">
       <c r="J22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AJ22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL22" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="10:38">
       <c r="J23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AJ23" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL23" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="10:38">
       <c r="AJ24" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL24" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="10:38">
       <c r="AJ25" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AL25" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="10:38">
       <c r="AJ26" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL26" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="10:38">
       <c r="AJ27" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AL27" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="10:38">
       <c r="AJ28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL28" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="10:38">
       <c r="AJ29" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL29" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="10:38">
       <c r="AJ30" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL30" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="10:38">
       <c r="AJ31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="10:38">
       <c r="AJ32" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL32" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="36:38">
       <c r="AJ33" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL33" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="36:38">
       <c r="AJ34" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL34" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="36:38">
       <c r="AJ35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL35" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="36:38">
       <c r="AJ36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL36" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="36:38">
       <c r="AJ37" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL37" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="36:38">
       <c r="AJ38" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL38" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="36:38">
       <c r="AJ39" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL39" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="36:38">
       <c r="AJ40" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL40" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="36:38">
       <c r="AJ41" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL41" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="36:38">
       <c r="AJ42" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL42" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="36:38">
       <c r="AJ43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL43" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="36:38">
       <c r="AJ44" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="36:38">
       <c r="AJ45" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL45" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="36:38">
       <c r="AJ46" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL46" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="36:38">
       <c r="AJ47" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL47" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="36:38">
       <c r="AJ48" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL48" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="36:38">
       <c r="AJ49" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL49" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="36:38">
       <c r="AJ50" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="36:38">
       <c r="AJ51" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="36:38">
       <c r="AJ52" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="36:38">
       <c r="AJ53" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="36:38">
       <c r="AJ54" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="36:38">
       <c r="AJ55" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="36:38">
       <c r="AJ56" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="57" spans="36:38">
       <c r="AJ57" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="36:38">
       <c r="AJ58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="36:38">
       <c r="AJ59" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="36:38">
       <c r="AJ60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="36:38">
       <c r="AJ61" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="62" spans="36:38">
       <c r="AJ62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" spans="36:38">
       <c r="AJ63" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="36:38">
       <c r="AJ64" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="36:36">
       <c r="AJ65" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="36:36">
       <c r="AJ66" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="36:36">
       <c r="AJ67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="68" spans="36:36">
       <c r="AJ68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="69" spans="36:36">
       <c r="AJ69" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="36:36">
       <c r="AJ70" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="71" spans="36:36">
       <c r="AJ71" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="36:36">
       <c r="AJ72" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="36:36">
       <c r="AJ73" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="74" spans="36:36">
       <c r="AJ74" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="75" spans="36:36">
       <c r="AJ75" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="76" spans="36:36">
       <c r="AJ76" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="36:36">
       <c r="AJ77" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="78" spans="36:36">
       <c r="AJ78" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="36:36">
       <c r="AJ79" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="36:36">
       <c r="AJ80" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="36:36">
       <c r="AJ81" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="36:36">
       <c r="AJ82" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="36:36">
       <c r="AJ83" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="84" spans="36:36">
       <c r="AJ84" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="85" spans="36:36">
       <c r="AJ85" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="36:36">
       <c r="AJ86" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="36:36">
       <c r="AJ87" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="88" spans="36:36">
       <c r="AJ88" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="36:36">
       <c r="AJ89" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="36:36">
       <c r="AJ90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="36:36">
       <c r="AJ91" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92" spans="36:36">
       <c r="AJ92" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="93" spans="36:36">
       <c r="AJ93" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94" spans="36:36">
       <c r="AJ94" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="95" spans="36:36">
       <c r="AJ95" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="36:36">
       <c r="AJ96" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="36:36">
       <c r="AJ97" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="98" spans="36:36">
       <c r="AJ98" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="36:36">
       <c r="AJ99" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="100" spans="36:36">
       <c r="AJ100" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="101" spans="36:36">
       <c r="AJ101" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="102" spans="36:36">
       <c r="AJ102" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="36:36">
       <c r="AJ103" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="36:36">
       <c r="AJ104" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="105" spans="36:36">
       <c r="AJ105" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="106" spans="36:36">
       <c r="AJ106" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="107" spans="36:36">
       <c r="AJ107" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="108" spans="36:36">
       <c r="AJ108" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="36:36">
       <c r="AJ109" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="110" spans="36:36">
       <c r="AJ110" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="111" spans="36:36">
       <c r="AJ111" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="36:36">
       <c r="AJ112" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="113" spans="36:36">
       <c r="AJ113" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="114" spans="36:36">
       <c r="AJ114" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="115" spans="36:36">
       <c r="AJ115" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="116" spans="36:36">
       <c r="AJ116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="117" spans="36:36">
       <c r="AJ117" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="118" spans="36:36">
       <c r="AJ118" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="36:36">
       <c r="AJ119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="36:36">
       <c r="AJ120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="36:36">
       <c r="AJ121" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="36:36">
       <c r="AJ122" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="123" spans="36:36">
       <c r="AJ123" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="124" spans="36:36">
       <c r="AJ124" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="125" spans="36:36">
       <c r="AJ125" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="126" spans="36:36">
       <c r="AJ126" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="127" spans="36:36">
       <c r="AJ127" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="36:36">
       <c r="AJ128" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="36:36">
       <c r="AJ129" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="130" spans="36:36">
       <c r="AJ130" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" spans="36:36">
       <c r="AJ131" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="36:36">
       <c r="AJ132" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="36:36">
       <c r="AJ133" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="36:36">
       <c r="AJ134" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="36:36">
       <c r="AJ135" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="36:36">
       <c r="AJ136" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="36:36">
       <c r="AJ137" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="36:36">
       <c r="AJ138" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="36:36">
       <c r="AJ139" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="36:36">
       <c r="AJ140" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="36:36">
       <c r="AJ141" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="36:36">
       <c r="AJ142" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="36:36">
       <c r="AJ143" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="36:36">
       <c r="AJ144" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="36:36">
       <c r="AJ145" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="36:36">
       <c r="AJ146" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="36:36">
       <c r="AJ147" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="36:36">
       <c r="AJ148" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149" spans="36:36">
       <c r="AJ149" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="150" spans="36:36">
       <c r="AJ150" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="151" spans="36:36">
       <c r="AJ151" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="152" spans="36:36">
       <c r="AJ152" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="153" spans="36:36">
       <c r="AJ153" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="154" spans="36:36">
       <c r="AJ154" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="155" spans="36:36">
       <c r="AJ155" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="156" spans="36:36">
       <c r="AJ156" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="157" spans="36:36">
       <c r="AJ157" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="158" spans="36:36">
       <c r="AJ158" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="159" spans="36:36">
       <c r="AJ159" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="160" spans="36:36">
       <c r="AJ160" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="36:36">
       <c r="AJ161" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="162" spans="36:36">
       <c r="AJ162" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="163" spans="36:36">
       <c r="AJ163" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" spans="36:36">
       <c r="AJ164" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="36:36">
       <c r="AJ165" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="166" spans="36:36">
       <c r="AJ166" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="167" spans="36:36">
       <c r="AJ167" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="168" spans="36:36">
       <c r="AJ168" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="36:36">
       <c r="AJ169" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="170" spans="36:36">
       <c r="AJ170" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="171" spans="36:36">
       <c r="AJ171" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="172" spans="36:36">
       <c r="AJ172" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="173" spans="36:36">
       <c r="AJ173" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="174" spans="36:36">
       <c r="AJ174" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="175" spans="36:36">
       <c r="AJ175" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176" spans="36:36">
       <c r="AJ176" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="36:36">
       <c r="AJ177" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178" spans="36:36">
       <c r="AJ178" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179" spans="36:36">
       <c r="AJ179" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="180" spans="36:36">
       <c r="AJ180" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="36:36">
       <c r="AJ181" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="182" spans="36:36">
       <c r="AJ182" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="183" spans="36:36">
       <c r="AJ183" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="184" spans="36:36">
       <c r="AJ184" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="36:36">
       <c r="AJ185" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="186" spans="36:36">
       <c r="AJ186" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="187" spans="36:36">
       <c r="AJ187" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="188" spans="36:36">
       <c r="AJ188" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="189" spans="36:36">
       <c r="AJ189" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="190" spans="36:36">
       <c r="AJ190" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="191" spans="36:36">
       <c r="AJ191" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="192" spans="36:36">
       <c r="AJ192" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="193" spans="36:36">
       <c r="AJ193" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="194" spans="36:36">
       <c r="AJ194" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="195" spans="36:36">
       <c r="AJ195" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="196" spans="36:36">
       <c r="AJ196" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="36:36">
       <c r="AJ197" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="36:36">
       <c r="AJ198" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="36:36">
       <c r="AJ199" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="200" spans="36:36">
       <c r="AJ200" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="36:36">
       <c r="AJ201" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="202" spans="36:36">
       <c r="AJ202" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="203" spans="36:36">
       <c r="AJ203" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="204" spans="36:36">
       <c r="AJ204" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="205" spans="36:36">
       <c r="AJ205" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="206" spans="36:36">
       <c r="AJ206" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="36:36">
       <c r="AJ207" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208" spans="36:36">
       <c r="AJ208" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="36:36">
       <c r="AJ209" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="36:36">
       <c r="AJ210" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="211" spans="36:36">
       <c r="AJ211" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="212" spans="36:36">
       <c r="AJ212" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="213" spans="36:36">
       <c r="AJ213" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="214" spans="36:36">
       <c r="AJ214" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="215" spans="36:36">
       <c r="AJ215" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="36:36">
       <c r="AJ216" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="36:36">
       <c r="AJ217" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="36:36">
       <c r="AJ218" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="219" spans="36:36">
       <c r="AJ219" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="36:36">
       <c r="AJ220" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="221" spans="36:36">
       <c r="AJ221" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="222" spans="36:36">
       <c r="AJ222" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="36:36">
       <c r="AJ223" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="36:36">
       <c r="AJ224" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="225" spans="36:36">
       <c r="AJ225" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="36:36">
       <c r="AJ226" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227" spans="36:36">
       <c r="AJ227" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="228" spans="36:36">
       <c r="AJ228" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="229" spans="36:36">
       <c r="AJ229" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="230" spans="36:36">
       <c r="AJ230" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="231" spans="36:36">
       <c r="AJ231" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="232" spans="36:36">
       <c r="AJ232" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="233" spans="36:36">
       <c r="AJ233" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="234" spans="36:36">
       <c r="AJ234" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="235" spans="36:36">
       <c r="AJ235" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="36:36">
       <c r="AJ236" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="237" spans="36:36">
       <c r="AJ237" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238" spans="36:36">
       <c r="AJ238" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239" spans="36:36">
       <c r="AJ239" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="240" spans="36:36">
       <c r="AJ240" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="241" spans="36:36">
       <c r="AJ241" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="242" spans="36:36">
       <c r="AJ242" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="243" spans="36:36">
       <c r="AJ243" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="244" spans="36:36">
       <c r="AJ244" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="245" spans="36:36">
       <c r="AJ245" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="246" spans="36:36">
       <c r="AJ246" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="247" spans="36:36">
       <c r="AJ247" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="36:36">
       <c r="AJ248" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="36:36">
       <c r="AJ249" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="250" spans="36:36">
       <c r="AJ250" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="251" spans="36:36">
       <c r="AJ251" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="252" spans="36:36">
       <c r="AJ252" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="253" spans="36:36">
       <c r="AJ253" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="254" spans="36:36">
       <c r="AJ254" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="255" spans="36:36">
       <c r="AJ255" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="256" spans="36:36">
       <c r="AJ256" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="257" spans="36:36">
       <c r="AJ257" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="258" spans="36:36">
       <c r="AJ258" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="259" spans="36:36">
       <c r="AJ259" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="260" spans="36:36">
       <c r="AJ260" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="261" spans="36:36">
       <c r="AJ261" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="262" spans="36:36">
       <c r="AJ262" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="263" spans="36:36">
       <c r="AJ263" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="264" spans="36:36">
       <c r="AJ264" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="265" spans="36:36">
       <c r="AJ265" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="266" spans="36:36">
       <c r="AJ266" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="267" spans="36:36">
       <c r="AJ267" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="268" spans="36:36">
       <c r="AJ268" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="269" spans="36:36">
       <c r="AJ269" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="270" spans="36:36">
       <c r="AJ270" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="271" spans="36:36">
       <c r="AJ271" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="272" spans="36:36">
       <c r="AJ272" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="36:36">
       <c r="AJ273" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="274" spans="36:36">
       <c r="AJ274" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" spans="36:36">
       <c r="AJ275" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="276" spans="36:36">
       <c r="AJ276" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="277" spans="36:36">
       <c r="AJ277" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="gal">'cv_sample'!$AL$1:$AL$49</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="711">
   <si>
     <t>alias</t>
   </si>
@@ -846,31 +846,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>Latitude Start</t>
+    <t>latitude_start</t>
   </si>
   <si>
     <t>(Optional) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude Start</t>
+    <t>longitude_start</t>
   </si>
   <si>
     <t>(Optional) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>Latitude End</t>
+    <t>latitude_end</t>
   </si>
   <si>
     <t>(Optional) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>Longitude End</t>
+    <t>longitude_end</t>
   </si>
   <si>
     <t>(Optional) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>organism part</t>
+    <t>organism_part</t>
   </si>
   <si>
     <t>(Mandatory) The part of organism's anatomy or substance arising from an organism from which the biomaterial was derived, excludes cells.</t>
@@ -957,7 +957,7 @@
     <t>(Optional) Indicates if the specimen has a known relationship to another specimen (e.g. parental, child, sibling or other kind of relationship)</t>
   </si>
   <si>
-    <t>sample symbiont of</t>
+    <t>sample_symbiont_of</t>
   </si>
   <si>
     <t>(Optional) Reference to host sample from symbiont. the referenced sample should already be registered in insdc. e.g. ersxxxxxx</t>
@@ -975,37 +975,37 @@
     <t>(Optional) Used to separate host and symbiont metadata within a symbiont system where the host species are indicated as 'n' and symbionts are indicated as 'y'</t>
   </si>
   <si>
-    <t>sample collection method</t>
+    <t>sample_collection_method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample coordinator affiliation</t>
+    <t>sample_coordinator_affiliation</t>
   </si>
   <si>
     <t>(Optional) The university, institution, or society affiliation of the sample coordinator.</t>
   </si>
   <si>
-    <t>sample same as</t>
+    <t>sample_same_as</t>
   </si>
   <si>
     <t>(Optional) Reference to sample(s) that are equivalent. the referenced sample(s) should already be registered in insdc. this should be formatted as one of the following. a single sample e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx</t>
   </si>
   <si>
-    <t>sample derived from</t>
+    <t>sample_derived_from</t>
   </si>
   <si>
     <t>(Optional) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project name</t>
+    <t>project_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>barcoding center</t>
+    <t>barcoding_center</t>
   </si>
   <si>
     <t>(Optional) Center where dna barcoding was/will be performed.</t>
@@ -1023,25 +1023,25 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1071,31 +1071,31 @@
     <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
   </si>
   <si>
-    <t>original collection date</t>
+    <t>original_collection_date</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>original geographic location</t>
+    <t>original_geographic_location</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
   </si>
   <si>
-    <t>original geographic location (latitude)</t>
+    <t>original_geographic_location_latitude</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>original geographic location (longitude)</t>
+    <t>original_geographic_location_longitude</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>sample coordinator</t>
+    <t>sample_coordinator</t>
   </si>
   <si>
     <t>(Optional) The name of the sample coordinator.</t>
@@ -1320,9 +1320,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1341,6 +1338,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1542,6 +1542,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1551,9 +1554,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1593,7 +1593,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1662,6 +1662,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1737,6 +1740,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1758,6 +1764,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1803,6 +1812,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1815,6 +1827,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1824,9 +1839,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1851,6 +1863,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1911,12 +1926,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1941,13 +1956,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>collecting institution</t>
+    <t>collecting_institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
@@ -2100,7 +2115,7 @@
     <t>other ERGA associated GAL</t>
   </si>
   <si>
-    <t>GAL</t>
+    <t>gal</t>
   </si>
   <si>
     <t>(Optional) The name (or acronym) of the genome acquisition lab responsible for the sample.</t>
@@ -2112,19 +2127,19 @@
     <t>(Optional) Unique identifier used to link all data for the recorded specimen.</t>
   </si>
   <si>
-    <t>GAL_sample_id</t>
+    <t>gal_sample_id</t>
   </si>
   <si>
     <t>(Optional) Unique name assigned to the sample by the genome acquisition lab.</t>
   </si>
   <si>
-    <t>proxy voucher</t>
+    <t>proxy_voucher</t>
   </si>
   <si>
     <t>(Optional) For use if voucher material needs to be made from a specimen that is different than the one submitted for sequencing. please record the unique identifier that references the physical specimen and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
   </si>
   <si>
-    <t>proxy biomaterial</t>
+    <t>proxy_biomaterial</t>
   </si>
   <si>
     <t>(Optional) For use if voucher material needs to be made from a material that is different from the one submitted for sequencing. please record the unique identifier that references the biomaterial and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the material id (institution_code:collection_code:material_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
@@ -2151,7 +2166,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3801,37 +3816,37 @@
         <v>355</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
@@ -3941,37 +3956,37 @@
         <v>356</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +4001,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
-      <formula1>GAL</formula1>
+      <formula1>gal</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3995,7 +4010,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:AL289"/>
+  <dimension ref="J1:AL294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4012,7 +4027,7 @@
         <v>357</v>
       </c>
       <c r="AL1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="10:38">
@@ -4026,7 +4041,7 @@
         <v>358</v>
       </c>
       <c r="AL2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="10:38">
@@ -4037,7 +4052,7 @@
         <v>359</v>
       </c>
       <c r="AL3" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="10:38">
@@ -4048,7 +4063,7 @@
         <v>360</v>
       </c>
       <c r="AL4" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="10:38">
@@ -4059,7 +4074,7 @@
         <v>361</v>
       </c>
       <c r="AL5" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="10:38">
@@ -4070,7 +4085,7 @@
         <v>362</v>
       </c>
       <c r="AL6" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="10:38">
@@ -4081,7 +4096,7 @@
         <v>363</v>
       </c>
       <c r="AL7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="10:38">
@@ -4092,7 +4107,7 @@
         <v>364</v>
       </c>
       <c r="AL8" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="10:38">
@@ -4103,7 +4118,7 @@
         <v>365</v>
       </c>
       <c r="AL9" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="10:38">
@@ -4114,7 +4129,7 @@
         <v>366</v>
       </c>
       <c r="AL10" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="11" spans="10:38">
@@ -4125,7 +4140,7 @@
         <v>367</v>
       </c>
       <c r="AL11" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12" spans="10:38">
@@ -4136,7 +4151,7 @@
         <v>368</v>
       </c>
       <c r="AL12" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="10:38">
@@ -4147,7 +4162,7 @@
         <v>369</v>
       </c>
       <c r="AL13" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="10:38">
@@ -4158,7 +4173,7 @@
         <v>370</v>
       </c>
       <c r="AL14" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="10:38">
@@ -4169,7 +4184,7 @@
         <v>371</v>
       </c>
       <c r="AL15" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="16" spans="10:38">
@@ -4180,7 +4195,7 @@
         <v>372</v>
       </c>
       <c r="AL16" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="10:38">
@@ -4191,7 +4206,7 @@
         <v>373</v>
       </c>
       <c r="AL17" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="18" spans="10:38">
@@ -4202,7 +4217,7 @@
         <v>374</v>
       </c>
       <c r="AL18" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="19" spans="10:38">
@@ -4213,7 +4228,7 @@
         <v>375</v>
       </c>
       <c r="AL19" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="20" spans="10:38">
@@ -4224,7 +4239,7 @@
         <v>376</v>
       </c>
       <c r="AL20" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="21" spans="10:38">
@@ -4235,7 +4250,7 @@
         <v>377</v>
       </c>
       <c r="AL21" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22" spans="10:38">
@@ -4246,7 +4261,7 @@
         <v>378</v>
       </c>
       <c r="AL22" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="23" spans="10:38">
@@ -4257,7 +4272,7 @@
         <v>379</v>
       </c>
       <c r="AL23" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="10:38">
@@ -4265,7 +4280,7 @@
         <v>380</v>
       </c>
       <c r="AL24" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="10:38">
@@ -4273,7 +4288,7 @@
         <v>381</v>
       </c>
       <c r="AL25" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="10:38">
@@ -4281,7 +4296,7 @@
         <v>382</v>
       </c>
       <c r="AL26" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="10:38">
@@ -4289,7 +4304,7 @@
         <v>383</v>
       </c>
       <c r="AL27" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="10:38">
@@ -4297,7 +4312,7 @@
         <v>384</v>
       </c>
       <c r="AL28" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="10:38">
@@ -4305,7 +4320,7 @@
         <v>385</v>
       </c>
       <c r="AL29" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="10:38">
@@ -4313,7 +4328,7 @@
         <v>386</v>
       </c>
       <c r="AL30" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="10:38">
@@ -4321,7 +4336,7 @@
         <v>387</v>
       </c>
       <c r="AL31" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="10:38">
@@ -4329,7 +4344,7 @@
         <v>388</v>
       </c>
       <c r="AL32" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="36:38">
@@ -4337,7 +4352,7 @@
         <v>389</v>
       </c>
       <c r="AL33" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="36:38">
@@ -4345,7 +4360,7 @@
         <v>390</v>
       </c>
       <c r="AL34" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="36:38">
@@ -4353,7 +4368,7 @@
         <v>391</v>
       </c>
       <c r="AL35" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="36:38">
@@ -4361,7 +4376,7 @@
         <v>392</v>
       </c>
       <c r="AL36" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="36:38">
@@ -4369,7 +4384,7 @@
         <v>393</v>
       </c>
       <c r="AL37" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="36:38">
@@ -4377,7 +4392,7 @@
         <v>394</v>
       </c>
       <c r="AL38" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="36:38">
@@ -4385,7 +4400,7 @@
         <v>395</v>
       </c>
       <c r="AL39" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="36:38">
@@ -4393,7 +4408,7 @@
         <v>396</v>
       </c>
       <c r="AL40" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="36:38">
@@ -4401,7 +4416,7 @@
         <v>397</v>
       </c>
       <c r="AL41" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="36:38">
@@ -4409,7 +4424,7 @@
         <v>398</v>
       </c>
       <c r="AL42" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="43" spans="36:38">
@@ -4417,7 +4432,7 @@
         <v>399</v>
       </c>
       <c r="AL43" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="36:38">
@@ -4425,7 +4440,7 @@
         <v>400</v>
       </c>
       <c r="AL44" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="36:38">
@@ -4433,7 +4448,7 @@
         <v>401</v>
       </c>
       <c r="AL45" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="36:38">
@@ -4441,7 +4456,7 @@
         <v>402</v>
       </c>
       <c r="AL46" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="36:38">
@@ -4449,7 +4464,7 @@
         <v>403</v>
       </c>
       <c r="AL47" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="36:38">
@@ -4457,7 +4472,7 @@
         <v>404</v>
       </c>
       <c r="AL48" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="36:38">
@@ -4465,7 +4480,7 @@
         <v>405</v>
       </c>
       <c r="AL49" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="36:38">
@@ -5610,62 +5625,87 @@
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>286</v>
+        <v>634</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>287</v>
+        <v>635</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>288</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>289</v>
+        <v>637</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>290</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>634</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="36:36">
+      <c r="AJ290" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="291" spans="36:36">
+      <c r="AJ291" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="292" spans="36:36">
+      <c r="AJ292" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="293" spans="36:36">
+      <c r="AJ293" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="294" spans="36:36">
+      <c r="AJ294" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="gal">'cv_sample'!$AL$1:$AL$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$294</definedName>
+    <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="706">
   <si>
     <t>alias</t>
   </si>
@@ -846,31 +846,31 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>latitude_start</t>
+    <t>Latitude Start</t>
   </si>
   <si>
     <t>(Optional) Latitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6666. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_start</t>
+    <t>Longitude Start</t>
   </si>
   <si>
     <t>(Optional) Longitude of the location where the sampling event started, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1012. (Units: DD)</t>
   </si>
   <si>
-    <t>latitude_end</t>
+    <t>Latitude End</t>
   </si>
   <si>
     <t>(Optional) Latitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ##.####, decimal degrees; north= +, south= -; use wgs 84 for gps data. example: -24.6643. (Units: DD)</t>
   </si>
   <si>
-    <t>longitude_end</t>
+    <t>Longitude End</t>
   </si>
   <si>
     <t>(Optional) Longitude of the location where the sampling event ended, e.g. each ctd cast, net tow, or bucket collection is a distinct event. format: ###.####, decimal degrees; east= +, west= -; use wgs 84 for gps data. example: -096.1171. (Units: DD)</t>
   </si>
   <si>
-    <t>organism_part</t>
+    <t>organism part</t>
   </si>
   <si>
     <t>(Mandatory) The part of organism's anatomy or substance arising from an organism from which the biomaterial was derived, excludes cells.</t>
@@ -957,7 +957,7 @@
     <t>(Optional) Indicates if the specimen has a known relationship to another specimen (e.g. parental, child, sibling or other kind of relationship)</t>
   </si>
   <si>
-    <t>sample_symbiont_of</t>
+    <t>sample symbiont of</t>
   </si>
   <si>
     <t>(Optional) Reference to host sample from symbiont. the referenced sample should already be registered in insdc. e.g. ersxxxxxx</t>
@@ -975,37 +975,37 @@
     <t>(Optional) Used to separate host and symbiont metadata within a symbiont system where the host species are indicated as 'n' and symbionts are indicated as 'y'</t>
   </si>
   <si>
-    <t>sample_collection_method</t>
+    <t>sample collection method</t>
   </si>
   <si>
     <t>(Optional) The method employed for collecting the sample. can be provided in the form of a pmid, doi, url or text.</t>
   </si>
   <si>
-    <t>sample_coordinator_affiliation</t>
+    <t>sample coordinator affiliation</t>
   </si>
   <si>
     <t>(Optional) The university, institution, or society affiliation of the sample coordinator.</t>
   </si>
   <si>
-    <t>sample_same_as</t>
+    <t>sample same as</t>
   </si>
   <si>
     <t>(Optional) Reference to sample(s) that are equivalent. the referenced sample(s) should already be registered in insdc. this should be formatted as one of the following. a single sample e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx</t>
   </si>
   <si>
-    <t>sample_derived_from</t>
+    <t>sample derived from</t>
   </si>
   <si>
     <t>(Optional) Reference to parental sample(s) or original run(s) that the assembly is derived from. the referenced samples or runs should already be registered in insdc. this should be formatted as one of the following. a single sample/run e.g. ersxxxxxx or a comma separated list e.g. ersxxxxxx,ersxxxxxx or a range e.g. ersxxxxxx-ersxxxxxx</t>
   </si>
   <si>
-    <t>project_name</t>
+    <t>project name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the project within which the sequencing was organized</t>
   </si>
   <si>
-    <t>barcoding_center</t>
+    <t>barcoding center</t>
   </si>
   <si>
     <t>(Optional) Center where dna barcoding was/will be performed.</t>
@@ -1023,25 +1023,25 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1071,31 +1071,31 @@
     <t>(Optional) The university, institution, or society responsible for identifying the specimen.</t>
   </si>
   <si>
-    <t>original_collection_date</t>
+    <t>original collection date</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden, culture collection etc. and has a known original date of collection. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>original_geographic_location</t>
+    <t>original geographic location</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the general description of the original collection location. this should be formatted as a country and optionally include more specific locations ranging from least to most specific separated by a | character, e.g. “united kingdom | east anglia | norfolk | norwich | university of east anglia | uea broad".</t>
   </si>
   <si>
-    <t>original_geographic_location_latitude</t>
+    <t>original geographic location (latitude)</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>original_geographic_location_longitude</t>
+    <t>original geographic location (longitude)</t>
   </si>
   <si>
     <t>(Optional) For use if the specimen is from a zoo, botanic garden or culture collection etc. and has a known origin elsewhere. please record the geographic location where the specimen or sample was originally taken as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>sample_coordinator</t>
+    <t>sample coordinator</t>
   </si>
   <si>
     <t>(Optional) The name of the sample coordinator.</t>
@@ -1320,6 +1320,9 @@
     <t>Dominican Republic</t>
   </si>
   <si>
+    <t>East Timor</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1338,9 +1341,6 @@
     <t>Estonia</t>
   </si>
   <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1542,9 +1542,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1554,6 +1551,9 @@
     <t>Macau</t>
   </si>
   <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1593,7 +1593,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
+    <t>Micronesia</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1662,9 +1662,6 @@
     <t>North Korea</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1740,9 +1737,6 @@
     <t>Rwanda</t>
   </si>
   <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1764,9 +1758,6 @@
     <t>San Marino</t>
   </si>
   <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1812,9 +1803,6 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,9 +1815,6 @@
     <t>Sri Lanka</t>
   </si>
   <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1839,6 +1824,9 @@
     <t>Svalbard</t>
   </si>
   <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,9 +1851,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1926,12 +1911,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
     <t>Wake Island</t>
   </si>
   <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -1956,13 +1941,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>collecting_institution</t>
+    <t>collecting institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
@@ -2115,7 +2100,7 @@
     <t>other ERGA associated GAL</t>
   </si>
   <si>
-    <t>gal</t>
+    <t>GAL</t>
   </si>
   <si>
     <t>(Optional) The name (or acronym) of the genome acquisition lab responsible for the sample.</t>
@@ -2127,19 +2112,19 @@
     <t>(Optional) Unique identifier used to link all data for the recorded specimen.</t>
   </si>
   <si>
-    <t>gal_sample_id</t>
+    <t>GAL_sample_id</t>
   </si>
   <si>
     <t>(Optional) Unique name assigned to the sample by the genome acquisition lab.</t>
   </si>
   <si>
-    <t>proxy_voucher</t>
+    <t>proxy voucher</t>
   </si>
   <si>
     <t>(Optional) For use if voucher material needs to be made from a specimen that is different than the one submitted for sequencing. please record the unique identifier that references the physical specimen and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
   </si>
   <si>
-    <t>proxy_biomaterial</t>
+    <t>proxy biomaterial</t>
   </si>
   <si>
     <t>(Optional) For use if voucher material needs to be made from a material that is different from the one submitted for sequencing. please record the unique identifier that references the biomaterial and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the material id (institution_code:collection_code:material_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
@@ -2166,7 +2151,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3816,37 +3801,37 @@
         <v>355</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:46" ht="150" customHeight="1">
@@ -3956,37 +3941,37 @@
         <v>356</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -4001,7 +3986,7 @@
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
-      <formula1>gal</formula1>
+      <formula1>GAL</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4010,7 +3995,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:AL294"/>
+  <dimension ref="J1:AL289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4027,7 +4012,7 @@
         <v>357</v>
       </c>
       <c r="AL1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="10:38">
@@ -4041,7 +4026,7 @@
         <v>358</v>
       </c>
       <c r="AL2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="10:38">
@@ -4052,7 +4037,7 @@
         <v>359</v>
       </c>
       <c r="AL3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="10:38">
@@ -4063,7 +4048,7 @@
         <v>360</v>
       </c>
       <c r="AL4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="10:38">
@@ -4074,7 +4059,7 @@
         <v>361</v>
       </c>
       <c r="AL5" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="10:38">
@@ -4085,7 +4070,7 @@
         <v>362</v>
       </c>
       <c r="AL6" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
     <row r="7" spans="10:38">
@@ -4096,7 +4081,7 @@
         <v>363</v>
       </c>
       <c r="AL7" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="10:38">
@@ -4107,7 +4092,7 @@
         <v>364</v>
       </c>
       <c r="AL8" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="10:38">
@@ -4118,7 +4103,7 @@
         <v>365</v>
       </c>
       <c r="AL9" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="10:38">
@@ -4129,7 +4114,7 @@
         <v>366</v>
       </c>
       <c r="AL10" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="10:38">
@@ -4140,7 +4125,7 @@
         <v>367</v>
       </c>
       <c r="AL11" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="10:38">
@@ -4151,7 +4136,7 @@
         <v>368</v>
       </c>
       <c r="AL12" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="10:38">
@@ -4162,7 +4147,7 @@
         <v>369</v>
       </c>
       <c r="AL13" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="10:38">
@@ -4173,7 +4158,7 @@
         <v>370</v>
       </c>
       <c r="AL14" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="10:38">
@@ -4184,7 +4169,7 @@
         <v>371</v>
       </c>
       <c r="AL15" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="10:38">
@@ -4195,7 +4180,7 @@
         <v>372</v>
       </c>
       <c r="AL16" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="10:38">
@@ -4206,7 +4191,7 @@
         <v>373</v>
       </c>
       <c r="AL17" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="10:38">
@@ -4217,7 +4202,7 @@
         <v>374</v>
       </c>
       <c r="AL18" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="10:38">
@@ -4228,7 +4213,7 @@
         <v>375</v>
       </c>
       <c r="AL19" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="10:38">
@@ -4239,7 +4224,7 @@
         <v>376</v>
       </c>
       <c r="AL20" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="21" spans="10:38">
@@ -4250,7 +4235,7 @@
         <v>377</v>
       </c>
       <c r="AL21" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="22" spans="10:38">
@@ -4261,7 +4246,7 @@
         <v>378</v>
       </c>
       <c r="AL22" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="23" spans="10:38">
@@ -4272,7 +4257,7 @@
         <v>379</v>
       </c>
       <c r="AL23" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="10:38">
@@ -4280,7 +4265,7 @@
         <v>380</v>
       </c>
       <c r="AL24" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="25" spans="10:38">
@@ -4288,7 +4273,7 @@
         <v>381</v>
       </c>
       <c r="AL25" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="26" spans="10:38">
@@ -4296,7 +4281,7 @@
         <v>382</v>
       </c>
       <c r="AL26" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="10:38">
@@ -4304,7 +4289,7 @@
         <v>383</v>
       </c>
       <c r="AL27" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="28" spans="10:38">
@@ -4312,7 +4297,7 @@
         <v>384</v>
       </c>
       <c r="AL28" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="10:38">
@@ -4320,7 +4305,7 @@
         <v>385</v>
       </c>
       <c r="AL29" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="10:38">
@@ -4328,7 +4313,7 @@
         <v>386</v>
       </c>
       <c r="AL30" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="10:38">
@@ -4336,7 +4321,7 @@
         <v>387</v>
       </c>
       <c r="AL31" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="10:38">
@@ -4344,7 +4329,7 @@
         <v>388</v>
       </c>
       <c r="AL32" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="36:38">
@@ -4352,7 +4337,7 @@
         <v>389</v>
       </c>
       <c r="AL33" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="36:38">
@@ -4360,7 +4345,7 @@
         <v>390</v>
       </c>
       <c r="AL34" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="35" spans="36:38">
@@ -4368,7 +4353,7 @@
         <v>391</v>
       </c>
       <c r="AL35" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="36" spans="36:38">
@@ -4376,7 +4361,7 @@
         <v>392</v>
       </c>
       <c r="AL36" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="37" spans="36:38">
@@ -4384,7 +4369,7 @@
         <v>393</v>
       </c>
       <c r="AL37" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="36:38">
@@ -4392,7 +4377,7 @@
         <v>394</v>
       </c>
       <c r="AL38" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="36:38">
@@ -4400,7 +4385,7 @@
         <v>395</v>
       </c>
       <c r="AL39" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="36:38">
@@ -4408,7 +4393,7 @@
         <v>396</v>
       </c>
       <c r="AL40" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="41" spans="36:38">
@@ -4416,7 +4401,7 @@
         <v>397</v>
       </c>
       <c r="AL41" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="42" spans="36:38">
@@ -4424,7 +4409,7 @@
         <v>398</v>
       </c>
       <c r="AL42" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="36:38">
@@ -4432,7 +4417,7 @@
         <v>399</v>
       </c>
       <c r="AL43" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="36:38">
@@ -4440,7 +4425,7 @@
         <v>400</v>
       </c>
       <c r="AL44" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="45" spans="36:38">
@@ -4448,7 +4433,7 @@
         <v>401</v>
       </c>
       <c r="AL45" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="46" spans="36:38">
@@ -4456,7 +4441,7 @@
         <v>402</v>
       </c>
       <c r="AL46" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="36:38">
@@ -4464,7 +4449,7 @@
         <v>403</v>
       </c>
       <c r="AL47" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="36:38">
@@ -4472,7 +4457,7 @@
         <v>404</v>
       </c>
       <c r="AL48" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="36:38">
@@ -4480,7 +4465,7 @@
         <v>405</v>
       </c>
       <c r="AL49" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="36:38">
@@ -5625,87 +5610,62 @@
     </row>
     <row r="278" spans="36:36">
       <c r="AJ278" t="s">
-        <v>634</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" spans="36:36">
       <c r="AJ279" t="s">
-        <v>635</v>
+        <v>287</v>
       </c>
     </row>
     <row r="280" spans="36:36">
       <c r="AJ280" t="s">
-        <v>636</v>
+        <v>288</v>
       </c>
     </row>
     <row r="281" spans="36:36">
       <c r="AJ281" t="s">
-        <v>637</v>
+        <v>289</v>
       </c>
     </row>
     <row r="282" spans="36:36">
       <c r="AJ282" t="s">
-        <v>638</v>
+        <v>290</v>
       </c>
     </row>
     <row r="283" spans="36:36">
       <c r="AJ283" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="284" spans="36:36">
       <c r="AJ284" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="285" spans="36:36">
       <c r="AJ285" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="286" spans="36:36">
       <c r="AJ286" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="287" spans="36:36">
       <c r="AJ287" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="288" spans="36:36">
       <c r="AJ288" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="289" spans="36:36">
       <c r="AJ289" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="290" spans="36:36">
-      <c r="AJ290" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="291" spans="36:36">
-      <c r="AJ291" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="292" spans="36:36">
-      <c r="AJ292" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="293" spans="36:36">
-      <c r="AJ293" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="294" spans="36:36">
-      <c r="AJ294" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -18,23 +18,23 @@
   </sheets>
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="GAL">'cv_sample'!$AL$1:$AL$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AJ$1:$AJ$289</definedName>
+    <definedName name="GAL">'cv_sample'!$AN$1:$AN$49</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AL$1:$AL$289</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="lifestage">'cv_sample'!$J$1:$J$23</definedName>
+    <definedName name="lifestage">'cv_sample'!$L$1:$L$23</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="symbiont">'cv_sample'!$M$1:$M$2</definedName>
+    <definedName name="symbiont">'cv_sample'!$O$1:$O$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="710">
   <si>
     <t>alias</t>
   </si>
@@ -838,6 +838,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3685,7 +3697,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3694,7 +3706,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:48">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3723,19 +3735,19 @@
         <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>307</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>315</v>
@@ -3801,16 +3813,16 @@
         <v>355</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>635</v>
+        <v>357</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>637</v>
+        <v>359</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>688</v>
+        <v>639</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>690</v>
+        <v>641</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>692</v>
@@ -3833,8 +3845,14 @@
       <c r="AT1" s="1" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" ht="150" customHeight="1">
+      <c r="AU1" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3863,19 +3881,19 @@
         <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>308</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>316</v>
@@ -3941,16 +3959,16 @@
         <v>356</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>636</v>
+        <v>358</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>638</v>
+        <v>360</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>689</v>
+        <v>640</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>691</v>
+        <v>642</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>693</v>
@@ -3973,19 +3991,25 @@
       <c r="AT2" s="2" t="s">
         <v>705</v>
       </c>
+      <c r="AU2" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>709</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
       <formula1>lifestage</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O101">
       <formula1>symbiont</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL3:AL101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN101">
       <formula1>GAL</formula1>
     </dataValidation>
   </dataValidations>
@@ -3995,1677 +4019,1677 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="J1:AL289"/>
+  <dimension ref="L1:AN289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="10:38">
-      <c r="J1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M1" t="s">
-        <v>309</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>357</v>
+    <row r="1" spans="12:40">
+      <c r="L1" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" t="s">
+        <v>313</v>
       </c>
       <c r="AL1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="2" spans="10:38">
-      <c r="J2" t="s">
-        <v>281</v>
-      </c>
-      <c r="M2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>358</v>
+        <v>361</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40">
+      <c r="L2" t="s">
+        <v>285</v>
+      </c>
+      <c r="O2" t="s">
+        <v>314</v>
       </c>
       <c r="AL2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" spans="10:38">
-      <c r="J3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>359</v>
+        <v>362</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40">
+      <c r="L3" t="s">
+        <v>286</v>
       </c>
       <c r="AL3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="4" spans="10:38">
-      <c r="J4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>360</v>
+        <v>363</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40">
+      <c r="L4" t="s">
+        <v>287</v>
       </c>
       <c r="AL4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="5" spans="10:38">
-      <c r="J5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>361</v>
+        <v>364</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40">
+      <c r="L5" t="s">
+        <v>288</v>
       </c>
       <c r="AL5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="6" spans="10:38">
-      <c r="J6" t="s">
-        <v>285</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40">
+      <c r="L6" t="s">
+        <v>289</v>
       </c>
       <c r="AL6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="7" spans="10:38">
-      <c r="J7" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40">
+      <c r="L7" t="s">
+        <v>290</v>
       </c>
       <c r="AL7" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="8" spans="10:38">
-      <c r="J8" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>364</v>
+        <v>367</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40">
+      <c r="L8" t="s">
+        <v>291</v>
       </c>
       <c r="AL8" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="9" spans="10:38">
-      <c r="J9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>365</v>
+        <v>368</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40">
+      <c r="L9" t="s">
+        <v>292</v>
       </c>
       <c r="AL9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="10:38">
-      <c r="J10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40">
+      <c r="L10" t="s">
+        <v>293</v>
       </c>
       <c r="AL10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="10:38">
-      <c r="J11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40">
+      <c r="L11" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40">
+      <c r="L12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40">
+      <c r="L13" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40">
+      <c r="L14" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>374</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40">
+      <c r="L15" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40">
+      <c r="L16" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>376</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="12:40">
+      <c r="L17" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>377</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="18" spans="12:40">
+      <c r="L18" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>378</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="19" spans="12:40">
+      <c r="L19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>379</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="20" spans="12:40">
+      <c r="L20" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>380</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="21" spans="12:40">
+      <c r="L21" t="s">
+        <v>304</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>381</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="22" spans="12:40">
+      <c r="L22" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>382</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="23" spans="12:40">
+      <c r="L23" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>383</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="12:40">
+      <c r="AL24" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="25" spans="12:40">
+      <c r="AL25" t="s">
+        <v>385</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="26" spans="12:40">
+      <c r="AL26" t="s">
+        <v>386</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="27" spans="12:40">
+      <c r="AL27" t="s">
+        <v>387</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="12:40">
+      <c r="AL28" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="12:40">
+      <c r="AL29" t="s">
+        <v>389</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="30" spans="12:40">
+      <c r="AL30" t="s">
+        <v>390</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="31" spans="12:40">
+      <c r="AL31" t="s">
+        <v>391</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="32" spans="12:40">
+      <c r="AL32" t="s">
+        <v>392</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="33" spans="38:40">
+      <c r="AL33" t="s">
+        <v>393</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="34" spans="38:40">
+      <c r="AL34" t="s">
+        <v>394</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="38:40">
+      <c r="AL35" t="s">
+        <v>395</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="38:40">
+      <c r="AL36" t="s">
+        <v>396</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="38:40">
+      <c r="AL37" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="38" spans="38:40">
+      <c r="AL38" t="s">
+        <v>398</v>
+      </c>
+      <c r="AN38" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="38:40">
+      <c r="AL39" t="s">
+        <v>399</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="38:40">
+      <c r="AL40" t="s">
+        <v>400</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="41" spans="38:40">
+      <c r="AL41" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="42" spans="38:40">
+      <c r="AL42" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN42" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="43" spans="38:40">
+      <c r="AL43" t="s">
+        <v>403</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="44" spans="38:40">
+      <c r="AL44" t="s">
+        <v>404</v>
+      </c>
+      <c r="AN44" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="45" spans="38:40">
+      <c r="AL45" t="s">
+        <v>405</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="46" spans="38:40">
+      <c r="AL46" t="s">
+        <v>406</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="38:40">
+      <c r="AL47" t="s">
+        <v>407</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="48" spans="38:40">
+      <c r="AL48" t="s">
+        <v>408</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="38:40">
+      <c r="AL49" t="s">
+        <v>409</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="38:40">
+      <c r="AL50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="38:40">
+      <c r="AL51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="38:40">
+      <c r="AL52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="38:40">
+      <c r="AL53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="38:40">
+      <c r="AL54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="38:40">
+      <c r="AL55" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="38:40">
+      <c r="AL56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="38:40">
+      <c r="AL57" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="38:40">
+      <c r="AL58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="38:40">
+      <c r="AL59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="38:40">
+      <c r="AL60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="38:40">
+      <c r="AL61" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="38:40">
+      <c r="AL62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63" spans="38:40">
+      <c r="AL63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="38:40">
+      <c r="AL64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="65" spans="38:38">
+      <c r="AL65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="38:38">
+      <c r="AL66" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67" spans="38:38">
+      <c r="AL67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68" spans="38:38">
+      <c r="AL68" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="69" spans="38:38">
+      <c r="AL69" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="70" spans="38:38">
+      <c r="AL70" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="71" spans="38:38">
+      <c r="AL71" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="72" spans="38:38">
+      <c r="AL72" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="73" spans="38:38">
+      <c r="AL73" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="38:38">
+      <c r="AL74" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="75" spans="38:38">
+      <c r="AL75" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="38:38">
+      <c r="AL76" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="38:38">
+      <c r="AL77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="38:38">
+      <c r="AL78" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="38:38">
+      <c r="AL79" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="38:38">
+      <c r="AL80" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="81" spans="38:38">
+      <c r="AL81" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="38:38">
+      <c r="AL82" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83" spans="38:38">
+      <c r="AL83" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="84" spans="38:38">
+      <c r="AL84" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="85" spans="38:38">
+      <c r="AL85" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="86" spans="38:38">
+      <c r="AL86" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="87" spans="38:38">
+      <c r="AL87" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="38:38">
+      <c r="AL88" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="38:38">
+      <c r="AL89" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="38:38">
+      <c r="AL90" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="38:38">
+      <c r="AL91" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="92" spans="38:38">
+      <c r="AL92" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="93" spans="38:38">
+      <c r="AL93" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="94" spans="38:38">
+      <c r="AL94" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="95" spans="38:38">
+      <c r="AL95" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="38:38">
+      <c r="AL96" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="38:38">
+      <c r="AL97" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="98" spans="38:38">
+      <c r="AL98" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="99" spans="38:38">
+      <c r="AL99" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="38:38">
+      <c r="AL100" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="101" spans="38:38">
+      <c r="AL101" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="102" spans="38:38">
+      <c r="AL102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="38:38">
+      <c r="AL103" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="104" spans="38:38">
+      <c r="AL104" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="105" spans="38:38">
+      <c r="AL105" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="106" spans="38:38">
+      <c r="AL106" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="107" spans="38:38">
+      <c r="AL107" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="108" spans="38:38">
+      <c r="AL108" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="109" spans="38:38">
+      <c r="AL109" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="110" spans="38:38">
+      <c r="AL110" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="111" spans="38:38">
+      <c r="AL111" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="112" spans="38:38">
+      <c r="AL112" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="113" spans="38:38">
+      <c r="AL113" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="114" spans="38:38">
+      <c r="AL114" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="115" spans="38:38">
+      <c r="AL115" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="116" spans="38:38">
+      <c r="AL116" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="117" spans="38:38">
+      <c r="AL117" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="118" spans="38:38">
+      <c r="AL118" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="119" spans="38:38">
+      <c r="AL119" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="38:38">
+      <c r="AL120" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="121" spans="38:38">
+      <c r="AL121" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="38:38">
+      <c r="AL122" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="123" spans="38:38">
+      <c r="AL123" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="38:38">
+      <c r="AL124" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="125" spans="38:38">
+      <c r="AL125" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="38:38">
+      <c r="AL126" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="38:38">
+      <c r="AL127" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="128" spans="38:38">
+      <c r="AL128" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="129" spans="38:38">
+      <c r="AL129" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="130" spans="38:38">
+      <c r="AL130" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="131" spans="38:38">
+      <c r="AL131" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="38:38">
+      <c r="AL132" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="133" spans="38:38">
+      <c r="AL133" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="134" spans="38:38">
+      <c r="AL134" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="135" spans="38:38">
+      <c r="AL135" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="38:38">
+      <c r="AL136" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="137" spans="38:38">
+      <c r="AL137" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="138" spans="38:38">
+      <c r="AL138" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="139" spans="38:38">
+      <c r="AL139" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="140" spans="38:38">
+      <c r="AL140" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="141" spans="38:38">
+      <c r="AL141" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="142" spans="38:38">
+      <c r="AL142" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="143" spans="38:38">
+      <c r="AL143" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="144" spans="38:38">
+      <c r="AL144" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="145" spans="38:38">
+      <c r="AL145" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="146" spans="38:38">
+      <c r="AL146" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="147" spans="38:38">
+      <c r="AL147" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="148" spans="38:38">
+      <c r="AL148" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="149" spans="38:38">
+      <c r="AL149" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="150" spans="38:38">
+      <c r="AL150" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="151" spans="38:38">
+      <c r="AL151" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="152" spans="38:38">
+      <c r="AL152" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="153" spans="38:38">
+      <c r="AL153" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="38:38">
+      <c r="AL154" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="155" spans="38:38">
+      <c r="AL155" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="156" spans="38:38">
+      <c r="AL156" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="157" spans="38:38">
+      <c r="AL157" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="158" spans="38:38">
+      <c r="AL158" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="159" spans="38:38">
+      <c r="AL159" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="160" spans="38:38">
+      <c r="AL160" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="161" spans="38:38">
+      <c r="AL161" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="162" spans="38:38">
+      <c r="AL162" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="163" spans="38:38">
+      <c r="AL163" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="164" spans="38:38">
+      <c r="AL164" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165" spans="38:38">
+      <c r="AL165" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="166" spans="38:38">
+      <c r="AL166" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="167" spans="38:38">
+      <c r="AL167" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="168" spans="38:38">
+      <c r="AL168" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="169" spans="38:38">
+      <c r="AL169" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="170" spans="38:38">
+      <c r="AL170" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="171" spans="38:38">
+      <c r="AL171" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="172" spans="38:38">
+      <c r="AL172" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="173" spans="38:38">
+      <c r="AL173" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="174" spans="38:38">
+      <c r="AL174" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="175" spans="38:38">
+      <c r="AL175" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="176" spans="38:38">
+      <c r="AL176" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="177" spans="38:38">
+      <c r="AL177" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="178" spans="38:38">
+      <c r="AL178" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="179" spans="38:38">
+      <c r="AL179" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="180" spans="38:38">
+      <c r="AL180" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="181" spans="38:38">
+      <c r="AL181" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="38:38">
+      <c r="AL182" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="183" spans="38:38">
+      <c r="AL183" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="184" spans="38:38">
+      <c r="AL184" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="185" spans="38:38">
+      <c r="AL185" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="186" spans="38:38">
+      <c r="AL186" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="187" spans="38:38">
+      <c r="AL187" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="188" spans="38:38">
+      <c r="AL188" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="189" spans="38:38">
+      <c r="AL189" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="190" spans="38:38">
+      <c r="AL190" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="191" spans="38:38">
+      <c r="AL191" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="192" spans="38:38">
+      <c r="AL192" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="193" spans="38:38">
+      <c r="AL193" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="194" spans="38:38">
+      <c r="AL194" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="195" spans="38:38">
+      <c r="AL195" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="196" spans="38:38">
+      <c r="AL196" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="197" spans="38:38">
+      <c r="AL197" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="198" spans="38:38">
+      <c r="AL198" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="199" spans="38:38">
+      <c r="AL199" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="200" spans="38:38">
+      <c r="AL200" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="201" spans="38:38">
+      <c r="AL201" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="202" spans="38:38">
+      <c r="AL202" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="203" spans="38:38">
+      <c r="AL203" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="204" spans="38:38">
+      <c r="AL204" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="205" spans="38:38">
+      <c r="AL205" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="38:38">
+      <c r="AL206" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="207" spans="38:38">
+      <c r="AL207" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="208" spans="38:38">
+      <c r="AL208" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="209" spans="38:38">
+      <c r="AL209" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="210" spans="38:38">
+      <c r="AL210" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="211" spans="38:38">
+      <c r="AL211" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="212" spans="38:38">
+      <c r="AL212" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="213" spans="38:38">
+      <c r="AL213" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="214" spans="38:38">
+      <c r="AL214" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="215" spans="38:38">
+      <c r="AL215" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="216" spans="38:38">
+      <c r="AL216" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="217" spans="38:38">
+      <c r="AL217" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="218" spans="38:38">
+      <c r="AL218" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="219" spans="38:38">
+      <c r="AL219" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="220" spans="38:38">
+      <c r="AL220" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="221" spans="38:38">
+      <c r="AL221" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="222" spans="38:38">
+      <c r="AL222" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="223" spans="38:38">
+      <c r="AL223" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="224" spans="38:38">
+      <c r="AL224" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="225" spans="38:38">
+      <c r="AL225" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" spans="38:38">
+      <c r="AL226" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="227" spans="38:38">
+      <c r="AL227" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="228" spans="38:38">
+      <c r="AL228" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="229" spans="38:38">
+      <c r="AL229" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="230" spans="38:38">
+      <c r="AL230" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="231" spans="38:38">
+      <c r="AL231" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="232" spans="38:38">
+      <c r="AL232" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="233" spans="38:38">
+      <c r="AL233" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="234" spans="38:38">
+      <c r="AL234" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="235" spans="38:38">
+      <c r="AL235" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="236" spans="38:38">
+      <c r="AL236" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="237" spans="38:38">
+      <c r="AL237" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="238" spans="38:38">
+      <c r="AL238" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="239" spans="38:38">
+      <c r="AL239" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="240" spans="38:38">
+      <c r="AL240" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="241" spans="38:38">
+      <c r="AL241" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="242" spans="38:38">
+      <c r="AL242" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="243" spans="38:38">
+      <c r="AL243" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="244" spans="38:38">
+      <c r="AL244" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="245" spans="38:38">
+      <c r="AL245" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="246" spans="38:38">
+      <c r="AL246" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="247" spans="38:38">
+      <c r="AL247" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="248" spans="38:38">
+      <c r="AL248" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="249" spans="38:38">
+      <c r="AL249" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="250" spans="38:38">
+      <c r="AL250" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="251" spans="38:38">
+      <c r="AL251" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="252" spans="38:38">
+      <c r="AL252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="38:38">
+      <c r="AL253" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="254" spans="38:38">
+      <c r="AL254" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="255" spans="38:38">
+      <c r="AL255" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="256" spans="38:38">
+      <c r="AL256" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="257" spans="38:38">
+      <c r="AL257" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="258" spans="38:38">
+      <c r="AL258" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="259" spans="38:38">
+      <c r="AL259" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="260" spans="38:38">
+      <c r="AL260" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="261" spans="38:38">
+      <c r="AL261" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="262" spans="38:38">
+      <c r="AL262" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="263" spans="38:38">
+      <c r="AL263" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="264" spans="38:38">
+      <c r="AL264" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="265" spans="38:38">
+      <c r="AL265" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="266" spans="38:38">
+      <c r="AL266" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="267" spans="38:38">
+      <c r="AL267" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="268" spans="38:38">
+      <c r="AL268" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="269" spans="38:38">
+      <c r="AL269" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="270" spans="38:38">
+      <c r="AL270" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="271" spans="38:38">
+      <c r="AL271" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="272" spans="38:38">
+      <c r="AL272" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="273" spans="38:38">
+      <c r="AL273" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="274" spans="38:38">
+      <c r="AL274" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="275" spans="38:38">
+      <c r="AL275" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="276" spans="38:38">
+      <c r="AL276" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="277" spans="38:38">
+      <c r="AL277" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="278" spans="38:38">
+      <c r="AL278" t="s">
         <v>290</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>367</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" spans="10:38">
-      <c r="J12" t="s">
+    </row>
+    <row r="279" spans="38:38">
+      <c r="AL279" t="s">
         <v>291</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="10:38">
-      <c r="J13" t="s">
+    </row>
+    <row r="280" spans="38:38">
+      <c r="AL280" t="s">
         <v>292</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="14" spans="10:38">
-      <c r="J14" t="s">
+    </row>
+    <row r="281" spans="38:38">
+      <c r="AL281" t="s">
         <v>293</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>370</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="10:38">
-      <c r="J15" t="s">
+    </row>
+    <row r="282" spans="38:38">
+      <c r="AL282" t="s">
         <v>294</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="10:38">
-      <c r="J16" t="s">
+    </row>
+    <row r="283" spans="38:38">
+      <c r="AL283" t="s">
         <v>295</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="17" spans="10:38">
-      <c r="J17" t="s">
+    </row>
+    <row r="284" spans="38:38">
+      <c r="AL284" t="s">
         <v>296</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="18" spans="10:38">
-      <c r="J18" t="s">
+    </row>
+    <row r="285" spans="38:38">
+      <c r="AL285" t="s">
         <v>297</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>374</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" spans="10:38">
-      <c r="J19" t="s">
+    </row>
+    <row r="286" spans="38:38">
+      <c r="AL286" t="s">
         <v>298</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="20" spans="10:38">
-      <c r="J20" t="s">
+    </row>
+    <row r="287" spans="38:38">
+      <c r="AL287" t="s">
         <v>299</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="21" spans="10:38">
-      <c r="J21" t="s">
+    </row>
+    <row r="288" spans="38:38">
+      <c r="AL288" t="s">
         <v>300</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>377</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="22" spans="10:38">
-      <c r="J22" t="s">
-        <v>301</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>378</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="23" spans="10:38">
-      <c r="J23" t="s">
-        <v>302</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="24" spans="10:38">
-      <c r="AJ24" t="s">
-        <v>380</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="25" spans="10:38">
-      <c r="AJ25" t="s">
-        <v>381</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="26" spans="10:38">
-      <c r="AJ26" t="s">
-        <v>382</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="27" spans="10:38">
-      <c r="AJ27" t="s">
-        <v>383</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="28" spans="10:38">
-      <c r="AJ28" t="s">
-        <v>384</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="29" spans="10:38">
-      <c r="AJ29" t="s">
-        <v>385</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="30" spans="10:38">
-      <c r="AJ30" t="s">
-        <v>386</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="31" spans="10:38">
-      <c r="AJ31" t="s">
-        <v>387</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="32" spans="10:38">
-      <c r="AJ32" t="s">
-        <v>388</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="33" spans="36:38">
-      <c r="AJ33" t="s">
-        <v>389</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="34" spans="36:38">
-      <c r="AJ34" t="s">
-        <v>390</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="35" spans="36:38">
-      <c r="AJ35" t="s">
-        <v>391</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="36" spans="36:38">
-      <c r="AJ36" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL36" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="37" spans="36:38">
-      <c r="AJ37" t="s">
-        <v>393</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="38" spans="36:38">
-      <c r="AJ38" t="s">
-        <v>394</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="39" spans="36:38">
-      <c r="AJ39" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="40" spans="36:38">
-      <c r="AJ40" t="s">
-        <v>396</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="41" spans="36:38">
-      <c r="AJ41" t="s">
-        <v>397</v>
-      </c>
-      <c r="AL41" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="42" spans="36:38">
-      <c r="AJ42" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL42" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="43" spans="36:38">
-      <c r="AJ43" t="s">
-        <v>399</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="44" spans="36:38">
-      <c r="AJ44" t="s">
-        <v>400</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="45" spans="36:38">
-      <c r="AJ45" t="s">
-        <v>401</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="46" spans="36:38">
-      <c r="AJ46" t="s">
-        <v>402</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="47" spans="36:38">
-      <c r="AJ47" t="s">
-        <v>403</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="48" spans="36:38">
-      <c r="AJ48" t="s">
-        <v>404</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="49" spans="36:38">
-      <c r="AJ49" t="s">
-        <v>405</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="50" spans="36:38">
-      <c r="AJ50" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="36:38">
-      <c r="AJ51" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="52" spans="36:38">
-      <c r="AJ52" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="53" spans="36:38">
-      <c r="AJ53" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="54" spans="36:38">
-      <c r="AJ54" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="55" spans="36:38">
-      <c r="AJ55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="36:38">
-      <c r="AJ56" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="57" spans="36:38">
-      <c r="AJ57" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="58" spans="36:38">
-      <c r="AJ58" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="59" spans="36:38">
-      <c r="AJ59" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="60" spans="36:38">
-      <c r="AJ60" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="61" spans="36:38">
-      <c r="AJ61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="36:38">
-      <c r="AJ62" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="36:38">
-      <c r="AJ63" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="64" spans="36:38">
-      <c r="AJ64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65" spans="36:36">
-      <c r="AJ65" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="66" spans="36:36">
-      <c r="AJ66" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="67" spans="36:36">
-      <c r="AJ67" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="68" spans="36:36">
-      <c r="AJ68" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="69" spans="36:36">
-      <c r="AJ69" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="36:36">
-      <c r="AJ70" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="36:36">
-      <c r="AJ71" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="72" spans="36:36">
-      <c r="AJ72" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="73" spans="36:36">
-      <c r="AJ73" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="74" spans="36:36">
-      <c r="AJ74" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="75" spans="36:36">
-      <c r="AJ75" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="76" spans="36:36">
-      <c r="AJ76" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="77" spans="36:36">
-      <c r="AJ77" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="78" spans="36:36">
-      <c r="AJ78" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="79" spans="36:36">
-      <c r="AJ79" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="80" spans="36:36">
-      <c r="AJ80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="81" spans="36:36">
-      <c r="AJ81" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="82" spans="36:36">
-      <c r="AJ82" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="83" spans="36:36">
-      <c r="AJ83" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="84" spans="36:36">
-      <c r="AJ84" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="85" spans="36:36">
-      <c r="AJ85" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="36:36">
-      <c r="AJ86" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="87" spans="36:36">
-      <c r="AJ87" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="88" spans="36:36">
-      <c r="AJ88" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="89" spans="36:36">
-      <c r="AJ89" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="90" spans="36:36">
-      <c r="AJ90" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="91" spans="36:36">
-      <c r="AJ91" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="92" spans="36:36">
-      <c r="AJ92" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="93" spans="36:36">
-      <c r="AJ93" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="94" spans="36:36">
-      <c r="AJ94" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="95" spans="36:36">
-      <c r="AJ95" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="96" spans="36:36">
-      <c r="AJ96" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="97" spans="36:36">
-      <c r="AJ97" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="98" spans="36:36">
-      <c r="AJ98" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="99" spans="36:36">
-      <c r="AJ99" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="100" spans="36:36">
-      <c r="AJ100" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="101" spans="36:36">
-      <c r="AJ101" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="36:36">
-      <c r="AJ102" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="103" spans="36:36">
-      <c r="AJ103" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="104" spans="36:36">
-      <c r="AJ104" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="105" spans="36:36">
-      <c r="AJ105" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="106" spans="36:36">
-      <c r="AJ106" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="107" spans="36:36">
-      <c r="AJ107" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="108" spans="36:36">
-      <c r="AJ108" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="36:36">
-      <c r="AJ109" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="110" spans="36:36">
-      <c r="AJ110" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="111" spans="36:36">
-      <c r="AJ111" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="112" spans="36:36">
-      <c r="AJ112" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="113" spans="36:36">
-      <c r="AJ113" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="114" spans="36:36">
-      <c r="AJ114" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="115" spans="36:36">
-      <c r="AJ115" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="116" spans="36:36">
-      <c r="AJ116" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" spans="36:36">
-      <c r="AJ117" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="118" spans="36:36">
-      <c r="AJ118" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="119" spans="36:36">
-      <c r="AJ119" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="120" spans="36:36">
-      <c r="AJ120" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="121" spans="36:36">
-      <c r="AJ121" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="122" spans="36:36">
-      <c r="AJ122" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="123" spans="36:36">
-      <c r="AJ123" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="124" spans="36:36">
-      <c r="AJ124" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="125" spans="36:36">
-      <c r="AJ125" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="126" spans="36:36">
-      <c r="AJ126" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="127" spans="36:36">
-      <c r="AJ127" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="128" spans="36:36">
-      <c r="AJ128" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="129" spans="36:36">
-      <c r="AJ129" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="130" spans="36:36">
-      <c r="AJ130" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131" spans="36:36">
-      <c r="AJ131" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="132" spans="36:36">
-      <c r="AJ132" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="133" spans="36:36">
-      <c r="AJ133" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="134" spans="36:36">
-      <c r="AJ134" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="135" spans="36:36">
-      <c r="AJ135" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="136" spans="36:36">
-      <c r="AJ136" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="36:36">
-      <c r="AJ137" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="138" spans="36:36">
-      <c r="AJ138" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="139" spans="36:36">
-      <c r="AJ139" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="140" spans="36:36">
-      <c r="AJ140" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="141" spans="36:36">
-      <c r="AJ141" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="142" spans="36:36">
-      <c r="AJ142" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="143" spans="36:36">
-      <c r="AJ143" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="144" spans="36:36">
-      <c r="AJ144" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="145" spans="36:36">
-      <c r="AJ145" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="146" spans="36:36">
-      <c r="AJ146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="147" spans="36:36">
-      <c r="AJ147" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="148" spans="36:36">
-      <c r="AJ148" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="149" spans="36:36">
-      <c r="AJ149" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="150" spans="36:36">
-      <c r="AJ150" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="151" spans="36:36">
-      <c r="AJ151" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="152" spans="36:36">
-      <c r="AJ152" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="153" spans="36:36">
-      <c r="AJ153" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="154" spans="36:36">
-      <c r="AJ154" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="155" spans="36:36">
-      <c r="AJ155" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="156" spans="36:36">
-      <c r="AJ156" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="157" spans="36:36">
-      <c r="AJ157" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="158" spans="36:36">
-      <c r="AJ158" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="159" spans="36:36">
-      <c r="AJ159" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="160" spans="36:36">
-      <c r="AJ160" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="161" spans="36:36">
-      <c r="AJ161" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="162" spans="36:36">
-      <c r="AJ162" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="163" spans="36:36">
-      <c r="AJ163" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="164" spans="36:36">
-      <c r="AJ164" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="165" spans="36:36">
-      <c r="AJ165" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="166" spans="36:36">
-      <c r="AJ166" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="167" spans="36:36">
-      <c r="AJ167" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="168" spans="36:36">
-      <c r="AJ168" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="169" spans="36:36">
-      <c r="AJ169" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="170" spans="36:36">
-      <c r="AJ170" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="171" spans="36:36">
-      <c r="AJ171" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="172" spans="36:36">
-      <c r="AJ172" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="173" spans="36:36">
-      <c r="AJ173" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="174" spans="36:36">
-      <c r="AJ174" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="175" spans="36:36">
-      <c r="AJ175" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="176" spans="36:36">
-      <c r="AJ176" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="177" spans="36:36">
-      <c r="AJ177" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="178" spans="36:36">
-      <c r="AJ178" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="179" spans="36:36">
-      <c r="AJ179" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="180" spans="36:36">
-      <c r="AJ180" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="181" spans="36:36">
-      <c r="AJ181" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="182" spans="36:36">
-      <c r="AJ182" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="183" spans="36:36">
-      <c r="AJ183" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="184" spans="36:36">
-      <c r="AJ184" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="185" spans="36:36">
-      <c r="AJ185" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="186" spans="36:36">
-      <c r="AJ186" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="187" spans="36:36">
-      <c r="AJ187" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="188" spans="36:36">
-      <c r="AJ188" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="189" spans="36:36">
-      <c r="AJ189" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="190" spans="36:36">
-      <c r="AJ190" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="191" spans="36:36">
-      <c r="AJ191" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="192" spans="36:36">
-      <c r="AJ192" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="193" spans="36:36">
-      <c r="AJ193" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="194" spans="36:36">
-      <c r="AJ194" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="195" spans="36:36">
-      <c r="AJ195" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="196" spans="36:36">
-      <c r="AJ196" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="197" spans="36:36">
-      <c r="AJ197" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="198" spans="36:36">
-      <c r="AJ198" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="199" spans="36:36">
-      <c r="AJ199" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="200" spans="36:36">
-      <c r="AJ200" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="201" spans="36:36">
-      <c r="AJ201" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="202" spans="36:36">
-      <c r="AJ202" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="203" spans="36:36">
-      <c r="AJ203" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="204" spans="36:36">
-      <c r="AJ204" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="205" spans="36:36">
-      <c r="AJ205" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="206" spans="36:36">
-      <c r="AJ206" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="207" spans="36:36">
-      <c r="AJ207" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="208" spans="36:36">
-      <c r="AJ208" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="209" spans="36:36">
-      <c r="AJ209" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="210" spans="36:36">
-      <c r="AJ210" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="211" spans="36:36">
-      <c r="AJ211" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="212" spans="36:36">
-      <c r="AJ212" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="213" spans="36:36">
-      <c r="AJ213" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="214" spans="36:36">
-      <c r="AJ214" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="215" spans="36:36">
-      <c r="AJ215" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="216" spans="36:36">
-      <c r="AJ216" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="217" spans="36:36">
-      <c r="AJ217" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="218" spans="36:36">
-      <c r="AJ218" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="219" spans="36:36">
-      <c r="AJ219" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="220" spans="36:36">
-      <c r="AJ220" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="221" spans="36:36">
-      <c r="AJ221" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="222" spans="36:36">
-      <c r="AJ222" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="223" spans="36:36">
-      <c r="AJ223" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="224" spans="36:36">
-      <c r="AJ224" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="225" spans="36:36">
-      <c r="AJ225" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="226" spans="36:36">
-      <c r="AJ226" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="227" spans="36:36">
-      <c r="AJ227" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="228" spans="36:36">
-      <c r="AJ228" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="229" spans="36:36">
-      <c r="AJ229" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="230" spans="36:36">
-      <c r="AJ230" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="231" spans="36:36">
-      <c r="AJ231" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="232" spans="36:36">
-      <c r="AJ232" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="233" spans="36:36">
-      <c r="AJ233" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="234" spans="36:36">
-      <c r="AJ234" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="235" spans="36:36">
-      <c r="AJ235" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="236" spans="36:36">
-      <c r="AJ236" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="237" spans="36:36">
-      <c r="AJ237" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="238" spans="36:36">
-      <c r="AJ238" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="239" spans="36:36">
-      <c r="AJ239" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="240" spans="36:36">
-      <c r="AJ240" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="241" spans="36:36">
-      <c r="AJ241" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="242" spans="36:36">
-      <c r="AJ242" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="243" spans="36:36">
-      <c r="AJ243" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="244" spans="36:36">
-      <c r="AJ244" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="245" spans="36:36">
-      <c r="AJ245" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="246" spans="36:36">
-      <c r="AJ246" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="247" spans="36:36">
-      <c r="AJ247" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="248" spans="36:36">
-      <c r="AJ248" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="249" spans="36:36">
-      <c r="AJ249" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="250" spans="36:36">
-      <c r="AJ250" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="251" spans="36:36">
-      <c r="AJ251" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="252" spans="36:36">
-      <c r="AJ252" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="253" spans="36:36">
-      <c r="AJ253" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="254" spans="36:36">
-      <c r="AJ254" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="255" spans="36:36">
-      <c r="AJ255" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="256" spans="36:36">
-      <c r="AJ256" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="257" spans="36:36">
-      <c r="AJ257" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="258" spans="36:36">
-      <c r="AJ258" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="259" spans="36:36">
-      <c r="AJ259" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="260" spans="36:36">
-      <c r="AJ260" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="261" spans="36:36">
-      <c r="AJ261" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="262" spans="36:36">
-      <c r="AJ262" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="263" spans="36:36">
-      <c r="AJ263" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="264" spans="36:36">
-      <c r="AJ264" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="265" spans="36:36">
-      <c r="AJ265" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="266" spans="36:36">
-      <c r="AJ266" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="267" spans="36:36">
-      <c r="AJ267" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="268" spans="36:36">
-      <c r="AJ268" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="269" spans="36:36">
-      <c r="AJ269" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="270" spans="36:36">
-      <c r="AJ270" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="271" spans="36:36">
-      <c r="AJ271" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="272" spans="36:36">
-      <c r="AJ272" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="273" spans="36:36">
-      <c r="AJ273" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="274" spans="36:36">
-      <c r="AJ274" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="275" spans="36:36">
-      <c r="AJ275" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="276" spans="36:36">
-      <c r="AJ276" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="277" spans="36:36">
-      <c r="AJ277" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="278" spans="36:36">
-      <c r="AJ278" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="279" spans="36:36">
-      <c r="AJ279" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="280" spans="36:36">
-      <c r="AJ280" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="281" spans="36:36">
-      <c r="AJ281" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="282" spans="36:36">
-      <c r="AJ282" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="283" spans="36:36">
-      <c r="AJ283" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="284" spans="36:36">
-      <c r="AJ284" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="285" spans="36:36">
-      <c r="AJ285" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="286" spans="36:36">
-      <c r="AJ286" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="287" spans="36:36">
-      <c r="AJ287" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="288" spans="36:36">
-      <c r="AJ288" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="289" spans="36:36">
-      <c r="AJ289" t="s">
-        <v>634</v>
+    </row>
+    <row r="289" spans="38:38">
+      <c r="AL289" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AN$1:$AN$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AL$1:$AL$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AL$1:$AL$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="715">
   <si>
     <t>alias</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1353,6 +1350,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1554,6 +1554,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1563,9 +1566,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1674,6 +1674,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1749,6 +1752,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1770,6 +1776,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1815,6 +1824,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,6 +1839,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1836,9 +1851,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,6 +1875,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1923,12 +1938,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2163,7 +2178,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3819,37 +3834,37 @@
         <v>359</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="150" customHeight="1">
@@ -3965,37 +3980,37 @@
         <v>360</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:AN289"/>
+  <dimension ref="L1:AN294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4036,7 +4051,7 @@
         <v>361</v>
       </c>
       <c r="AN1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="12:40">
@@ -4050,7 +4065,7 @@
         <v>362</v>
       </c>
       <c r="AN2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="12:40">
@@ -4061,7 +4076,7 @@
         <v>363</v>
       </c>
       <c r="AN3" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="12:40">
@@ -4072,7 +4087,7 @@
         <v>364</v>
       </c>
       <c r="AN4" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="12:40">
@@ -4083,7 +4098,7 @@
         <v>365</v>
       </c>
       <c r="AN5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="12:40">
@@ -4094,7 +4109,7 @@
         <v>366</v>
       </c>
       <c r="AN6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="12:40">
@@ -4105,7 +4120,7 @@
         <v>367</v>
       </c>
       <c r="AN7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="12:40">
@@ -4116,7 +4131,7 @@
         <v>368</v>
       </c>
       <c r="AN8" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="12:40">
@@ -4127,7 +4142,7 @@
         <v>369</v>
       </c>
       <c r="AN9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="12:40">
@@ -4138,7 +4153,7 @@
         <v>370</v>
       </c>
       <c r="AN10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="12:40">
@@ -4149,7 +4164,7 @@
         <v>371</v>
       </c>
       <c r="AN11" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="12:40">
@@ -4160,7 +4175,7 @@
         <v>372</v>
       </c>
       <c r="AN12" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="12:40">
@@ -4171,7 +4186,7 @@
         <v>373</v>
       </c>
       <c r="AN13" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="12:40">
@@ -4182,7 +4197,7 @@
         <v>374</v>
       </c>
       <c r="AN14" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="12:40">
@@ -4193,7 +4208,7 @@
         <v>375</v>
       </c>
       <c r="AN15" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="12:40">
@@ -4204,7 +4219,7 @@
         <v>376</v>
       </c>
       <c r="AN16" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="12:40">
@@ -4215,7 +4230,7 @@
         <v>377</v>
       </c>
       <c r="AN17" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="12:40">
@@ -4226,7 +4241,7 @@
         <v>378</v>
       </c>
       <c r="AN18" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="12:40">
@@ -4237,7 +4252,7 @@
         <v>379</v>
       </c>
       <c r="AN19" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="12:40">
@@ -4248,7 +4263,7 @@
         <v>380</v>
       </c>
       <c r="AN20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="12:40">
@@ -4259,7 +4274,7 @@
         <v>381</v>
       </c>
       <c r="AN21" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="12:40">
@@ -4270,7 +4285,7 @@
         <v>382</v>
       </c>
       <c r="AN22" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="12:40">
@@ -4281,7 +4296,7 @@
         <v>383</v>
       </c>
       <c r="AN23" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="12:40">
@@ -4289,7 +4304,7 @@
         <v>384</v>
       </c>
       <c r="AN24" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="12:40">
@@ -4297,7 +4312,7 @@
         <v>385</v>
       </c>
       <c r="AN25" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="12:40">
@@ -4305,7 +4320,7 @@
         <v>386</v>
       </c>
       <c r="AN26" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="12:40">
@@ -4313,7 +4328,7 @@
         <v>387</v>
       </c>
       <c r="AN27" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="12:40">
@@ -4321,7 +4336,7 @@
         <v>388</v>
       </c>
       <c r="AN28" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="12:40">
@@ -4329,7 +4344,7 @@
         <v>389</v>
       </c>
       <c r="AN29" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="12:40">
@@ -4337,7 +4352,7 @@
         <v>390</v>
       </c>
       <c r="AN30" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="12:40">
@@ -4345,7 +4360,7 @@
         <v>391</v>
       </c>
       <c r="AN31" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="12:40">
@@ -4353,7 +4368,7 @@
         <v>392</v>
       </c>
       <c r="AN32" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="38:40">
@@ -4361,7 +4376,7 @@
         <v>393</v>
       </c>
       <c r="AN33" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="38:40">
@@ -4369,7 +4384,7 @@
         <v>394</v>
       </c>
       <c r="AN34" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="38:40">
@@ -4377,7 +4392,7 @@
         <v>395</v>
       </c>
       <c r="AN35" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="38:40">
@@ -4385,7 +4400,7 @@
         <v>396</v>
       </c>
       <c r="AN36" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="38:40">
@@ -4393,7 +4408,7 @@
         <v>397</v>
       </c>
       <c r="AN37" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="38:40">
@@ -4401,7 +4416,7 @@
         <v>398</v>
       </c>
       <c r="AN38" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="38:40">
@@ -4409,7 +4424,7 @@
         <v>399</v>
       </c>
       <c r="AN39" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="38:40">
@@ -4417,7 +4432,7 @@
         <v>400</v>
       </c>
       <c r="AN40" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="38:40">
@@ -4425,7 +4440,7 @@
         <v>401</v>
       </c>
       <c r="AN41" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="38:40">
@@ -4433,7 +4448,7 @@
         <v>402</v>
       </c>
       <c r="AN42" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="38:40">
@@ -4441,7 +4456,7 @@
         <v>403</v>
       </c>
       <c r="AN43" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="38:40">
@@ -4449,7 +4464,7 @@
         <v>404</v>
       </c>
       <c r="AN44" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="38:40">
@@ -4457,7 +4472,7 @@
         <v>405</v>
       </c>
       <c r="AN45" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="38:40">
@@ -4465,7 +4480,7 @@
         <v>406</v>
       </c>
       <c r="AN46" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="38:40">
@@ -4473,7 +4488,7 @@
         <v>407</v>
       </c>
       <c r="AN47" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="38:40">
@@ -4481,7 +4496,7 @@
         <v>408</v>
       </c>
       <c r="AN48" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="38:40">
@@ -4489,7 +4504,7 @@
         <v>409</v>
       </c>
       <c r="AN49" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="38:40">
@@ -5634,62 +5649,87 @@
     </row>
     <row r="278" spans="38:38">
       <c r="AL278" t="s">
-        <v>290</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="38:38">
       <c r="AL279" t="s">
-        <v>291</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="38:38">
       <c r="AL280" t="s">
-        <v>292</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="38:38">
       <c r="AL281" t="s">
-        <v>293</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282" spans="38:38">
       <c r="AL282" t="s">
-        <v>294</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="38:38">
       <c r="AL283" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="38:38">
       <c r="AL284" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="38:38">
       <c r="AL285" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="38:38">
       <c r="AL286" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="38:38">
       <c r="AL287" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="38:38">
       <c r="AL288" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="38:38">
       <c r="AL289" t="s">
-        <v>638</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="38:38">
+      <c r="AL290" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="38:38">
+      <c r="AL291" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="38:38">
+      <c r="AL292" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="38:38">
+      <c r="AL293" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="38:38">
+      <c r="AL294" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000053/metadata_template_ERC000053.xlsx
+++ b/templates/ERC000053/metadata_template_ERC000053.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
     <definedName name="GAL">'cv_sample'!$AN$1:$AN$49</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AL$1:$AL$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$AL$1:$AL$294</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="715">
   <si>
     <t>alias</t>
   </si>
@@ -1332,9 +1332,6 @@
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>East Timor</t>
-  </si>
-  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -1353,6 +1350,9 @@
     <t>Estonia</t>
   </si>
   <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
     <t>Ethiopia</t>
   </si>
   <si>
@@ -1554,6 +1554,9 @@
     <t>Liechtenstein</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1563,9 +1566,6 @@
     <t>Macau</t>
   </si>
   <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
     <t>Madagascar</t>
   </si>
   <si>
@@ -1605,7 +1605,7 @@
     <t>Mexico</t>
   </si>
   <si>
-    <t>Micronesia</t>
+    <t>Micronesia, Federated States of</t>
   </si>
   <si>
     <t>Midway Islands</t>
@@ -1674,6 +1674,9 @@
     <t>North Korea</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1749,6 +1752,9 @@
     <t>Rwanda</t>
   </si>
   <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
     <t>Saint Helena</t>
   </si>
   <si>
@@ -1770,6 +1776,9 @@
     <t>San Marino</t>
   </si>
   <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
     <t>Sao Tome and Principe</t>
   </si>
   <si>
@@ -1815,6 +1824,9 @@
     <t>South Korea</t>
   </si>
   <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
     <t>Southern Ocean</t>
   </si>
   <si>
@@ -1827,6 +1839,9 @@
     <t>Sri Lanka</t>
   </si>
   <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
     <t>Sudan</t>
   </si>
   <si>
@@ -1836,9 +1851,6 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1863,6 +1875,9 @@
     <t>Thailand</t>
   </si>
   <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
     <t>Togo</t>
   </si>
   <si>
@@ -1923,12 +1938,12 @@
     <t>Viet Nam</t>
   </si>
   <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
     <t>Virgin Islands</t>
   </si>
   <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
     <t>Wallis and Futuna</t>
   </si>
   <si>
@@ -2163,7 +2178,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3819,37 +3834,37 @@
         <v>359</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:48" ht="150" customHeight="1">
@@ -3965,37 +3980,37 @@
         <v>360</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -4019,7 +4034,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="L1:AN289"/>
+  <dimension ref="L1:AN294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4036,7 +4051,7 @@
         <v>361</v>
       </c>
       <c r="AN1" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="12:40">
@@ -4050,7 +4065,7 @@
         <v>362</v>
       </c>
       <c r="AN2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="12:40">
@@ -4061,7 +4076,7 @@
         <v>363</v>
       </c>
       <c r="AN3" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="12:40">
@@ -4072,7 +4087,7 @@
         <v>364</v>
       </c>
       <c r="AN4" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" spans="12:40">
@@ -4083,7 +4098,7 @@
         <v>365</v>
       </c>
       <c r="AN5" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" spans="12:40">
@@ -4094,7 +4109,7 @@
         <v>366</v>
       </c>
       <c r="AN6" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" spans="12:40">
@@ -4105,7 +4120,7 @@
         <v>367</v>
       </c>
       <c r="AN7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="8" spans="12:40">
@@ -4116,7 +4131,7 @@
         <v>368</v>
       </c>
       <c r="AN8" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="12:40">
@@ -4127,7 +4142,7 @@
         <v>369</v>
       </c>
       <c r="AN9" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="12:40">
@@ -4138,7 +4153,7 @@
         <v>370</v>
       </c>
       <c r="AN10" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="11" spans="12:40">
@@ -4149,7 +4164,7 @@
         <v>371</v>
       </c>
       <c r="AN11" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="12:40">
@@ -4160,7 +4175,7 @@
         <v>372</v>
       </c>
       <c r="AN12" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="13" spans="12:40">
@@ -4171,7 +4186,7 @@
         <v>373</v>
       </c>
       <c r="AN13" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="14" spans="12:40">
@@ -4182,7 +4197,7 @@
         <v>374</v>
       </c>
       <c r="AN14" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" spans="12:40">
@@ -4193,7 +4208,7 @@
         <v>375</v>
       </c>
       <c r="AN15" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="16" spans="12:40">
@@ -4204,7 +4219,7 @@
         <v>376</v>
       </c>
       <c r="AN16" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="12:40">
@@ -4215,7 +4230,7 @@
         <v>377</v>
       </c>
       <c r="AN17" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="12:40">
@@ -4226,7 +4241,7 @@
         <v>378</v>
       </c>
       <c r="AN18" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="12:40">
@@ -4237,7 +4252,7 @@
         <v>379</v>
       </c>
       <c r="AN19" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="12:40">
@@ -4248,7 +4263,7 @@
         <v>380</v>
       </c>
       <c r="AN20" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="12:40">
@@ -4259,7 +4274,7 @@
         <v>381</v>
       </c>
       <c r="AN21" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="12:40">
@@ -4270,7 +4285,7 @@
         <v>382</v>
       </c>
       <c r="AN22" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="12:40">
@@ -4281,7 +4296,7 @@
         <v>383</v>
       </c>
       <c r="AN23" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="24" spans="12:40">
@@ -4289,7 +4304,7 @@
         <v>384</v>
       </c>
       <c r="AN24" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="12:40">
@@ -4297,7 +4312,7 @@
         <v>385</v>
       </c>
       <c r="AN25" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="12:40">
@@ -4305,7 +4320,7 @@
         <v>386</v>
       </c>
       <c r="AN26" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="12:40">
@@ -4313,7 +4328,7 @@
         <v>387</v>
       </c>
       <c r="AN27" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="12:40">
@@ -4321,7 +4336,7 @@
         <v>388</v>
       </c>
       <c r="AN28" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="12:40">
@@ -4329,7 +4344,7 @@
         <v>389</v>
       </c>
       <c r="AN29" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="12:40">
@@ -4337,7 +4352,7 @@
         <v>390</v>
       </c>
       <c r="AN30" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="12:40">
@@ -4345,7 +4360,7 @@
         <v>391</v>
       </c>
       <c r="AN31" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="12:40">
@@ -4353,7 +4368,7 @@
         <v>392</v>
       </c>
       <c r="AN32" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="38:40">
@@ -4361,7 +4376,7 @@
         <v>393</v>
       </c>
       <c r="AN33" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="38:40">
@@ -4369,7 +4384,7 @@
         <v>394</v>
       </c>
       <c r="AN34" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="38:40">
@@ -4377,7 +4392,7 @@
         <v>395</v>
       </c>
       <c r="AN35" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="38:40">
@@ -4385,7 +4400,7 @@
         <v>396</v>
       </c>
       <c r="AN36" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="38:40">
@@ -4393,7 +4408,7 @@
         <v>397</v>
       </c>
       <c r="AN37" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="38:40">
@@ -4401,7 +4416,7 @@
         <v>398</v>
       </c>
       <c r="AN38" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="38:40">
@@ -4409,7 +4424,7 @@
         <v>399</v>
       </c>
       <c r="AN39" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="38:40">
@@ -4417,7 +4432,7 @@
         <v>400</v>
       </c>
       <c r="AN40" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="38:40">
@@ -4425,7 +4440,7 @@
         <v>401</v>
       </c>
       <c r="AN41" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="38:40">
@@ -4433,7 +4448,7 @@
         <v>402</v>
       </c>
       <c r="AN42" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="38:40">
@@ -4441,7 +4456,7 @@
         <v>403</v>
       </c>
       <c r="AN43" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="44" spans="38:40">
@@ -4449,7 +4464,7 @@
         <v>404</v>
       </c>
       <c r="AN44" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="38:40">
@@ -4457,7 +4472,7 @@
         <v>405</v>
       </c>
       <c r="AN45" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="38:40">
@@ -4465,7 +4480,7 @@
         <v>406</v>
       </c>
       <c r="AN46" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="38:40">
@@ -4473,7 +4488,7 @@
         <v>407</v>
       </c>
       <c r="AN47" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="38:40">
@@ -4481,7 +4496,7 @@
         <v>408</v>
       </c>
       <c r="AN48" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="38:40">
@@ -4489,7 +4504,7 @@
         <v>409</v>
       </c>
       <c r="AN49" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="38:40">
@@ -5634,62 +5649,87 @@
     </row>
     <row r="278" spans="38:38">
       <c r="AL278" t="s">
-        <v>290</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279" spans="38:38">
       <c r="AL279" t="s">
-        <v>291</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="38:38">
       <c r="AL280" t="s">
-        <v>292</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281" spans="38:38">
       <c r="AL281" t="s">
-        <v>293</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282" spans="38:38">
       <c r="AL282" t="s">
-        <v>294</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="38:38">
       <c r="AL283" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="284" spans="38:38">
       <c r="AL284" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="285" spans="38:38">
       <c r="AL285" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="286" spans="38:38">
       <c r="AL286" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="287" spans="38:38">
       <c r="AL287" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="288" spans="38:38">
       <c r="AL288" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="289" spans="38:38">
       <c r="AL289" t="s">
-        <v>638</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="290" spans="38:38">
+      <c r="AL290" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="38:38">
+      <c r="AL291" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="38:38">
+      <c r="AL292" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="38:38">
+      <c r="AL293" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="38:38">
+      <c r="AL294" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
